--- a/builds_brawlers.xlsx
+++ b/builds_brawlers.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Desktop\Proyecto\documentos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25F974AD-BF6B-4D47-9D96-47655B5F7692}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70A91F00-BA39-4ECE-9B76-20EDE0BEE714}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="765" windowWidth="15780" windowHeight="15435" xr2:uid="{976858EE-14E3-4E09-96BE-2F95736D0462}"/>
+    <workbookView xWindow="11475" yWindow="45" windowWidth="15780" windowHeight="15435" activeTab="1" xr2:uid="{976858EE-14E3-4E09-96BE-2F95736D0462}"/>
   </bookViews>
   <sheets>
     <sheet name="BUILDS" sheetId="5" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="742" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="686" uniqueCount="194">
   <si>
     <t>Brawler</t>
   </si>
@@ -564,28 +564,13 @@
     <t>Total</t>
   </si>
   <si>
-    <t>Crow</t>
-  </si>
-  <si>
-    <t>Willow</t>
-  </si>
-  <si>
     <t>Kit</t>
   </si>
   <si>
     <t>Doug</t>
   </si>
   <si>
-    <t>Kenji</t>
-  </si>
-  <si>
     <t>Chuck</t>
-  </si>
-  <si>
-    <t>Meg</t>
-  </si>
-  <si>
-    <t>Sprout</t>
   </si>
   <si>
     <t>TOTAL</t>
@@ -883,7 +868,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -944,20 +929,26 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -967,27 +958,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1007,14 +977,32 @@
     <xf numFmtId="0" fontId="2" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1358,10 +1346,10 @@
   <sheetPr>
     <tabColor rgb="FF00B0F0"/>
   </sheetPr>
-  <dimension ref="A1:F81"/>
+  <dimension ref="A1:F73"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+    <sheetView topLeftCell="A20" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A74" sqref="A74:XFD81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1376,7 +1364,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="B1" s="12" t="s">
         <v>0</v>
@@ -1562,13 +1550,13 @@
         <v>120</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>9</v>
@@ -1622,10 +1610,10 @@
         <v>124</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>9</v>
@@ -1662,13 +1650,13 @@
         <v>131</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>8</v>
@@ -1682,10 +1670,10 @@
         <v>137</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>8</v>
@@ -1702,10 +1690,10 @@
         <v>138</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>9</v>
@@ -1742,10 +1730,10 @@
         <v>151</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>9</v>
@@ -2023,7 +2011,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="18" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C36" s="20"/>
       <c r="D36" s="20"/>
@@ -2035,7 +2023,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="18" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C37" s="20"/>
       <c r="D37" s="20"/>
@@ -2047,7 +2035,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="18" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C38" s="20"/>
       <c r="D38" s="20"/>
@@ -2473,102 +2461,6 @@
       <c r="D73" s="20"/>
       <c r="E73" s="20"/>
       <c r="F73" s="20"/>
-    </row>
-    <row r="74" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A74" s="13">
-        <v>73</v>
-      </c>
-      <c r="B74" s="18" t="s">
-        <v>167</v>
-      </c>
-      <c r="C74" s="20"/>
-      <c r="D74" s="20"/>
-      <c r="E74" s="20"/>
-      <c r="F74" s="20"/>
-    </row>
-    <row r="75" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A75" s="13">
-        <v>74</v>
-      </c>
-      <c r="B75" s="18" t="s">
-        <v>168</v>
-      </c>
-      <c r="C75" s="20"/>
-      <c r="D75" s="20"/>
-      <c r="E75" s="20"/>
-      <c r="F75" s="20"/>
-    </row>
-    <row r="76" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A76" s="13">
-        <v>75</v>
-      </c>
-      <c r="B76" s="18" t="s">
-        <v>169</v>
-      </c>
-      <c r="C76" s="20"/>
-      <c r="D76" s="20"/>
-      <c r="E76" s="20"/>
-      <c r="F76" s="20"/>
-    </row>
-    <row r="77" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A77" s="13">
-        <v>76</v>
-      </c>
-      <c r="B77" s="18" t="s">
-        <v>175</v>
-      </c>
-      <c r="C77" s="20"/>
-      <c r="D77" s="20"/>
-      <c r="E77" s="20"/>
-      <c r="F77" s="20"/>
-    </row>
-    <row r="78" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A78" s="13">
-        <v>77</v>
-      </c>
-      <c r="B78" s="18" t="s">
-        <v>176</v>
-      </c>
-      <c r="C78" s="20"/>
-      <c r="D78" s="20"/>
-      <c r="E78" s="20"/>
-      <c r="F78" s="20"/>
-    </row>
-    <row r="79" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A79" s="13">
-        <v>78</v>
-      </c>
-      <c r="B79" s="18" t="s">
-        <v>179</v>
-      </c>
-      <c r="C79" s="20"/>
-      <c r="D79" s="20"/>
-      <c r="E79" s="20"/>
-      <c r="F79" s="20"/>
-    </row>
-    <row r="80" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A80" s="13">
-        <v>79</v>
-      </c>
-      <c r="B80" s="18" t="s">
-        <v>181</v>
-      </c>
-      <c r="C80" s="20"/>
-      <c r="D80" s="20"/>
-      <c r="E80" s="20"/>
-      <c r="F80" s="20"/>
-    </row>
-    <row r="81" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A81" s="13">
-        <v>80</v>
-      </c>
-      <c r="B81" s="18" t="s">
-        <v>182</v>
-      </c>
-      <c r="C81" s="20"/>
-      <c r="D81" s="20"/>
-      <c r="E81" s="20"/>
-      <c r="F81" s="20"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2580,10 +2472,10 @@
   <sheetPr>
     <tabColor rgb="FFFF66CC"/>
   </sheetPr>
-  <dimension ref="A1:X121"/>
+  <dimension ref="A1:X113"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="D41" sqref="D41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2608,7 +2500,7 @@
   <sheetData>
     <row r="1" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="B1" s="12" t="s">
         <v>0</v>
@@ -2637,10 +2529,10 @@
       <c r="J1" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="L1" s="43" t="s">
+      <c r="L1" s="25" t="s">
         <v>52</v>
       </c>
-      <c r="M1" s="44"/>
+      <c r="M1" s="26"/>
       <c r="N1" s="11" t="s">
         <v>53</v>
       </c>
@@ -2666,7 +2558,7 @@
         <v>4</v>
       </c>
       <c r="W1" s="13" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="X1" s="13" t="s">
         <v>53</v>
@@ -2698,17 +2590,17 @@
         <v>88</v>
       </c>
       <c r="I2" s="2">
-        <f t="shared" ref="I2:I33" si="0">W2</f>
+        <f>W2</f>
         <v>0</v>
       </c>
       <c r="J2" s="2">
-        <f t="shared" ref="J2:J33" si="1">IF(C2=11,0,IF(C2=10,1440,IF(C2=9,2330,IF(C2=8,2880,IF(C2=7,3220,IF(C2=1,3740,"MUY BAJO"))))))</f>
-        <v>0</v>
-      </c>
-      <c r="L2" s="34" t="s">
+        <f>IF(C2=11,0,IF(C2=10,1440,IF(C2=9,2330,IF(C2=8,2880,IF(C2=7,3220,IF(C2=1,3740,"MUY BAJO"))))))</f>
+        <v>0</v>
+      </c>
+      <c r="L2" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="M2" s="35"/>
+      <c r="M2" s="23"/>
       <c r="N2" s="2">
         <v>20</v>
       </c>
@@ -2770,17 +2662,17 @@
         <v>88</v>
       </c>
       <c r="I3" s="2">
-        <f t="shared" si="0"/>
+        <f>W3</f>
         <v>0</v>
       </c>
       <c r="J3" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L3" s="34" t="s">
+        <f>IF(C3=11,0,IF(C3=10,1440,IF(C3=9,2330,IF(C3=8,2880,IF(C3=7,3220,IF(C3=1,3740,"MUY BAJO"))))))</f>
+        <v>0</v>
+      </c>
+      <c r="L3" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="M3" s="35"/>
+      <c r="M3" s="23"/>
       <c r="N3" s="2">
         <v>30</v>
       </c>
@@ -2788,31 +2680,31 @@
         <v>35</v>
       </c>
       <c r="Q3">
-        <f t="shared" ref="Q3:Q66" si="2">IF(C3=11,0,IF(C3=10,2800,IF(C3=9,4675,IF(C3=8,5925,IF(C3=7,6725,IF(C3=1,7765,"MUY BAJO"))))))</f>
+        <f t="shared" ref="Q3:Q66" si="0">IF(C3=11,0,IF(C3=10,2800,IF(C3=9,4675,IF(C3=8,5925,IF(C3=7,6725,IF(C3=1,7765,"MUY BAJO"))))))</f>
         <v>0</v>
       </c>
       <c r="R3">
-        <f t="shared" ref="R3:R66" si="3">IF(D3="No Tiene", 0, IF(D3="Si", 0, 5000))</f>
+        <f t="shared" ref="R3:R66" si="1">IF(D3="No Tiene", 0, IF(D3="Si", 0, 5000))</f>
         <v>0</v>
       </c>
       <c r="S3">
-        <f t="shared" ref="S3:S66" si="4">IF(E3="Si", 0, 1000)</f>
+        <f t="shared" ref="S3:S66" si="2">IF(E3="Si", 0, 1000)</f>
         <v>0</v>
       </c>
       <c r="T3">
-        <f t="shared" ref="T3:T66" si="5">IF(F3="Si", 0, 1000)</f>
+        <f t="shared" ref="T3:T66" si="3">IF(F3="Si", 0, 1000)</f>
         <v>0</v>
       </c>
       <c r="U3">
-        <f t="shared" ref="U3:U66" si="6">IF(G3="Si", 0, 1000)</f>
+        <f t="shared" ref="U3:U66" si="4">IF(G3="Si", 0, 1000)</f>
         <v>0</v>
       </c>
       <c r="V3">
-        <f t="shared" ref="V3:V66" si="7">IF(H3="Si", 0, 1000)</f>
+        <f t="shared" ref="V3:V66" si="5">IF(H3="Si", 0, 1000)</f>
         <v>0</v>
       </c>
       <c r="W3">
-        <f t="shared" ref="W3:W66" si="8">SUM(Q3:V3)</f>
+        <f t="shared" ref="W3:W66" si="6">SUM(Q3:V3)</f>
         <v>0</v>
       </c>
     </row>
@@ -2842,17 +2734,17 @@
         <v>88</v>
       </c>
       <c r="I4" s="2">
-        <f t="shared" si="0"/>
+        <f>W4</f>
         <v>0</v>
       </c>
       <c r="J4" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L4" s="34" t="s">
+        <f>IF(C4=11,0,IF(C4=10,1440,IF(C4=9,2330,IF(C4=8,2880,IF(C4=7,3220,IF(C4=1,3740,"MUY BAJO"))))))</f>
+        <v>0</v>
+      </c>
+      <c r="L4" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="M4" s="35"/>
+      <c r="M4" s="23"/>
       <c r="N4" s="2">
         <v>50</v>
       </c>
@@ -2860,31 +2752,31 @@
         <v>75</v>
       </c>
       <c r="Q4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S4">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="R4">
+      <c r="T4">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="S4">
+      <c r="U4">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="T4">
+      <c r="V4">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="U4">
+      <c r="W4">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="V4">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="W4">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -2914,17 +2806,17 @@
         <v>88</v>
       </c>
       <c r="I5" s="2">
-        <f t="shared" si="0"/>
+        <f>W5</f>
         <v>0</v>
       </c>
       <c r="J5" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L5" s="34" t="s">
+        <f>IF(C5=11,0,IF(C5=10,1440,IF(C5=9,2330,IF(C5=8,2880,IF(C5=7,3220,IF(C5=1,3740,"MUY BAJO"))))))</f>
+        <v>0</v>
+      </c>
+      <c r="L5" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="M5" s="35"/>
+      <c r="M5" s="23"/>
       <c r="N5" s="2">
         <v>80</v>
       </c>
@@ -2932,31 +2824,31 @@
         <v>140</v>
       </c>
       <c r="Q5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S5">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="R5">
+      <c r="T5">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="S5">
+      <c r="U5">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="T5">
+      <c r="V5">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="U5">
+      <c r="W5">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="V5">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="W5">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -2986,17 +2878,17 @@
         <v>88</v>
       </c>
       <c r="I6" s="2">
-        <f t="shared" si="0"/>
+        <f>W6</f>
         <v>0</v>
       </c>
       <c r="J6" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L6" s="34" t="s">
+        <f>IF(C6=11,0,IF(C6=10,1440,IF(C6=9,2330,IF(C6=8,2880,IF(C6=7,3220,IF(C6=1,3740,"MUY BAJO"))))))</f>
+        <v>0</v>
+      </c>
+      <c r="L6" s="22" t="s">
         <v>59</v>
       </c>
-      <c r="M6" s="35"/>
+      <c r="M6" s="23"/>
       <c r="N6" s="2">
         <v>130</v>
       </c>
@@ -3004,31 +2896,31 @@
         <v>290</v>
       </c>
       <c r="Q6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S6">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="R6">
+      <c r="T6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="S6">
+      <c r="U6">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="T6">
+      <c r="V6">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="U6">
+      <c r="W6">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="V6">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="W6">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -3058,17 +2950,17 @@
         <v>88</v>
       </c>
       <c r="I7" s="2">
-        <f t="shared" si="0"/>
+        <f>W7</f>
         <v>5000</v>
       </c>
       <c r="J7" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L7" s="34" t="s">
+        <f>IF(C7=11,0,IF(C7=10,1440,IF(C7=9,2330,IF(C7=8,2880,IF(C7=7,3220,IF(C7=1,3740,"MUY BAJO"))))))</f>
+        <v>0</v>
+      </c>
+      <c r="L7" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="M7" s="35"/>
+      <c r="M7" s="23"/>
       <c r="N7" s="2">
         <v>210</v>
       </c>
@@ -3076,31 +2968,31 @@
         <v>480</v>
       </c>
       <c r="Q7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <f t="shared" si="1"/>
+        <v>5000</v>
+      </c>
+      <c r="S7">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="R7">
+      <c r="T7">
         <f t="shared" si="3"/>
-        <v>5000</v>
-      </c>
-      <c r="S7">
+        <v>0</v>
+      </c>
+      <c r="U7">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="T7">
+      <c r="V7">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="U7">
+      <c r="W7">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="V7">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="W7">
-        <f t="shared" si="8"/>
         <v>5000</v>
       </c>
     </row>
@@ -3130,17 +3022,17 @@
         <v>89</v>
       </c>
       <c r="I8" s="2">
-        <f t="shared" si="0"/>
+        <f>W8</f>
         <v>15725</v>
       </c>
       <c r="J8" s="2">
-        <f t="shared" si="1"/>
+        <f>IF(C8=11,0,IF(C8=10,1440,IF(C8=9,2330,IF(C8=8,2880,IF(C8=7,3220,IF(C8=1,3740,"MUY BAJO"))))))</f>
         <v>3220</v>
       </c>
-      <c r="L8" s="34" t="s">
+      <c r="L8" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="M8" s="35"/>
+      <c r="M8" s="23"/>
       <c r="N8" s="2">
         <v>340</v>
       </c>
@@ -3148,31 +3040,31 @@
         <v>800</v>
       </c>
       <c r="Q8">
+        <f t="shared" si="0"/>
+        <v>6725</v>
+      </c>
+      <c r="R8">
+        <f t="shared" si="1"/>
+        <v>5000</v>
+      </c>
+      <c r="S8">
         <f t="shared" si="2"/>
-        <v>6725</v>
-      </c>
-      <c r="R8">
+        <v>1000</v>
+      </c>
+      <c r="T8">
         <f t="shared" si="3"/>
-        <v>5000</v>
-      </c>
-      <c r="S8">
+        <v>1000</v>
+      </c>
+      <c r="U8">
         <f t="shared" si="4"/>
         <v>1000</v>
       </c>
-      <c r="T8">
+      <c r="V8">
         <f t="shared" si="5"/>
         <v>1000</v>
       </c>
-      <c r="U8">
+      <c r="W8">
         <f t="shared" si="6"/>
-        <v>1000</v>
-      </c>
-      <c r="V8">
-        <f t="shared" si="7"/>
-        <v>1000</v>
-      </c>
-      <c r="W8">
-        <f t="shared" si="8"/>
         <v>15725</v>
       </c>
     </row>
@@ -3202,17 +3094,17 @@
         <v>88</v>
       </c>
       <c r="I9" s="2">
-        <f t="shared" si="0"/>
+        <f>W9</f>
         <v>0</v>
       </c>
       <c r="J9" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L9" s="34" t="s">
+        <f>IF(C9=11,0,IF(C9=10,1440,IF(C9=9,2330,IF(C9=8,2880,IF(C9=7,3220,IF(C9=1,3740,"MUY BAJO"))))))</f>
+        <v>0</v>
+      </c>
+      <c r="L9" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="M9" s="35"/>
+      <c r="M9" s="23"/>
       <c r="N9" s="2">
         <v>550</v>
       </c>
@@ -3220,31 +3112,31 @@
         <v>1250</v>
       </c>
       <c r="Q9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S9">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="R9">
+      <c r="T9">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="S9">
+      <c r="U9">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="T9">
+      <c r="V9">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="U9">
+      <c r="W9">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="V9">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="W9">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -3274,17 +3166,17 @@
         <v>89</v>
       </c>
       <c r="I10" s="2">
-        <f t="shared" si="0"/>
+        <f>W10</f>
         <v>7675</v>
       </c>
       <c r="J10" s="2">
-        <f t="shared" si="1"/>
+        <f>IF(C10=11,0,IF(C10=10,1440,IF(C10=9,2330,IF(C10=8,2880,IF(C10=7,3220,IF(C10=1,3740,"MUY BAJO"))))))</f>
         <v>2330</v>
       </c>
-      <c r="L10" s="34" t="s">
+      <c r="L10" s="22" t="s">
         <v>63</v>
       </c>
-      <c r="M10" s="35"/>
+      <c r="M10" s="23"/>
       <c r="N10" s="2">
         <v>890</v>
       </c>
@@ -3292,31 +3184,31 @@
         <v>1875</v>
       </c>
       <c r="Q10">
+        <f t="shared" si="0"/>
+        <v>4675</v>
+      </c>
+      <c r="R10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S10">
         <f t="shared" si="2"/>
-        <v>4675</v>
-      </c>
-      <c r="R10">
+        <v>1000</v>
+      </c>
+      <c r="T10">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="S10">
+      <c r="U10">
         <f t="shared" si="4"/>
         <v>1000</v>
       </c>
-      <c r="T10">
+      <c r="V10">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="U10">
+        <v>1000</v>
+      </c>
+      <c r="W10">
         <f t="shared" si="6"/>
-        <v>1000</v>
-      </c>
-      <c r="V10">
-        <f t="shared" si="7"/>
-        <v>1000</v>
-      </c>
-      <c r="W10">
-        <f t="shared" si="8"/>
         <v>7675</v>
       </c>
     </row>
@@ -3346,17 +3238,17 @@
         <v>89</v>
       </c>
       <c r="I11" s="2">
-        <f t="shared" si="0"/>
+        <f>W11</f>
         <v>8800</v>
       </c>
       <c r="J11" s="2">
-        <f t="shared" si="1"/>
+        <f>IF(C11=11,0,IF(C11=10,1440,IF(C11=9,2330,IF(C11=8,2880,IF(C11=7,3220,IF(C11=1,3740,"MUY BAJO"))))))</f>
         <v>1440</v>
       </c>
-      <c r="L11" s="34" t="s">
+      <c r="L11" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="M11" s="35"/>
+      <c r="M11" s="23"/>
       <c r="N11" s="2">
         <v>1440</v>
       </c>
@@ -3364,31 +3256,31 @@
         <v>2800</v>
       </c>
       <c r="Q11">
+        <f t="shared" si="0"/>
+        <v>2800</v>
+      </c>
+      <c r="R11">
+        <f t="shared" si="1"/>
+        <v>5000</v>
+      </c>
+      <c r="S11">
         <f t="shared" si="2"/>
-        <v>2800</v>
-      </c>
-      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="T11">
         <f t="shared" si="3"/>
-        <v>5000</v>
-      </c>
-      <c r="S11">
+        <v>0</v>
+      </c>
+      <c r="U11">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="T11">
+      <c r="V11">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="U11">
+        <v>1000</v>
+      </c>
+      <c r="W11">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="V11">
-        <f t="shared" si="7"/>
-        <v>1000</v>
-      </c>
-      <c r="W11">
-        <f t="shared" si="8"/>
         <v>8800</v>
       </c>
     </row>
@@ -3418,17 +3310,17 @@
         <v>89</v>
       </c>
       <c r="I12" s="2">
-        <f t="shared" si="0"/>
+        <f>W12</f>
         <v>9725</v>
       </c>
       <c r="J12" s="2">
-        <f t="shared" si="1"/>
+        <f>IF(C12=11,0,IF(C12=10,1440,IF(C12=9,2330,IF(C12=8,2880,IF(C12=7,3220,IF(C12=1,3740,"MUY BAJO"))))))</f>
         <v>3220</v>
       </c>
-      <c r="L12" s="34" t="s">
+      <c r="L12" s="22" t="s">
         <v>173</v>
       </c>
-      <c r="M12" s="35"/>
+      <c r="M12" s="23"/>
       <c r="N12" s="2">
         <f>SUM(N2:N11)</f>
         <v>3740</v>
@@ -3438,31 +3330,31 @@
         <v>7765</v>
       </c>
       <c r="Q12">
+        <f t="shared" si="0"/>
+        <v>6725</v>
+      </c>
+      <c r="R12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S12">
         <f t="shared" si="2"/>
-        <v>6725</v>
-      </c>
-      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="T12">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="S12">
+        <v>1000</v>
+      </c>
+      <c r="U12">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="T12">
+        <v>1000</v>
+      </c>
+      <c r="V12">
         <f t="shared" si="5"/>
         <v>1000</v>
       </c>
-      <c r="U12">
+      <c r="W12">
         <f t="shared" si="6"/>
-        <v>1000</v>
-      </c>
-      <c r="V12">
-        <f t="shared" si="7"/>
-        <v>1000</v>
-      </c>
-      <c r="W12">
-        <f t="shared" si="8"/>
         <v>9725</v>
       </c>
     </row>
@@ -3492,39 +3384,39 @@
         <v>89</v>
       </c>
       <c r="I13" s="2">
+        <f>W13</f>
+        <v>9925</v>
+      </c>
+      <c r="J13" s="2">
+        <f>IF(C13=11,0,IF(C13=10,1440,IF(C13=9,2330,IF(C13=8,2880,IF(C13=7,3220,IF(C13=1,3740,"MUY BAJO"))))))</f>
+        <v>2880</v>
+      </c>
+      <c r="Q13">
         <f t="shared" si="0"/>
-        <v>9925</v>
-      </c>
-      <c r="J13" s="2">
+        <v>5925</v>
+      </c>
+      <c r="R13">
         <f t="shared" si="1"/>
-        <v>2880</v>
-      </c>
-      <c r="Q13">
+        <v>0</v>
+      </c>
+      <c r="S13">
         <f t="shared" si="2"/>
-        <v>5925</v>
-      </c>
-      <c r="R13">
+        <v>1000</v>
+      </c>
+      <c r="T13">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="S13">
+        <v>1000</v>
+      </c>
+      <c r="U13">
         <f t="shared" si="4"/>
         <v>1000</v>
       </c>
-      <c r="T13">
+      <c r="V13">
         <f t="shared" si="5"/>
         <v>1000</v>
       </c>
-      <c r="U13">
+      <c r="W13">
         <f t="shared" si="6"/>
-        <v>1000</v>
-      </c>
-      <c r="V13">
-        <f t="shared" si="7"/>
-        <v>1000</v>
-      </c>
-      <c r="W13">
-        <f t="shared" si="8"/>
         <v>9925</v>
       </c>
     </row>
@@ -3554,39 +3446,39 @@
         <v>89</v>
       </c>
       <c r="I14" s="2">
+        <f>W14</f>
+        <v>10725</v>
+      </c>
+      <c r="J14" s="2">
+        <f>IF(C14=11,0,IF(C14=10,1440,IF(C14=9,2330,IF(C14=8,2880,IF(C14=7,3220,IF(C14=1,3740,"MUY BAJO"))))))</f>
+        <v>3220</v>
+      </c>
+      <c r="Q14">
         <f t="shared" si="0"/>
-        <v>10725</v>
-      </c>
-      <c r="J14" s="2">
+        <v>6725</v>
+      </c>
+      <c r="R14">
         <f t="shared" si="1"/>
-        <v>3220</v>
-      </c>
-      <c r="Q14">
+        <v>0</v>
+      </c>
+      <c r="S14">
         <f t="shared" si="2"/>
-        <v>6725</v>
-      </c>
-      <c r="R14">
+        <v>1000</v>
+      </c>
+      <c r="T14">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="S14">
+        <v>1000</v>
+      </c>
+      <c r="U14">
         <f t="shared" si="4"/>
         <v>1000</v>
       </c>
-      <c r="T14">
+      <c r="V14">
         <f t="shared" si="5"/>
         <v>1000</v>
       </c>
-      <c r="U14">
+      <c r="W14">
         <f t="shared" si="6"/>
-        <v>1000</v>
-      </c>
-      <c r="V14">
-        <f t="shared" si="7"/>
-        <v>1000</v>
-      </c>
-      <c r="W14">
-        <f t="shared" si="8"/>
         <v>10725</v>
       </c>
     </row>
@@ -3616,46 +3508,46 @@
         <v>89</v>
       </c>
       <c r="I15" s="2">
+        <f>W15</f>
+        <v>10725</v>
+      </c>
+      <c r="J15" s="2">
+        <f>IF(C15=11,0,IF(C15=10,1440,IF(C15=9,2330,IF(C15=8,2880,IF(C15=7,3220,IF(C15=1,3740,"MUY BAJO"))))))</f>
+        <v>3220</v>
+      </c>
+      <c r="L15" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="M15" s="24"/>
+      <c r="N15" s="2">
+        <v>1000</v>
+      </c>
+      <c r="Q15">
         <f t="shared" si="0"/>
-        <v>10725</v>
-      </c>
-      <c r="J15" s="2">
+        <v>6725</v>
+      </c>
+      <c r="R15">
         <f t="shared" si="1"/>
-        <v>3220</v>
-      </c>
-      <c r="L15" s="45" t="s">
-        <v>1</v>
-      </c>
-      <c r="M15" s="45"/>
-      <c r="N15" s="2">
-        <v>1000</v>
-      </c>
-      <c r="Q15">
+        <v>0</v>
+      </c>
+      <c r="S15">
         <f t="shared" si="2"/>
-        <v>6725</v>
-      </c>
-      <c r="R15">
+        <v>1000</v>
+      </c>
+      <c r="T15">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="S15">
+        <v>1000</v>
+      </c>
+      <c r="U15">
         <f t="shared" si="4"/>
         <v>1000</v>
       </c>
-      <c r="T15">
+      <c r="V15">
         <f t="shared" si="5"/>
         <v>1000</v>
       </c>
-      <c r="U15">
+      <c r="W15">
         <f t="shared" si="6"/>
-        <v>1000</v>
-      </c>
-      <c r="V15">
-        <f t="shared" si="7"/>
-        <v>1000</v>
-      </c>
-      <c r="W15">
-        <f t="shared" si="8"/>
         <v>10725</v>
       </c>
     </row>
@@ -3685,46 +3577,46 @@
         <v>89</v>
       </c>
       <c r="I16" s="2">
-        <f t="shared" si="0"/>
+        <f>W16</f>
         <v>10725</v>
       </c>
       <c r="J16" s="2">
-        <f t="shared" si="1"/>
+        <f>IF(C16=11,0,IF(C16=10,1440,IF(C16=9,2330,IF(C16=8,2880,IF(C16=7,3220,IF(C16=1,3740,"MUY BAJO"))))))</f>
         <v>3220</v>
       </c>
-      <c r="L16" s="45" t="s">
+      <c r="L16" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="M16" s="45"/>
+      <c r="M16" s="24"/>
       <c r="N16" s="2">
         <v>2000</v>
       </c>
       <c r="Q16">
+        <f t="shared" si="0"/>
+        <v>6725</v>
+      </c>
+      <c r="R16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S16">
         <f t="shared" si="2"/>
-        <v>6725</v>
-      </c>
-      <c r="R16">
+        <v>1000</v>
+      </c>
+      <c r="T16">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="S16">
+        <v>1000</v>
+      </c>
+      <c r="U16">
         <f t="shared" si="4"/>
         <v>1000</v>
       </c>
-      <c r="T16">
+      <c r="V16">
         <f t="shared" si="5"/>
         <v>1000</v>
       </c>
-      <c r="U16">
+      <c r="W16">
         <f t="shared" si="6"/>
-        <v>1000</v>
-      </c>
-      <c r="V16">
-        <f t="shared" si="7"/>
-        <v>1000</v>
-      </c>
-      <c r="W16">
-        <f t="shared" si="8"/>
         <v>10725</v>
       </c>
     </row>
@@ -3754,46 +3646,46 @@
         <v>89</v>
       </c>
       <c r="I17" s="2">
+        <f>W17</f>
+        <v>10725</v>
+      </c>
+      <c r="J17" s="2">
+        <f>IF(C17=11,0,IF(C17=10,1440,IF(C17=9,2330,IF(C17=8,2880,IF(C17=7,3220,IF(C17=1,3740,"MUY BAJO"))))))</f>
+        <v>3220</v>
+      </c>
+      <c r="L17" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="M17" s="24"/>
+      <c r="N17" s="2">
+        <v>1000</v>
+      </c>
+      <c r="Q17">
         <f t="shared" si="0"/>
-        <v>10725</v>
-      </c>
-      <c r="J17" s="2">
+        <v>6725</v>
+      </c>
+      <c r="R17">
         <f t="shared" si="1"/>
-        <v>3220</v>
-      </c>
-      <c r="L17" s="45" t="s">
-        <v>65</v>
-      </c>
-      <c r="M17" s="45"/>
-      <c r="N17" s="2">
-        <v>1000</v>
-      </c>
-      <c r="Q17">
+        <v>0</v>
+      </c>
+      <c r="S17">
         <f t="shared" si="2"/>
-        <v>6725</v>
-      </c>
-      <c r="R17">
+        <v>1000</v>
+      </c>
+      <c r="T17">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="S17">
+        <v>1000</v>
+      </c>
+      <c r="U17">
         <f t="shared" si="4"/>
         <v>1000</v>
       </c>
-      <c r="T17">
+      <c r="V17">
         <f t="shared" si="5"/>
         <v>1000</v>
       </c>
-      <c r="U17">
+      <c r="W17">
         <f t="shared" si="6"/>
-        <v>1000</v>
-      </c>
-      <c r="V17">
-        <f t="shared" si="7"/>
-        <v>1000</v>
-      </c>
-      <c r="W17">
-        <f t="shared" si="8"/>
         <v>10725</v>
       </c>
     </row>
@@ -3823,46 +3715,46 @@
         <v>89</v>
       </c>
       <c r="I18" s="2">
+        <f>W18</f>
+        <v>4000</v>
+      </c>
+      <c r="J18" s="2">
+        <f>IF(C18=11,0,IF(C18=10,1440,IF(C18=9,2330,IF(C18=8,2880,IF(C18=7,3220,IF(C18=1,3740,"MUY BAJO"))))))</f>
+        <v>0</v>
+      </c>
+      <c r="L18" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="M18" s="24"/>
+      <c r="N18" s="2">
+        <v>1000</v>
+      </c>
+      <c r="Q18">
         <f t="shared" si="0"/>
-        <v>4000</v>
-      </c>
-      <c r="J18" s="2">
+        <v>0</v>
+      </c>
+      <c r="R18">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L18" s="45" t="s">
-        <v>4</v>
-      </c>
-      <c r="M18" s="45"/>
-      <c r="N18" s="2">
-        <v>1000</v>
-      </c>
-      <c r="Q18">
+      <c r="S18">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="R18">
+        <v>1000</v>
+      </c>
+      <c r="T18">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="S18">
+        <v>1000</v>
+      </c>
+      <c r="U18">
         <f t="shared" si="4"/>
         <v>1000</v>
       </c>
-      <c r="T18">
+      <c r="V18">
         <f t="shared" si="5"/>
         <v>1000</v>
       </c>
-      <c r="U18">
+      <c r="W18">
         <f t="shared" si="6"/>
-        <v>1000</v>
-      </c>
-      <c r="V18">
-        <f t="shared" si="7"/>
-        <v>1000</v>
-      </c>
-      <c r="W18">
-        <f t="shared" si="8"/>
         <v>4000</v>
       </c>
     </row>
@@ -3892,39 +3784,39 @@
         <v>89</v>
       </c>
       <c r="I19" s="2">
+        <f>W19</f>
+        <v>10725</v>
+      </c>
+      <c r="J19" s="2">
+        <f>IF(C19=11,0,IF(C19=10,1440,IF(C19=9,2330,IF(C19=8,2880,IF(C19=7,3220,IF(C19=1,3740,"MUY BAJO"))))))</f>
+        <v>3220</v>
+      </c>
+      <c r="Q19">
         <f t="shared" si="0"/>
-        <v>10725</v>
-      </c>
-      <c r="J19" s="2">
+        <v>6725</v>
+      </c>
+      <c r="R19">
         <f t="shared" si="1"/>
-        <v>3220</v>
-      </c>
-      <c r="Q19">
+        <v>0</v>
+      </c>
+      <c r="S19">
         <f t="shared" si="2"/>
-        <v>6725</v>
-      </c>
-      <c r="R19">
+        <v>1000</v>
+      </c>
+      <c r="T19">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="S19">
+        <v>1000</v>
+      </c>
+      <c r="U19">
         <f t="shared" si="4"/>
         <v>1000</v>
       </c>
-      <c r="T19">
+      <c r="V19">
         <f t="shared" si="5"/>
         <v>1000</v>
       </c>
-      <c r="U19">
+      <c r="W19">
         <f t="shared" si="6"/>
-        <v>1000</v>
-      </c>
-      <c r="V19">
-        <f t="shared" si="7"/>
-        <v>1000</v>
-      </c>
-      <c r="W19">
-        <f t="shared" si="8"/>
         <v>10725</v>
       </c>
     </row>
@@ -3954,39 +3846,39 @@
         <v>89</v>
       </c>
       <c r="I20" s="2">
+        <f>W20</f>
+        <v>2000</v>
+      </c>
+      <c r="J20" s="2">
+        <f>IF(C20=11,0,IF(C20=10,1440,IF(C20=9,2330,IF(C20=8,2880,IF(C20=7,3220,IF(C20=1,3740,"MUY BAJO"))))))</f>
+        <v>0</v>
+      </c>
+      <c r="Q20">
         <f t="shared" si="0"/>
-        <v>2000</v>
-      </c>
-      <c r="J20" s="2">
+        <v>0</v>
+      </c>
+      <c r="R20">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Q20">
+      <c r="S20">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="R20">
+      <c r="T20">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="S20">
+      <c r="U20">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="T20">
+        <v>1000</v>
+      </c>
+      <c r="V20">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="U20">
+        <v>1000</v>
+      </c>
+      <c r="W20">
         <f t="shared" si="6"/>
-        <v>1000</v>
-      </c>
-      <c r="V20">
-        <f t="shared" si="7"/>
-        <v>1000</v>
-      </c>
-      <c r="W20">
-        <f t="shared" si="8"/>
         <v>2000</v>
       </c>
     </row>
@@ -4016,39 +3908,39 @@
         <v>89</v>
       </c>
       <c r="I21" s="2">
+        <f>W21</f>
+        <v>4000</v>
+      </c>
+      <c r="J21" s="2">
+        <f>IF(C21=11,0,IF(C21=10,1440,IF(C21=9,2330,IF(C21=8,2880,IF(C21=7,3220,IF(C21=1,3740,"MUY BAJO"))))))</f>
+        <v>0</v>
+      </c>
+      <c r="Q21">
         <f t="shared" si="0"/>
-        <v>4000</v>
-      </c>
-      <c r="J21" s="2">
+        <v>0</v>
+      </c>
+      <c r="R21">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Q21">
+      <c r="S21">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="R21">
+        <v>1000</v>
+      </c>
+      <c r="T21">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="S21">
+        <v>1000</v>
+      </c>
+      <c r="U21">
         <f t="shared" si="4"/>
         <v>1000</v>
       </c>
-      <c r="T21">
+      <c r="V21">
         <f t="shared" si="5"/>
         <v>1000</v>
       </c>
-      <c r="U21">
+      <c r="W21">
         <f t="shared" si="6"/>
-        <v>1000</v>
-      </c>
-      <c r="V21">
-        <f t="shared" si="7"/>
-        <v>1000</v>
-      </c>
-      <c r="W21">
-        <f t="shared" si="8"/>
         <v>4000</v>
       </c>
     </row>
@@ -4078,17 +3970,17 @@
         <v>89</v>
       </c>
       <c r="I22" s="2">
-        <f t="shared" si="0"/>
+        <f>W22</f>
         <v>4000</v>
       </c>
       <c r="J22" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L22" s="43" t="s">
+        <f>IF(C22=11,0,IF(C22=10,1440,IF(C22=9,2330,IF(C22=8,2880,IF(C22=7,3220,IF(C22=1,3740,"MUY BAJO"))))))</f>
+        <v>0</v>
+      </c>
+      <c r="L22" s="25" t="s">
         <v>52</v>
       </c>
-      <c r="M22" s="44"/>
+      <c r="M22" s="26"/>
       <c r="N22" s="11" t="s">
         <v>53</v>
       </c>
@@ -4096,31 +3988,31 @@
         <v>54</v>
       </c>
       <c r="Q22">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S22">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="R22">
+        <v>1000</v>
+      </c>
+      <c r="T22">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="S22">
+        <v>1000</v>
+      </c>
+      <c r="U22">
         <f t="shared" si="4"/>
         <v>1000</v>
       </c>
-      <c r="T22">
+      <c r="V22">
         <f t="shared" si="5"/>
         <v>1000</v>
       </c>
-      <c r="U22">
+      <c r="W22">
         <f t="shared" si="6"/>
-        <v>1000</v>
-      </c>
-      <c r="V22">
-        <f t="shared" si="7"/>
-        <v>1000</v>
-      </c>
-      <c r="W22">
-        <f t="shared" si="8"/>
         <v>4000</v>
       </c>
     </row>
@@ -4150,17 +4042,17 @@
         <v>89</v>
       </c>
       <c r="I23" s="2">
-        <f t="shared" si="0"/>
+        <f>W23</f>
         <v>3000</v>
       </c>
       <c r="J23" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L23" s="34" t="s">
+        <f>IF(C23=11,0,IF(C23=10,1440,IF(C23=9,2330,IF(C23=8,2880,IF(C23=7,3220,IF(C23=1,3740,"MUY BAJO"))))))</f>
+        <v>0</v>
+      </c>
+      <c r="L23" s="22" t="s">
         <v>170</v>
       </c>
-      <c r="M23" s="35"/>
+      <c r="M23" s="23"/>
       <c r="N23" s="2">
         <v>3220</v>
       </c>
@@ -4168,31 +4060,31 @@
         <v>6725</v>
       </c>
       <c r="Q23">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S23">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="R23">
+        <v>1000</v>
+      </c>
+      <c r="T23">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="S23">
+      <c r="U23">
         <f t="shared" si="4"/>
         <v>1000</v>
       </c>
-      <c r="T23">
+      <c r="V23">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="U23">
+        <v>1000</v>
+      </c>
+      <c r="W23">
         <f t="shared" si="6"/>
-        <v>1000</v>
-      </c>
-      <c r="V23">
-        <f t="shared" si="7"/>
-        <v>1000</v>
-      </c>
-      <c r="W23">
-        <f t="shared" si="8"/>
         <v>3000</v>
       </c>
     </row>
@@ -4222,17 +4114,17 @@
         <v>89</v>
       </c>
       <c r="I24" s="2">
-        <f t="shared" si="0"/>
+        <f>W24</f>
         <v>9000</v>
       </c>
       <c r="J24" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L24" s="34" t="s">
+        <f>IF(C24=11,0,IF(C24=10,1440,IF(C24=9,2330,IF(C24=8,2880,IF(C24=7,3220,IF(C24=1,3740,"MUY BAJO"))))))</f>
+        <v>0</v>
+      </c>
+      <c r="L24" s="22" t="s">
         <v>171</v>
       </c>
-      <c r="M24" s="35"/>
+      <c r="M24" s="23"/>
       <c r="N24" s="2">
         <v>2880</v>
       </c>
@@ -4240,31 +4132,31 @@
         <v>5925</v>
       </c>
       <c r="Q24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <f t="shared" si="1"/>
+        <v>5000</v>
+      </c>
+      <c r="S24">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="R24">
+        <v>1000</v>
+      </c>
+      <c r="T24">
         <f t="shared" si="3"/>
-        <v>5000</v>
-      </c>
-      <c r="S24">
+        <v>1000</v>
+      </c>
+      <c r="U24">
         <f t="shared" si="4"/>
         <v>1000</v>
       </c>
-      <c r="T24">
+      <c r="V24">
         <f t="shared" si="5"/>
         <v>1000</v>
       </c>
-      <c r="U24">
+      <c r="W24">
         <f t="shared" si="6"/>
-        <v>1000</v>
-      </c>
-      <c r="V24">
-        <f t="shared" si="7"/>
-        <v>1000</v>
-      </c>
-      <c r="W24">
-        <f t="shared" si="8"/>
         <v>9000</v>
       </c>
     </row>
@@ -4272,11 +4164,11 @@
       <c r="A25" s="13">
         <v>24</v>
       </c>
-      <c r="B25" s="7" t="s">
-        <v>37</v>
+      <c r="B25" s="46" t="s">
+        <v>136</v>
       </c>
       <c r="C25" s="2">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>88</v>
@@ -4284,27 +4176,27 @@
       <c r="E25" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="F25" s="4" t="s">
-        <v>88</v>
+      <c r="F25" s="2" t="s">
+        <v>89</v>
       </c>
       <c r="G25" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="H25" s="2" t="s">
+      <c r="H25" s="9" t="s">
         <v>89</v>
       </c>
       <c r="I25" s="2">
-        <f t="shared" si="0"/>
-        <v>3000</v>
+        <f>W25</f>
+        <v>10725</v>
       </c>
       <c r="J25" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L25" s="34" t="s">
+        <f>IF(C25=11,0,IF(C25=10,1440,IF(C25=9,2330,IF(C25=8,2880,IF(C25=7,3220,IF(C25=1,3740,"MUY BAJO"))))))</f>
+        <v>3220</v>
+      </c>
+      <c r="L25" s="22" t="s">
         <v>172</v>
       </c>
-      <c r="M25" s="35"/>
+      <c r="M25" s="23"/>
       <c r="N25" s="2">
         <v>2330</v>
       </c>
@@ -4312,32 +4204,32 @@
         <v>4675</v>
       </c>
       <c r="Q25">
+        <f t="shared" si="0"/>
+        <v>6725</v>
+      </c>
+      <c r="R25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S25">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="R25">
+        <v>1000</v>
+      </c>
+      <c r="T25">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="S25">
+        <v>1000</v>
+      </c>
+      <c r="U25">
         <f t="shared" si="4"/>
         <v>1000</v>
       </c>
-      <c r="T25">
+      <c r="V25">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="U25">
+        <v>1000</v>
+      </c>
+      <c r="W25">
         <f t="shared" si="6"/>
-        <v>1000</v>
-      </c>
-      <c r="V25">
-        <f t="shared" si="7"/>
-        <v>1000</v>
-      </c>
-      <c r="W25">
-        <f t="shared" si="8"/>
-        <v>3000</v>
+        <v>10725</v>
       </c>
     </row>
     <row r="26" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
@@ -4345,7 +4237,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="C26" s="2">
         <v>11</v>
@@ -4356,8 +4248,8 @@
       <c r="E26" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="F26" s="2" t="s">
-        <v>89</v>
+      <c r="F26" s="4" t="s">
+        <v>88</v>
       </c>
       <c r="G26" s="2" t="s">
         <v>89</v>
@@ -4366,17 +4258,17 @@
         <v>89</v>
       </c>
       <c r="I26" s="2">
-        <f t="shared" si="0"/>
-        <v>4000</v>
+        <f>W26</f>
+        <v>3000</v>
       </c>
       <c r="J26" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L26" s="34" t="s">
+        <f>IF(C26=11,0,IF(C26=10,1440,IF(C26=9,2330,IF(C26=8,2880,IF(C26=7,3220,IF(C26=1,3740,"MUY BAJO"))))))</f>
+        <v>0</v>
+      </c>
+      <c r="L26" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="M26" s="35"/>
+      <c r="M26" s="23"/>
       <c r="N26" s="2">
         <v>1440</v>
       </c>
@@ -4384,32 +4276,32 @@
         <v>2800</v>
       </c>
       <c r="Q26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R26">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S26">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="R26">
+        <v>1000</v>
+      </c>
+      <c r="T26">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="S26">
+      <c r="U26">
         <f t="shared" si="4"/>
         <v>1000</v>
       </c>
-      <c r="T26">
+      <c r="V26">
         <f t="shared" si="5"/>
         <v>1000</v>
       </c>
-      <c r="U26">
+      <c r="W26">
         <f t="shared" si="6"/>
-        <v>1000</v>
-      </c>
-      <c r="V26">
-        <f t="shared" si="7"/>
-        <v>1000</v>
-      </c>
-      <c r="W26">
-        <f t="shared" si="8"/>
-        <v>4000</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="27" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
@@ -4417,7 +4309,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>33</v>
+        <v>74</v>
       </c>
       <c r="C27" s="2">
         <v>11</v>
@@ -4425,11 +4317,11 @@
       <c r="D27" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="E27" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="F27" s="4" t="s">
-        <v>88</v>
+      <c r="E27" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>89</v>
       </c>
       <c r="G27" s="2" t="s">
         <v>89</v>
@@ -4438,40 +4330,40 @@
         <v>89</v>
       </c>
       <c r="I27" s="2">
+        <f>W27</f>
+        <v>4000</v>
+      </c>
+      <c r="J27" s="2">
+        <f>IF(C27=11,0,IF(C27=10,1440,IF(C27=9,2330,IF(C27=8,2880,IF(C27=7,3220,IF(C27=1,3740,"MUY BAJO"))))))</f>
+        <v>0</v>
+      </c>
+      <c r="Q27">
         <f t="shared" si="0"/>
-        <v>2000</v>
-      </c>
-      <c r="J27" s="2">
+        <v>0</v>
+      </c>
+      <c r="R27">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Q27">
+      <c r="S27">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="R27">
+        <v>1000</v>
+      </c>
+      <c r="T27">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="S27">
+        <v>1000</v>
+      </c>
+      <c r="U27">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="T27">
+        <v>1000</v>
+      </c>
+      <c r="V27">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="U27">
+        <v>1000</v>
+      </c>
+      <c r="W27">
         <f t="shared" si="6"/>
-        <v>1000</v>
-      </c>
-      <c r="V27">
-        <f t="shared" si="7"/>
-        <v>1000</v>
-      </c>
-      <c r="W27">
-        <f t="shared" si="8"/>
-        <v>2000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="28" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
@@ -4479,7 +4371,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>75</v>
+        <v>33</v>
       </c>
       <c r="C28" s="2">
         <v>11</v>
@@ -4487,11 +4379,11 @@
       <c r="D28" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="E28" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="F28" s="2" t="s">
-        <v>89</v>
+      <c r="E28" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>88</v>
       </c>
       <c r="G28" s="2" t="s">
         <v>89</v>
@@ -4500,54 +4392,54 @@
         <v>89</v>
       </c>
       <c r="I28" s="2">
+        <f>W28</f>
+        <v>2000</v>
+      </c>
+      <c r="J28" s="2">
+        <f>IF(C28=11,0,IF(C28=10,1440,IF(C28=9,2330,IF(C28=8,2880,IF(C28=7,3220,IF(C28=1,3740,"MUY BAJO"))))))</f>
+        <v>0</v>
+      </c>
+      <c r="Q28">
         <f t="shared" si="0"/>
-        <v>4000</v>
-      </c>
-      <c r="J28" s="2">
+        <v>0</v>
+      </c>
+      <c r="R28">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Q28">
+      <c r="S28">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="R28">
+      <c r="T28">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="S28">
+      <c r="U28">
         <f t="shared" si="4"/>
         <v>1000</v>
       </c>
-      <c r="T28">
+      <c r="V28">
         <f t="shared" si="5"/>
         <v>1000</v>
       </c>
-      <c r="U28">
+      <c r="W28">
         <f t="shared" si="6"/>
-        <v>1000</v>
-      </c>
-      <c r="V28">
-        <f t="shared" si="7"/>
-        <v>1000</v>
-      </c>
-      <c r="W28">
-        <f t="shared" si="8"/>
-        <v>4000</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="29" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="13">
         <v>28</v>
       </c>
-      <c r="B29" s="18" t="s">
-        <v>129</v>
+      <c r="B29" s="7" t="s">
+        <v>75</v>
       </c>
       <c r="C29" s="2">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>152</v>
+        <v>88</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>89</v>
@@ -4558,44 +4450,44 @@
       <c r="G29" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="H29" s="9" t="s">
+      <c r="H29" s="2" t="s">
         <v>89</v>
       </c>
       <c r="I29" s="2">
+        <f>W29</f>
+        <v>4000</v>
+      </c>
+      <c r="J29" s="2">
+        <f>IF(C29=11,0,IF(C29=10,1440,IF(C29=9,2330,IF(C29=8,2880,IF(C29=7,3220,IF(C29=1,3740,"MUY BAJO"))))))</f>
+        <v>0</v>
+      </c>
+      <c r="Q29">
         <f t="shared" si="0"/>
-        <v>9925</v>
-      </c>
-      <c r="J29" s="2">
+        <v>0</v>
+      </c>
+      <c r="R29">
         <f t="shared" si="1"/>
-        <v>2880</v>
-      </c>
-      <c r="Q29">
+        <v>0</v>
+      </c>
+      <c r="S29">
         <f t="shared" si="2"/>
-        <v>5925</v>
-      </c>
-      <c r="R29">
+        <v>1000</v>
+      </c>
+      <c r="T29">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="S29">
+        <v>1000</v>
+      </c>
+      <c r="U29">
         <f t="shared" si="4"/>
         <v>1000</v>
       </c>
-      <c r="T29">
+      <c r="V29">
         <f t="shared" si="5"/>
         <v>1000</v>
       </c>
-      <c r="U29">
+      <c r="W29">
         <f t="shared" si="6"/>
-        <v>1000</v>
-      </c>
-      <c r="V29">
-        <f t="shared" si="7"/>
-        <v>1000</v>
-      </c>
-      <c r="W29">
-        <f t="shared" si="8"/>
-        <v>9925</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="30" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
@@ -4603,13 +4495,13 @@
         <v>29</v>
       </c>
       <c r="B30" s="18" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="C30" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>89</v>
+        <v>152</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>89</v>
@@ -4624,40 +4516,40 @@
         <v>89</v>
       </c>
       <c r="I30" s="2">
+        <f>W30</f>
+        <v>9925</v>
+      </c>
+      <c r="J30" s="2">
+        <f>IF(C30=11,0,IF(C30=10,1440,IF(C30=9,2330,IF(C30=8,2880,IF(C30=7,3220,IF(C30=1,3740,"MUY BAJO"))))))</f>
+        <v>2880</v>
+      </c>
+      <c r="Q30">
         <f t="shared" si="0"/>
-        <v>13675</v>
-      </c>
-      <c r="J30" s="2">
+        <v>5925</v>
+      </c>
+      <c r="R30">
         <f t="shared" si="1"/>
-        <v>2330</v>
-      </c>
-      <c r="Q30">
+        <v>0</v>
+      </c>
+      <c r="S30">
         <f t="shared" si="2"/>
-        <v>4675</v>
-      </c>
-      <c r="R30">
+        <v>1000</v>
+      </c>
+      <c r="T30">
         <f t="shared" si="3"/>
-        <v>5000</v>
-      </c>
-      <c r="S30">
+        <v>1000</v>
+      </c>
+      <c r="U30">
         <f t="shared" si="4"/>
         <v>1000</v>
       </c>
-      <c r="T30">
+      <c r="V30">
         <f t="shared" si="5"/>
         <v>1000</v>
       </c>
-      <c r="U30">
+      <c r="W30">
         <f t="shared" si="6"/>
-        <v>1000</v>
-      </c>
-      <c r="V30">
-        <f t="shared" si="7"/>
-        <v>1000</v>
-      </c>
-      <c r="W30">
-        <f t="shared" si="8"/>
-        <v>13675</v>
+        <v>9925</v>
       </c>
     </row>
     <row r="31" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
@@ -4665,7 +4557,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="18" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C31" s="2">
         <v>9</v>
@@ -4686,39 +4578,39 @@
         <v>89</v>
       </c>
       <c r="I31" s="2">
+        <f>W31</f>
+        <v>13675</v>
+      </c>
+      <c r="J31" s="2">
+        <f>IF(C31=11,0,IF(C31=10,1440,IF(C31=9,2330,IF(C31=8,2880,IF(C31=7,3220,IF(C31=1,3740,"MUY BAJO"))))))</f>
+        <v>2330</v>
+      </c>
+      <c r="Q31">
         <f t="shared" si="0"/>
-        <v>13675</v>
-      </c>
-      <c r="J31" s="2">
+        <v>4675</v>
+      </c>
+      <c r="R31">
         <f t="shared" si="1"/>
-        <v>2330</v>
-      </c>
-      <c r="Q31">
+        <v>5000</v>
+      </c>
+      <c r="S31">
         <f t="shared" si="2"/>
-        <v>4675</v>
-      </c>
-      <c r="R31">
+        <v>1000</v>
+      </c>
+      <c r="T31">
         <f t="shared" si="3"/>
-        <v>5000</v>
-      </c>
-      <c r="S31">
+        <v>1000</v>
+      </c>
+      <c r="U31">
         <f t="shared" si="4"/>
         <v>1000</v>
       </c>
-      <c r="T31">
+      <c r="V31">
         <f t="shared" si="5"/>
         <v>1000</v>
       </c>
-      <c r="U31">
+      <c r="W31">
         <f t="shared" si="6"/>
-        <v>1000</v>
-      </c>
-      <c r="V31">
-        <f t="shared" si="7"/>
-        <v>1000</v>
-      </c>
-      <c r="W31">
-        <f t="shared" si="8"/>
         <v>13675</v>
       </c>
     </row>
@@ -4727,7 +4619,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="18" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C32" s="2">
         <v>9</v>
@@ -4748,39 +4640,39 @@
         <v>89</v>
       </c>
       <c r="I32" s="2">
+        <f>W32</f>
+        <v>13675</v>
+      </c>
+      <c r="J32" s="2">
+        <f>IF(C32=11,0,IF(C32=10,1440,IF(C32=9,2330,IF(C32=8,2880,IF(C32=7,3220,IF(C32=1,3740,"MUY BAJO"))))))</f>
+        <v>2330</v>
+      </c>
+      <c r="Q32">
         <f t="shared" si="0"/>
-        <v>13675</v>
-      </c>
-      <c r="J32" s="2">
+        <v>4675</v>
+      </c>
+      <c r="R32">
         <f t="shared" si="1"/>
-        <v>2330</v>
-      </c>
-      <c r="Q32">
+        <v>5000</v>
+      </c>
+      <c r="S32">
         <f t="shared" si="2"/>
-        <v>4675</v>
-      </c>
-      <c r="R32">
+        <v>1000</v>
+      </c>
+      <c r="T32">
         <f t="shared" si="3"/>
-        <v>5000</v>
-      </c>
-      <c r="S32">
+        <v>1000</v>
+      </c>
+      <c r="U32">
         <f t="shared" si="4"/>
         <v>1000</v>
       </c>
-      <c r="T32">
+      <c r="V32">
         <f t="shared" si="5"/>
         <v>1000</v>
       </c>
-      <c r="U32">
+      <c r="W32">
         <f t="shared" si="6"/>
-        <v>1000</v>
-      </c>
-      <c r="V32">
-        <f t="shared" si="7"/>
-        <v>1000</v>
-      </c>
-      <c r="W32">
-        <f t="shared" si="8"/>
         <v>13675</v>
       </c>
     </row>
@@ -4789,7 +4681,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="18" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C33" s="2">
         <v>9</v>
@@ -4810,39 +4702,39 @@
         <v>89</v>
       </c>
       <c r="I33" s="2">
+        <f>W33</f>
+        <v>13675</v>
+      </c>
+      <c r="J33" s="2">
+        <f>IF(C33=11,0,IF(C33=10,1440,IF(C33=9,2330,IF(C33=8,2880,IF(C33=7,3220,IF(C33=1,3740,"MUY BAJO"))))))</f>
+        <v>2330</v>
+      </c>
+      <c r="Q33">
         <f t="shared" si="0"/>
-        <v>13675</v>
-      </c>
-      <c r="J33" s="2">
+        <v>4675</v>
+      </c>
+      <c r="R33">
         <f t="shared" si="1"/>
-        <v>2330</v>
-      </c>
-      <c r="Q33">
+        <v>5000</v>
+      </c>
+      <c r="S33">
         <f t="shared" si="2"/>
-        <v>4675</v>
-      </c>
-      <c r="R33">
+        <v>1000</v>
+      </c>
+      <c r="T33">
         <f t="shared" si="3"/>
-        <v>5000</v>
-      </c>
-      <c r="S33">
+        <v>1000</v>
+      </c>
+      <c r="U33">
         <f t="shared" si="4"/>
         <v>1000</v>
       </c>
-      <c r="T33">
+      <c r="V33">
         <f t="shared" si="5"/>
         <v>1000</v>
       </c>
-      <c r="U33">
+      <c r="W33">
         <f t="shared" si="6"/>
-        <v>1000</v>
-      </c>
-      <c r="V33">
-        <f t="shared" si="7"/>
-        <v>1000</v>
-      </c>
-      <c r="W33">
-        <f t="shared" si="8"/>
         <v>13675</v>
       </c>
     </row>
@@ -4851,7 +4743,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="18" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="C34" s="2">
         <v>9</v>
@@ -4872,39 +4764,39 @@
         <v>89</v>
       </c>
       <c r="I34" s="2">
-        <f t="shared" ref="I34:I65" si="9">W34</f>
+        <f>W34</f>
         <v>13675</v>
       </c>
       <c r="J34" s="2">
-        <f t="shared" ref="J34:J65" si="10">IF(C34=11,0,IF(C34=10,1440,IF(C34=9,2330,IF(C34=8,2880,IF(C34=7,3220,IF(C34=1,3740,"MUY BAJO"))))))</f>
+        <f>IF(C34=11,0,IF(C34=10,1440,IF(C34=9,2330,IF(C34=8,2880,IF(C34=7,3220,IF(C34=1,3740,"MUY BAJO"))))))</f>
         <v>2330</v>
       </c>
       <c r="Q34">
+        <f t="shared" si="0"/>
+        <v>4675</v>
+      </c>
+      <c r="R34">
+        <f t="shared" si="1"/>
+        <v>5000</v>
+      </c>
+      <c r="S34">
         <f t="shared" si="2"/>
-        <v>4675</v>
-      </c>
-      <c r="R34">
+        <v>1000</v>
+      </c>
+      <c r="T34">
         <f t="shared" si="3"/>
-        <v>5000</v>
-      </c>
-      <c r="S34">
+        <v>1000</v>
+      </c>
+      <c r="U34">
         <f t="shared" si="4"/>
         <v>1000</v>
       </c>
-      <c r="T34">
+      <c r="V34">
         <f t="shared" si="5"/>
         <v>1000</v>
       </c>
-      <c r="U34">
+      <c r="W34">
         <f t="shared" si="6"/>
-        <v>1000</v>
-      </c>
-      <c r="V34">
-        <f t="shared" si="7"/>
-        <v>1000</v>
-      </c>
-      <c r="W34">
-        <f t="shared" si="8"/>
         <v>13675</v>
       </c>
     </row>
@@ -4913,10 +4805,10 @@
         <v>34</v>
       </c>
       <c r="B35" s="18" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C35" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>89</v>
@@ -4934,40 +4826,40 @@
         <v>89</v>
       </c>
       <c r="I35" s="2">
-        <f t="shared" si="9"/>
-        <v>14925</v>
+        <f>W35</f>
+        <v>13675</v>
       </c>
       <c r="J35" s="2">
-        <f t="shared" si="10"/>
-        <v>2880</v>
+        <f>IF(C35=11,0,IF(C35=10,1440,IF(C35=9,2330,IF(C35=8,2880,IF(C35=7,3220,IF(C35=1,3740,"MUY BAJO"))))))</f>
+        <v>2330</v>
       </c>
       <c r="Q35">
+        <f t="shared" si="0"/>
+        <v>4675</v>
+      </c>
+      <c r="R35">
+        <f t="shared" si="1"/>
+        <v>5000</v>
+      </c>
+      <c r="S35">
         <f t="shared" si="2"/>
-        <v>5925</v>
-      </c>
-      <c r="R35">
+        <v>1000</v>
+      </c>
+      <c r="T35">
         <f t="shared" si="3"/>
-        <v>5000</v>
-      </c>
-      <c r="S35">
+        <v>1000</v>
+      </c>
+      <c r="U35">
         <f t="shared" si="4"/>
         <v>1000</v>
       </c>
-      <c r="T35">
+      <c r="V35">
         <f t="shared" si="5"/>
         <v>1000</v>
       </c>
-      <c r="U35">
+      <c r="W35">
         <f t="shared" si="6"/>
-        <v>1000</v>
-      </c>
-      <c r="V35">
-        <f t="shared" si="7"/>
-        <v>1000</v>
-      </c>
-      <c r="W35">
-        <f t="shared" si="8"/>
-        <v>14925</v>
+        <v>13675</v>
       </c>
     </row>
     <row r="36" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
@@ -4975,7 +4867,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="18" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C36" s="2">
         <v>8</v>
@@ -4996,39 +4888,39 @@
         <v>89</v>
       </c>
       <c r="I36" s="2">
-        <f t="shared" si="9"/>
+        <f>W36</f>
         <v>14925</v>
       </c>
       <c r="J36" s="2">
-        <f t="shared" si="10"/>
+        <f>IF(C36=11,0,IF(C36=10,1440,IF(C36=9,2330,IF(C36=8,2880,IF(C36=7,3220,IF(C36=1,3740,"MUY BAJO"))))))</f>
         <v>2880</v>
       </c>
       <c r="Q36">
+        <f t="shared" si="0"/>
+        <v>5925</v>
+      </c>
+      <c r="R36">
+        <f t="shared" si="1"/>
+        <v>5000</v>
+      </c>
+      <c r="S36">
         <f t="shared" si="2"/>
-        <v>5925</v>
-      </c>
-      <c r="R36">
+        <v>1000</v>
+      </c>
+      <c r="T36">
         <f t="shared" si="3"/>
-        <v>5000</v>
-      </c>
-      <c r="S36">
+        <v>1000</v>
+      </c>
+      <c r="U36">
         <f t="shared" si="4"/>
         <v>1000</v>
       </c>
-      <c r="T36">
+      <c r="V36">
         <f t="shared" si="5"/>
         <v>1000</v>
       </c>
-      <c r="U36">
+      <c r="W36">
         <f t="shared" si="6"/>
-        <v>1000</v>
-      </c>
-      <c r="V36">
-        <f t="shared" si="7"/>
-        <v>1000</v>
-      </c>
-      <c r="W36">
-        <f t="shared" si="8"/>
         <v>14925</v>
       </c>
     </row>
@@ -5037,7 +4929,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="18" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C37" s="2">
         <v>8</v>
@@ -5058,39 +4950,39 @@
         <v>89</v>
       </c>
       <c r="I37" s="2">
-        <f t="shared" si="9"/>
+        <f>W37</f>
         <v>14925</v>
       </c>
       <c r="J37" s="2">
-        <f t="shared" si="10"/>
+        <f>IF(C37=11,0,IF(C37=10,1440,IF(C37=9,2330,IF(C37=8,2880,IF(C37=7,3220,IF(C37=1,3740,"MUY BAJO"))))))</f>
         <v>2880</v>
       </c>
       <c r="Q37">
+        <f t="shared" si="0"/>
+        <v>5925</v>
+      </c>
+      <c r="R37">
+        <f t="shared" si="1"/>
+        <v>5000</v>
+      </c>
+      <c r="S37">
         <f t="shared" si="2"/>
-        <v>5925</v>
-      </c>
-      <c r="R37">
+        <v>1000</v>
+      </c>
+      <c r="T37">
         <f t="shared" si="3"/>
-        <v>5000</v>
-      </c>
-      <c r="S37">
+        <v>1000</v>
+      </c>
+      <c r="U37">
         <f t="shared" si="4"/>
         <v>1000</v>
       </c>
-      <c r="T37">
+      <c r="V37">
         <f t="shared" si="5"/>
         <v>1000</v>
       </c>
-      <c r="U37">
+      <c r="W37">
         <f t="shared" si="6"/>
-        <v>1000</v>
-      </c>
-      <c r="V37">
-        <f t="shared" si="7"/>
-        <v>1000</v>
-      </c>
-      <c r="W37">
-        <f t="shared" si="8"/>
         <v>14925</v>
       </c>
     </row>
@@ -5099,7 +4991,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="18" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C38" s="2">
         <v>8</v>
@@ -5120,39 +5012,39 @@
         <v>89</v>
       </c>
       <c r="I38" s="2">
-        <f t="shared" si="9"/>
+        <f>W38</f>
         <v>14925</v>
       </c>
       <c r="J38" s="2">
-        <f t="shared" si="10"/>
+        <f>IF(C38=11,0,IF(C38=10,1440,IF(C38=9,2330,IF(C38=8,2880,IF(C38=7,3220,IF(C38=1,3740,"MUY BAJO"))))))</f>
         <v>2880</v>
       </c>
       <c r="Q38">
+        <f t="shared" si="0"/>
+        <v>5925</v>
+      </c>
+      <c r="R38">
+        <f t="shared" si="1"/>
+        <v>5000</v>
+      </c>
+      <c r="S38">
         <f t="shared" si="2"/>
-        <v>5925</v>
-      </c>
-      <c r="R38">
+        <v>1000</v>
+      </c>
+      <c r="T38">
         <f t="shared" si="3"/>
-        <v>5000</v>
-      </c>
-      <c r="S38">
+        <v>1000</v>
+      </c>
+      <c r="U38">
         <f t="shared" si="4"/>
         <v>1000</v>
       </c>
-      <c r="T38">
+      <c r="V38">
         <f t="shared" si="5"/>
         <v>1000</v>
       </c>
-      <c r="U38">
+      <c r="W38">
         <f t="shared" si="6"/>
-        <v>1000</v>
-      </c>
-      <c r="V38">
-        <f t="shared" si="7"/>
-        <v>1000</v>
-      </c>
-      <c r="W38">
-        <f t="shared" si="8"/>
         <v>14925</v>
       </c>
     </row>
@@ -5161,13 +5053,13 @@
         <v>38</v>
       </c>
       <c r="B39" s="18" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="C39" s="2">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>152</v>
+        <v>89</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>89</v>
@@ -5182,40 +5074,40 @@
         <v>89</v>
       </c>
       <c r="I39" s="2">
-        <f t="shared" si="9"/>
-        <v>10725</v>
+        <f>W39</f>
+        <v>14925</v>
       </c>
       <c r="J39" s="2">
-        <f t="shared" si="10"/>
-        <v>3220</v>
+        <f>IF(C39=11,0,IF(C39=10,1440,IF(C39=9,2330,IF(C39=8,2880,IF(C39=7,3220,IF(C39=1,3740,"MUY BAJO"))))))</f>
+        <v>2880</v>
       </c>
       <c r="Q39">
+        <f t="shared" si="0"/>
+        <v>5925</v>
+      </c>
+      <c r="R39">
+        <f t="shared" si="1"/>
+        <v>5000</v>
+      </c>
+      <c r="S39">
         <f t="shared" si="2"/>
-        <v>6725</v>
-      </c>
-      <c r="R39">
+        <v>1000</v>
+      </c>
+      <c r="T39">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="S39">
+        <v>1000</v>
+      </c>
+      <c r="U39">
         <f t="shared" si="4"/>
         <v>1000</v>
       </c>
-      <c r="T39">
+      <c r="V39">
         <f t="shared" si="5"/>
         <v>1000</v>
       </c>
-      <c r="U39">
+      <c r="W39">
         <f t="shared" si="6"/>
-        <v>1000</v>
-      </c>
-      <c r="V39">
-        <f t="shared" si="7"/>
-        <v>1000</v>
-      </c>
-      <c r="W39">
-        <f t="shared" si="8"/>
-        <v>10725</v>
+        <v>14925</v>
       </c>
     </row>
     <row r="40" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
@@ -5223,7 +5115,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="18" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C40" s="2">
         <v>7</v>
@@ -5244,39 +5136,39 @@
         <v>89</v>
       </c>
       <c r="I40" s="2">
-        <f t="shared" si="9"/>
+        <f>W40</f>
         <v>10725</v>
       </c>
       <c r="J40" s="2">
-        <f t="shared" si="10"/>
+        <f>IF(C40=11,0,IF(C40=10,1440,IF(C40=9,2330,IF(C40=8,2880,IF(C40=7,3220,IF(C40=1,3740,"MUY BAJO"))))))</f>
         <v>3220</v>
       </c>
       <c r="Q40">
+        <f t="shared" si="0"/>
+        <v>6725</v>
+      </c>
+      <c r="R40">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S40">
         <f t="shared" si="2"/>
-        <v>6725</v>
-      </c>
-      <c r="R40">
+        <v>1000</v>
+      </c>
+      <c r="T40">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="S40">
+        <v>1000</v>
+      </c>
+      <c r="U40">
         <f t="shared" si="4"/>
         <v>1000</v>
       </c>
-      <c r="T40">
+      <c r="V40">
         <f t="shared" si="5"/>
         <v>1000</v>
       </c>
-      <c r="U40">
+      <c r="W40">
         <f t="shared" si="6"/>
-        <v>1000</v>
-      </c>
-      <c r="V40">
-        <f t="shared" si="7"/>
-        <v>1000</v>
-      </c>
-      <c r="W40">
-        <f t="shared" si="8"/>
         <v>10725</v>
       </c>
     </row>
@@ -5285,13 +5177,13 @@
         <v>40</v>
       </c>
       <c r="B41" s="18" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="C41" s="2">
         <v>7</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>152</v>
+        <v>89</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>89</v>
@@ -5306,40 +5198,40 @@
         <v>89</v>
       </c>
       <c r="I41" s="2">
-        <f t="shared" si="9"/>
-        <v>10725</v>
+        <f>W41</f>
+        <v>15725</v>
       </c>
       <c r="J41" s="2">
-        <f t="shared" si="10"/>
+        <f>IF(C41=11,0,IF(C41=10,1440,IF(C41=9,2330,IF(C41=8,2880,IF(C41=7,3220,IF(C41=1,3740,"MUY BAJO"))))))</f>
         <v>3220</v>
       </c>
       <c r="Q41">
+        <f t="shared" si="0"/>
+        <v>6725</v>
+      </c>
+      <c r="R41">
+        <f t="shared" si="1"/>
+        <v>5000</v>
+      </c>
+      <c r="S41">
         <f t="shared" si="2"/>
-        <v>6725</v>
-      </c>
-      <c r="R41">
+        <v>1000</v>
+      </c>
+      <c r="T41">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="S41">
+        <v>1000</v>
+      </c>
+      <c r="U41">
         <f t="shared" si="4"/>
         <v>1000</v>
       </c>
-      <c r="T41">
+      <c r="V41">
         <f t="shared" si="5"/>
         <v>1000</v>
       </c>
-      <c r="U41">
+      <c r="W41">
         <f t="shared" si="6"/>
-        <v>1000</v>
-      </c>
-      <c r="V41">
-        <f t="shared" si="7"/>
-        <v>1000</v>
-      </c>
-      <c r="W41">
-        <f t="shared" si="8"/>
-        <v>10725</v>
+        <v>15725</v>
       </c>
     </row>
     <row r="42" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
@@ -5347,7 +5239,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="18" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C42" s="2">
         <v>7</v>
@@ -5368,39 +5260,39 @@
         <v>89</v>
       </c>
       <c r="I42" s="2">
-        <f t="shared" si="9"/>
+        <f>W42</f>
         <v>10725</v>
       </c>
       <c r="J42" s="2">
-        <f t="shared" si="10"/>
+        <f>IF(C42=11,0,IF(C42=10,1440,IF(C42=9,2330,IF(C42=8,2880,IF(C42=7,3220,IF(C42=1,3740,"MUY BAJO"))))))</f>
         <v>3220</v>
       </c>
       <c r="Q42">
+        <f t="shared" si="0"/>
+        <v>6725</v>
+      </c>
+      <c r="R42">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S42">
         <f t="shared" si="2"/>
-        <v>6725</v>
-      </c>
-      <c r="R42">
+        <v>1000</v>
+      </c>
+      <c r="T42">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="S42">
+        <v>1000</v>
+      </c>
+      <c r="U42">
         <f t="shared" si="4"/>
         <v>1000</v>
       </c>
-      <c r="T42">
+      <c r="V42">
         <f t="shared" si="5"/>
         <v>1000</v>
       </c>
-      <c r="U42">
+      <c r="W42">
         <f t="shared" si="6"/>
-        <v>1000</v>
-      </c>
-      <c r="V42">
-        <f t="shared" si="7"/>
-        <v>1000</v>
-      </c>
-      <c r="W42">
-        <f t="shared" si="8"/>
         <v>10725</v>
       </c>
     </row>
@@ -5409,7 +5301,7 @@
         <v>42</v>
       </c>
       <c r="B43" s="18" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C43" s="2">
         <v>7</v>
@@ -5430,39 +5322,39 @@
         <v>89</v>
       </c>
       <c r="I43" s="2">
-        <f t="shared" si="9"/>
+        <f>W43</f>
         <v>10725</v>
       </c>
       <c r="J43" s="2">
-        <f t="shared" si="10"/>
+        <f>IF(C43=11,0,IF(C43=10,1440,IF(C43=9,2330,IF(C43=8,2880,IF(C43=7,3220,IF(C43=1,3740,"MUY BAJO"))))))</f>
         <v>3220</v>
       </c>
       <c r="Q43">
+        <f t="shared" si="0"/>
+        <v>6725</v>
+      </c>
+      <c r="R43">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S43">
         <f t="shared" si="2"/>
-        <v>6725</v>
-      </c>
-      <c r="R43">
+        <v>1000</v>
+      </c>
+      <c r="T43">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="S43">
+        <v>1000</v>
+      </c>
+      <c r="U43">
         <f t="shared" si="4"/>
         <v>1000</v>
       </c>
-      <c r="T43">
+      <c r="V43">
         <f t="shared" si="5"/>
         <v>1000</v>
       </c>
-      <c r="U43">
+      <c r="W43">
         <f t="shared" si="6"/>
-        <v>1000</v>
-      </c>
-      <c r="V43">
-        <f t="shared" si="7"/>
-        <v>1000</v>
-      </c>
-      <c r="W43">
-        <f t="shared" si="8"/>
         <v>10725</v>
       </c>
     </row>
@@ -5471,7 +5363,7 @@
         <v>43</v>
       </c>
       <c r="B44" s="18" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="C44" s="2">
         <v>7</v>
@@ -5492,39 +5384,39 @@
         <v>89</v>
       </c>
       <c r="I44" s="2">
-        <f t="shared" si="9"/>
+        <f>W44</f>
         <v>10725</v>
       </c>
       <c r="J44" s="2">
-        <f t="shared" si="10"/>
+        <f>IF(C44=11,0,IF(C44=10,1440,IF(C44=9,2330,IF(C44=8,2880,IF(C44=7,3220,IF(C44=1,3740,"MUY BAJO"))))))</f>
         <v>3220</v>
       </c>
       <c r="Q44">
+        <f t="shared" si="0"/>
+        <v>6725</v>
+      </c>
+      <c r="R44">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S44">
         <f t="shared" si="2"/>
-        <v>6725</v>
-      </c>
-      <c r="R44">
+        <v>1000</v>
+      </c>
+      <c r="T44">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="S44">
+        <v>1000</v>
+      </c>
+      <c r="U44">
         <f t="shared" si="4"/>
         <v>1000</v>
       </c>
-      <c r="T44">
+      <c r="V44">
         <f t="shared" si="5"/>
         <v>1000</v>
       </c>
-      <c r="U44">
+      <c r="W44">
         <f t="shared" si="6"/>
-        <v>1000</v>
-      </c>
-      <c r="V44">
-        <f t="shared" si="7"/>
-        <v>1000</v>
-      </c>
-      <c r="W44">
-        <f t="shared" si="8"/>
         <v>10725</v>
       </c>
     </row>
@@ -5533,13 +5425,13 @@
         <v>44</v>
       </c>
       <c r="B45" s="18" t="s">
-        <v>130</v>
+        <v>164</v>
       </c>
       <c r="C45" s="2">
         <v>7</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>89</v>
+        <v>152</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>89</v>
@@ -5554,40 +5446,40 @@
         <v>89</v>
       </c>
       <c r="I45" s="2">
-        <f t="shared" si="9"/>
-        <v>15725</v>
+        <f>W45</f>
+        <v>10725</v>
       </c>
       <c r="J45" s="2">
-        <f t="shared" si="10"/>
+        <f>IF(C45=11,0,IF(C45=10,1440,IF(C45=9,2330,IF(C45=8,2880,IF(C45=7,3220,IF(C45=1,3740,"MUY BAJO"))))))</f>
         <v>3220</v>
       </c>
       <c r="Q45">
+        <f t="shared" si="0"/>
+        <v>6725</v>
+      </c>
+      <c r="R45">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S45">
         <f t="shared" si="2"/>
-        <v>6725</v>
-      </c>
-      <c r="R45">
+        <v>1000</v>
+      </c>
+      <c r="T45">
         <f t="shared" si="3"/>
-        <v>5000</v>
-      </c>
-      <c r="S45">
+        <v>1000</v>
+      </c>
+      <c r="U45">
         <f t="shared" si="4"/>
         <v>1000</v>
       </c>
-      <c r="T45">
+      <c r="V45">
         <f t="shared" si="5"/>
         <v>1000</v>
       </c>
-      <c r="U45">
+      <c r="W45">
         <f t="shared" si="6"/>
-        <v>1000</v>
-      </c>
-      <c r="V45">
-        <f t="shared" si="7"/>
-        <v>1000</v>
-      </c>
-      <c r="W45">
-        <f t="shared" si="8"/>
-        <v>15725</v>
+        <v>10725</v>
       </c>
     </row>
     <row r="46" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
@@ -5595,7 +5487,7 @@
         <v>45</v>
       </c>
       <c r="B46" s="18" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C46" s="2">
         <v>7</v>
@@ -5616,39 +5508,39 @@
         <v>89</v>
       </c>
       <c r="I46" s="2">
-        <f t="shared" si="9"/>
+        <f>W46</f>
         <v>15725</v>
       </c>
       <c r="J46" s="2">
-        <f t="shared" si="10"/>
+        <f>IF(C46=11,0,IF(C46=10,1440,IF(C46=9,2330,IF(C46=8,2880,IF(C46=7,3220,IF(C46=1,3740,"MUY BAJO"))))))</f>
         <v>3220</v>
       </c>
       <c r="Q46">
+        <f t="shared" si="0"/>
+        <v>6725</v>
+      </c>
+      <c r="R46">
+        <f t="shared" si="1"/>
+        <v>5000</v>
+      </c>
+      <c r="S46">
         <f t="shared" si="2"/>
-        <v>6725</v>
-      </c>
-      <c r="R46">
+        <v>1000</v>
+      </c>
+      <c r="T46">
         <f t="shared" si="3"/>
-        <v>5000</v>
-      </c>
-      <c r="S46">
+        <v>1000</v>
+      </c>
+      <c r="U46">
         <f t="shared" si="4"/>
         <v>1000</v>
       </c>
-      <c r="T46">
+      <c r="V46">
         <f t="shared" si="5"/>
         <v>1000</v>
       </c>
-      <c r="U46">
+      <c r="W46">
         <f t="shared" si="6"/>
-        <v>1000</v>
-      </c>
-      <c r="V46">
-        <f t="shared" si="7"/>
-        <v>1000</v>
-      </c>
-      <c r="W46">
-        <f t="shared" si="8"/>
         <v>15725</v>
       </c>
     </row>
@@ -5657,7 +5549,7 @@
         <v>46</v>
       </c>
       <c r="B47" s="18" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C47" s="2">
         <v>7</v>
@@ -5678,39 +5570,39 @@
         <v>89</v>
       </c>
       <c r="I47" s="2">
-        <f t="shared" si="9"/>
+        <f>W47</f>
         <v>15725</v>
       </c>
       <c r="J47" s="2">
-        <f t="shared" si="10"/>
+        <f>IF(C47=11,0,IF(C47=10,1440,IF(C47=9,2330,IF(C47=8,2880,IF(C47=7,3220,IF(C47=1,3740,"MUY BAJO"))))))</f>
         <v>3220</v>
       </c>
       <c r="Q47">
+        <f t="shared" si="0"/>
+        <v>6725</v>
+      </c>
+      <c r="R47">
+        <f t="shared" si="1"/>
+        <v>5000</v>
+      </c>
+      <c r="S47">
         <f t="shared" si="2"/>
-        <v>6725</v>
-      </c>
-      <c r="R47">
+        <v>1000</v>
+      </c>
+      <c r="T47">
         <f t="shared" si="3"/>
-        <v>5000</v>
-      </c>
-      <c r="S47">
+        <v>1000</v>
+      </c>
+      <c r="U47">
         <f t="shared" si="4"/>
         <v>1000</v>
       </c>
-      <c r="T47">
+      <c r="V47">
         <f t="shared" si="5"/>
         <v>1000</v>
       </c>
-      <c r="U47">
+      <c r="W47">
         <f t="shared" si="6"/>
-        <v>1000</v>
-      </c>
-      <c r="V47">
-        <f t="shared" si="7"/>
-        <v>1000</v>
-      </c>
-      <c r="W47">
-        <f t="shared" si="8"/>
         <v>15725</v>
       </c>
     </row>
@@ -5719,7 +5611,7 @@
         <v>47</v>
       </c>
       <c r="B48" s="18" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C48" s="2">
         <v>7</v>
@@ -5740,39 +5632,39 @@
         <v>89</v>
       </c>
       <c r="I48" s="2">
-        <f t="shared" si="9"/>
+        <f>W48</f>
         <v>15725</v>
       </c>
       <c r="J48" s="2">
-        <f t="shared" si="10"/>
+        <f>IF(C48=11,0,IF(C48=10,1440,IF(C48=9,2330,IF(C48=8,2880,IF(C48=7,3220,IF(C48=1,3740,"MUY BAJO"))))))</f>
         <v>3220</v>
       </c>
       <c r="Q48">
+        <f t="shared" si="0"/>
+        <v>6725</v>
+      </c>
+      <c r="R48">
+        <f t="shared" si="1"/>
+        <v>5000</v>
+      </c>
+      <c r="S48">
         <f t="shared" si="2"/>
-        <v>6725</v>
-      </c>
-      <c r="R48">
+        <v>1000</v>
+      </c>
+      <c r="T48">
         <f t="shared" si="3"/>
-        <v>5000</v>
-      </c>
-      <c r="S48">
+        <v>1000</v>
+      </c>
+      <c r="U48">
         <f t="shared" si="4"/>
         <v>1000</v>
       </c>
-      <c r="T48">
+      <c r="V48">
         <f t="shared" si="5"/>
         <v>1000</v>
       </c>
-      <c r="U48">
+      <c r="W48">
         <f t="shared" si="6"/>
-        <v>1000</v>
-      </c>
-      <c r="V48">
-        <f t="shared" si="7"/>
-        <v>1000</v>
-      </c>
-      <c r="W48">
-        <f t="shared" si="8"/>
         <v>15725</v>
       </c>
     </row>
@@ -5781,7 +5673,7 @@
         <v>48</v>
       </c>
       <c r="B49" s="18" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C49" s="2">
         <v>7</v>
@@ -5802,39 +5694,39 @@
         <v>89</v>
       </c>
       <c r="I49" s="2">
-        <f t="shared" si="9"/>
+        <f>W49</f>
         <v>15725</v>
       </c>
       <c r="J49" s="2">
-        <f t="shared" si="10"/>
+        <f>IF(C49=11,0,IF(C49=10,1440,IF(C49=9,2330,IF(C49=8,2880,IF(C49=7,3220,IF(C49=1,3740,"MUY BAJO"))))))</f>
         <v>3220</v>
       </c>
       <c r="Q49">
+        <f t="shared" si="0"/>
+        <v>6725</v>
+      </c>
+      <c r="R49">
+        <f t="shared" si="1"/>
+        <v>5000</v>
+      </c>
+      <c r="S49">
         <f t="shared" si="2"/>
-        <v>6725</v>
-      </c>
-      <c r="R49">
+        <v>1000</v>
+      </c>
+      <c r="T49">
         <f t="shared" si="3"/>
-        <v>5000</v>
-      </c>
-      <c r="S49">
+        <v>1000</v>
+      </c>
+      <c r="U49">
         <f t="shared" si="4"/>
         <v>1000</v>
       </c>
-      <c r="T49">
+      <c r="V49">
         <f t="shared" si="5"/>
         <v>1000</v>
       </c>
-      <c r="U49">
+      <c r="W49">
         <f t="shared" si="6"/>
-        <v>1000</v>
-      </c>
-      <c r="V49">
-        <f t="shared" si="7"/>
-        <v>1000</v>
-      </c>
-      <c r="W49">
-        <f t="shared" si="8"/>
         <v>15725</v>
       </c>
     </row>
@@ -5843,7 +5735,7 @@
         <v>49</v>
       </c>
       <c r="B50" s="18" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C50" s="2">
         <v>7</v>
@@ -5864,39 +5756,39 @@
         <v>89</v>
       </c>
       <c r="I50" s="2">
-        <f t="shared" si="9"/>
+        <f>W50</f>
         <v>15725</v>
       </c>
       <c r="J50" s="2">
-        <f t="shared" si="10"/>
+        <f>IF(C50=11,0,IF(C50=10,1440,IF(C50=9,2330,IF(C50=8,2880,IF(C50=7,3220,IF(C50=1,3740,"MUY BAJO"))))))</f>
         <v>3220</v>
       </c>
       <c r="Q50">
+        <f t="shared" si="0"/>
+        <v>6725</v>
+      </c>
+      <c r="R50">
+        <f t="shared" si="1"/>
+        <v>5000</v>
+      </c>
+      <c r="S50">
         <f t="shared" si="2"/>
-        <v>6725</v>
-      </c>
-      <c r="R50">
+        <v>1000</v>
+      </c>
+      <c r="T50">
         <f t="shared" si="3"/>
-        <v>5000</v>
-      </c>
-      <c r="S50">
+        <v>1000</v>
+      </c>
+      <c r="U50">
         <f t="shared" si="4"/>
         <v>1000</v>
       </c>
-      <c r="T50">
+      <c r="V50">
         <f t="shared" si="5"/>
         <v>1000</v>
       </c>
-      <c r="U50">
+      <c r="W50">
         <f t="shared" si="6"/>
-        <v>1000</v>
-      </c>
-      <c r="V50">
-        <f t="shared" si="7"/>
-        <v>1000</v>
-      </c>
-      <c r="W50">
-        <f t="shared" si="8"/>
         <v>15725</v>
       </c>
     </row>
@@ -5926,39 +5818,39 @@
         <v>89</v>
       </c>
       <c r="I51" s="2">
-        <f t="shared" si="9"/>
+        <f>W51</f>
         <v>15725</v>
       </c>
       <c r="J51" s="2">
-        <f t="shared" si="10"/>
+        <f>IF(C51=11,0,IF(C51=10,1440,IF(C51=9,2330,IF(C51=8,2880,IF(C51=7,3220,IF(C51=1,3740,"MUY BAJO"))))))</f>
         <v>3220</v>
       </c>
       <c r="Q51">
+        <f t="shared" si="0"/>
+        <v>6725</v>
+      </c>
+      <c r="R51">
+        <f t="shared" si="1"/>
+        <v>5000</v>
+      </c>
+      <c r="S51">
         <f t="shared" si="2"/>
-        <v>6725</v>
-      </c>
-      <c r="R51">
+        <v>1000</v>
+      </c>
+      <c r="T51">
         <f t="shared" si="3"/>
-        <v>5000</v>
-      </c>
-      <c r="S51">
+        <v>1000</v>
+      </c>
+      <c r="U51">
         <f t="shared" si="4"/>
         <v>1000</v>
       </c>
-      <c r="T51">
+      <c r="V51">
         <f t="shared" si="5"/>
         <v>1000</v>
       </c>
-      <c r="U51">
+      <c r="W51">
         <f t="shared" si="6"/>
-        <v>1000</v>
-      </c>
-      <c r="V51">
-        <f t="shared" si="7"/>
-        <v>1000</v>
-      </c>
-      <c r="W51">
-        <f t="shared" si="8"/>
         <v>15725</v>
       </c>
     </row>
@@ -5988,39 +5880,39 @@
         <v>89</v>
       </c>
       <c r="I52" s="2">
-        <f t="shared" si="9"/>
+        <f>W52</f>
         <v>15725</v>
       </c>
       <c r="J52" s="2">
-        <f t="shared" si="10"/>
+        <f>IF(C52=11,0,IF(C52=10,1440,IF(C52=9,2330,IF(C52=8,2880,IF(C52=7,3220,IF(C52=1,3740,"MUY BAJO"))))))</f>
         <v>3220</v>
       </c>
       <c r="Q52">
+        <f t="shared" si="0"/>
+        <v>6725</v>
+      </c>
+      <c r="R52">
+        <f t="shared" si="1"/>
+        <v>5000</v>
+      </c>
+      <c r="S52">
         <f t="shared" si="2"/>
-        <v>6725</v>
-      </c>
-      <c r="R52">
+        <v>1000</v>
+      </c>
+      <c r="T52">
         <f t="shared" si="3"/>
-        <v>5000</v>
-      </c>
-      <c r="S52">
+        <v>1000</v>
+      </c>
+      <c r="U52">
         <f t="shared" si="4"/>
         <v>1000</v>
       </c>
-      <c r="T52">
+      <c r="V52">
         <f t="shared" si="5"/>
         <v>1000</v>
       </c>
-      <c r="U52">
+      <c r="W52">
         <f t="shared" si="6"/>
-        <v>1000</v>
-      </c>
-      <c r="V52">
-        <f t="shared" si="7"/>
-        <v>1000</v>
-      </c>
-      <c r="W52">
-        <f t="shared" si="8"/>
         <v>15725</v>
       </c>
     </row>
@@ -6050,39 +5942,39 @@
         <v>89</v>
       </c>
       <c r="I53" s="2">
-        <f t="shared" si="9"/>
+        <f>W53</f>
         <v>15725</v>
       </c>
       <c r="J53" s="2">
-        <f t="shared" si="10"/>
+        <f>IF(C53=11,0,IF(C53=10,1440,IF(C53=9,2330,IF(C53=8,2880,IF(C53=7,3220,IF(C53=1,3740,"MUY BAJO"))))))</f>
         <v>3220</v>
       </c>
       <c r="Q53">
+        <f t="shared" si="0"/>
+        <v>6725</v>
+      </c>
+      <c r="R53">
+        <f t="shared" si="1"/>
+        <v>5000</v>
+      </c>
+      <c r="S53">
         <f t="shared" si="2"/>
-        <v>6725</v>
-      </c>
-      <c r="R53">
+        <v>1000</v>
+      </c>
+      <c r="T53">
         <f t="shared" si="3"/>
-        <v>5000</v>
-      </c>
-      <c r="S53">
+        <v>1000</v>
+      </c>
+      <c r="U53">
         <f t="shared" si="4"/>
         <v>1000</v>
       </c>
-      <c r="T53">
+      <c r="V53">
         <f t="shared" si="5"/>
         <v>1000</v>
       </c>
-      <c r="U53">
+      <c r="W53">
         <f t="shared" si="6"/>
-        <v>1000</v>
-      </c>
-      <c r="V53">
-        <f t="shared" si="7"/>
-        <v>1000</v>
-      </c>
-      <c r="W53">
-        <f t="shared" si="8"/>
         <v>15725</v>
       </c>
     </row>
@@ -6112,39 +6004,39 @@
         <v>89</v>
       </c>
       <c r="I54" s="2">
-        <f t="shared" si="9"/>
+        <f>W54</f>
         <v>15725</v>
       </c>
       <c r="J54" s="2">
-        <f t="shared" si="10"/>
+        <f>IF(C54=11,0,IF(C54=10,1440,IF(C54=9,2330,IF(C54=8,2880,IF(C54=7,3220,IF(C54=1,3740,"MUY BAJO"))))))</f>
         <v>3220</v>
       </c>
       <c r="Q54">
+        <f t="shared" si="0"/>
+        <v>6725</v>
+      </c>
+      <c r="R54">
+        <f t="shared" si="1"/>
+        <v>5000</v>
+      </c>
+      <c r="S54">
         <f t="shared" si="2"/>
-        <v>6725</v>
-      </c>
-      <c r="R54">
+        <v>1000</v>
+      </c>
+      <c r="T54">
         <f t="shared" si="3"/>
-        <v>5000</v>
-      </c>
-      <c r="S54">
+        <v>1000</v>
+      </c>
+      <c r="U54">
         <f t="shared" si="4"/>
         <v>1000</v>
       </c>
-      <c r="T54">
+      <c r="V54">
         <f t="shared" si="5"/>
         <v>1000</v>
       </c>
-      <c r="U54">
+      <c r="W54">
         <f t="shared" si="6"/>
-        <v>1000</v>
-      </c>
-      <c r="V54">
-        <f t="shared" si="7"/>
-        <v>1000</v>
-      </c>
-      <c r="W54">
-        <f t="shared" si="8"/>
         <v>15725</v>
       </c>
     </row>
@@ -6174,39 +6066,39 @@
         <v>89</v>
       </c>
       <c r="I55" s="2">
-        <f t="shared" si="9"/>
+        <f>W55</f>
         <v>15725</v>
       </c>
       <c r="J55" s="2">
-        <f t="shared" si="10"/>
+        <f>IF(C55=11,0,IF(C55=10,1440,IF(C55=9,2330,IF(C55=8,2880,IF(C55=7,3220,IF(C55=1,3740,"MUY BAJO"))))))</f>
         <v>3220</v>
       </c>
       <c r="Q55">
+        <f t="shared" si="0"/>
+        <v>6725</v>
+      </c>
+      <c r="R55">
+        <f t="shared" si="1"/>
+        <v>5000</v>
+      </c>
+      <c r="S55">
         <f t="shared" si="2"/>
-        <v>6725</v>
-      </c>
-      <c r="R55">
+        <v>1000</v>
+      </c>
+      <c r="T55">
         <f t="shared" si="3"/>
-        <v>5000</v>
-      </c>
-      <c r="S55">
+        <v>1000</v>
+      </c>
+      <c r="U55">
         <f t="shared" si="4"/>
         <v>1000</v>
       </c>
-      <c r="T55">
+      <c r="V55">
         <f t="shared" si="5"/>
         <v>1000</v>
       </c>
-      <c r="U55">
+      <c r="W55">
         <f t="shared" si="6"/>
-        <v>1000</v>
-      </c>
-      <c r="V55">
-        <f t="shared" si="7"/>
-        <v>1000</v>
-      </c>
-      <c r="W55">
-        <f t="shared" si="8"/>
         <v>15725</v>
       </c>
     </row>
@@ -6236,39 +6128,39 @@
         <v>89</v>
       </c>
       <c r="I56" s="2">
-        <f t="shared" si="9"/>
+        <f>W56</f>
         <v>15725</v>
       </c>
       <c r="J56" s="2">
-        <f t="shared" si="10"/>
+        <f>IF(C56=11,0,IF(C56=10,1440,IF(C56=9,2330,IF(C56=8,2880,IF(C56=7,3220,IF(C56=1,3740,"MUY BAJO"))))))</f>
         <v>3220</v>
       </c>
       <c r="Q56">
+        <f t="shared" si="0"/>
+        <v>6725</v>
+      </c>
+      <c r="R56">
+        <f t="shared" si="1"/>
+        <v>5000</v>
+      </c>
+      <c r="S56">
         <f t="shared" si="2"/>
-        <v>6725</v>
-      </c>
-      <c r="R56">
+        <v>1000</v>
+      </c>
+      <c r="T56">
         <f t="shared" si="3"/>
-        <v>5000</v>
-      </c>
-      <c r="S56">
+        <v>1000</v>
+      </c>
+      <c r="U56">
         <f t="shared" si="4"/>
         <v>1000</v>
       </c>
-      <c r="T56">
+      <c r="V56">
         <f t="shared" si="5"/>
         <v>1000</v>
       </c>
-      <c r="U56">
+      <c r="W56">
         <f t="shared" si="6"/>
-        <v>1000</v>
-      </c>
-      <c r="V56">
-        <f t="shared" si="7"/>
-        <v>1000</v>
-      </c>
-      <c r="W56">
-        <f t="shared" si="8"/>
         <v>15725</v>
       </c>
     </row>
@@ -6298,39 +6190,39 @@
         <v>89</v>
       </c>
       <c r="I57" s="2">
-        <f t="shared" si="9"/>
+        <f>W57</f>
         <v>15725</v>
       </c>
       <c r="J57" s="2">
-        <f t="shared" si="10"/>
+        <f>IF(C57=11,0,IF(C57=10,1440,IF(C57=9,2330,IF(C57=8,2880,IF(C57=7,3220,IF(C57=1,3740,"MUY BAJO"))))))</f>
         <v>3220</v>
       </c>
       <c r="Q57">
+        <f t="shared" si="0"/>
+        <v>6725</v>
+      </c>
+      <c r="R57">
+        <f t="shared" si="1"/>
+        <v>5000</v>
+      </c>
+      <c r="S57">
         <f t="shared" si="2"/>
-        <v>6725</v>
-      </c>
-      <c r="R57">
+        <v>1000</v>
+      </c>
+      <c r="T57">
         <f t="shared" si="3"/>
-        <v>5000</v>
-      </c>
-      <c r="S57">
+        <v>1000</v>
+      </c>
+      <c r="U57">
         <f t="shared" si="4"/>
         <v>1000</v>
       </c>
-      <c r="T57">
+      <c r="V57">
         <f t="shared" si="5"/>
         <v>1000</v>
       </c>
-      <c r="U57">
+      <c r="W57">
         <f t="shared" si="6"/>
-        <v>1000</v>
-      </c>
-      <c r="V57">
-        <f t="shared" si="7"/>
-        <v>1000</v>
-      </c>
-      <c r="W57">
-        <f t="shared" si="8"/>
         <v>15725</v>
       </c>
     </row>
@@ -6360,39 +6252,39 @@
         <v>89</v>
       </c>
       <c r="I58" s="2">
-        <f t="shared" si="9"/>
+        <f>W58</f>
         <v>15725</v>
       </c>
       <c r="J58" s="2">
-        <f t="shared" si="10"/>
+        <f>IF(C58=11,0,IF(C58=10,1440,IF(C58=9,2330,IF(C58=8,2880,IF(C58=7,3220,IF(C58=1,3740,"MUY BAJO"))))))</f>
         <v>3220</v>
       </c>
       <c r="Q58">
+        <f t="shared" si="0"/>
+        <v>6725</v>
+      </c>
+      <c r="R58">
+        <f t="shared" si="1"/>
+        <v>5000</v>
+      </c>
+      <c r="S58">
         <f t="shared" si="2"/>
-        <v>6725</v>
-      </c>
-      <c r="R58">
+        <v>1000</v>
+      </c>
+      <c r="T58">
         <f t="shared" si="3"/>
-        <v>5000</v>
-      </c>
-      <c r="S58">
+        <v>1000</v>
+      </c>
+      <c r="U58">
         <f t="shared" si="4"/>
         <v>1000</v>
       </c>
-      <c r="T58">
+      <c r="V58">
         <f t="shared" si="5"/>
         <v>1000</v>
       </c>
-      <c r="U58">
+      <c r="W58">
         <f t="shared" si="6"/>
-        <v>1000</v>
-      </c>
-      <c r="V58">
-        <f t="shared" si="7"/>
-        <v>1000</v>
-      </c>
-      <c r="W58">
-        <f t="shared" si="8"/>
         <v>15725</v>
       </c>
     </row>
@@ -6422,39 +6314,39 @@
         <v>89</v>
       </c>
       <c r="I59" s="2">
-        <f t="shared" si="9"/>
+        <f>W59</f>
         <v>15725</v>
       </c>
       <c r="J59" s="2">
-        <f t="shared" si="10"/>
+        <f>IF(C59=11,0,IF(C59=10,1440,IF(C59=9,2330,IF(C59=8,2880,IF(C59=7,3220,IF(C59=1,3740,"MUY BAJO"))))))</f>
         <v>3220</v>
       </c>
       <c r="Q59">
+        <f t="shared" si="0"/>
+        <v>6725</v>
+      </c>
+      <c r="R59">
+        <f t="shared" si="1"/>
+        <v>5000</v>
+      </c>
+      <c r="S59">
         <f t="shared" si="2"/>
-        <v>6725</v>
-      </c>
-      <c r="R59">
+        <v>1000</v>
+      </c>
+      <c r="T59">
         <f t="shared" si="3"/>
-        <v>5000</v>
-      </c>
-      <c r="S59">
+        <v>1000</v>
+      </c>
+      <c r="U59">
         <f t="shared" si="4"/>
         <v>1000</v>
       </c>
-      <c r="T59">
+      <c r="V59">
         <f t="shared" si="5"/>
         <v>1000</v>
       </c>
-      <c r="U59">
+      <c r="W59">
         <f t="shared" si="6"/>
-        <v>1000</v>
-      </c>
-      <c r="V59">
-        <f t="shared" si="7"/>
-        <v>1000</v>
-      </c>
-      <c r="W59">
-        <f t="shared" si="8"/>
         <v>15725</v>
       </c>
     </row>
@@ -6484,39 +6376,39 @@
         <v>89</v>
       </c>
       <c r="I60" s="2">
-        <f t="shared" si="9"/>
+        <f>W60</f>
         <v>15725</v>
       </c>
       <c r="J60" s="2">
-        <f t="shared" si="10"/>
+        <f>IF(C60=11,0,IF(C60=10,1440,IF(C60=9,2330,IF(C60=8,2880,IF(C60=7,3220,IF(C60=1,3740,"MUY BAJO"))))))</f>
         <v>3220</v>
       </c>
       <c r="Q60">
+        <f t="shared" si="0"/>
+        <v>6725</v>
+      </c>
+      <c r="R60">
+        <f t="shared" si="1"/>
+        <v>5000</v>
+      </c>
+      <c r="S60">
         <f t="shared" si="2"/>
-        <v>6725</v>
-      </c>
-      <c r="R60">
+        <v>1000</v>
+      </c>
+      <c r="T60">
         <f t="shared" si="3"/>
-        <v>5000</v>
-      </c>
-      <c r="S60">
+        <v>1000</v>
+      </c>
+      <c r="U60">
         <f t="shared" si="4"/>
         <v>1000</v>
       </c>
-      <c r="T60">
+      <c r="V60">
         <f t="shared" si="5"/>
         <v>1000</v>
       </c>
-      <c r="U60">
+      <c r="W60">
         <f t="shared" si="6"/>
-        <v>1000</v>
-      </c>
-      <c r="V60">
-        <f t="shared" si="7"/>
-        <v>1000</v>
-      </c>
-      <c r="W60">
-        <f t="shared" si="8"/>
         <v>15725</v>
       </c>
     </row>
@@ -6546,39 +6438,39 @@
         <v>89</v>
       </c>
       <c r="I61" s="2">
-        <f t="shared" si="9"/>
+        <f>W61</f>
         <v>15725</v>
       </c>
       <c r="J61" s="2">
-        <f t="shared" si="10"/>
+        <f>IF(C61=11,0,IF(C61=10,1440,IF(C61=9,2330,IF(C61=8,2880,IF(C61=7,3220,IF(C61=1,3740,"MUY BAJO"))))))</f>
         <v>3220</v>
       </c>
       <c r="Q61">
+        <f t="shared" si="0"/>
+        <v>6725</v>
+      </c>
+      <c r="R61">
+        <f t="shared" si="1"/>
+        <v>5000</v>
+      </c>
+      <c r="S61">
         <f t="shared" si="2"/>
-        <v>6725</v>
-      </c>
-      <c r="R61">
+        <v>1000</v>
+      </c>
+      <c r="T61">
         <f t="shared" si="3"/>
-        <v>5000</v>
-      </c>
-      <c r="S61">
+        <v>1000</v>
+      </c>
+      <c r="U61">
         <f t="shared" si="4"/>
         <v>1000</v>
       </c>
-      <c r="T61">
+      <c r="V61">
         <f t="shared" si="5"/>
         <v>1000</v>
       </c>
-      <c r="U61">
+      <c r="W61">
         <f t="shared" si="6"/>
-        <v>1000</v>
-      </c>
-      <c r="V61">
-        <f t="shared" si="7"/>
-        <v>1000</v>
-      </c>
-      <c r="W61">
-        <f t="shared" si="8"/>
         <v>15725</v>
       </c>
     </row>
@@ -6608,39 +6500,39 @@
         <v>89</v>
       </c>
       <c r="I62" s="2">
-        <f t="shared" si="9"/>
+        <f>W62</f>
         <v>15725</v>
       </c>
       <c r="J62" s="2">
-        <f t="shared" si="10"/>
+        <f>IF(C62=11,0,IF(C62=10,1440,IF(C62=9,2330,IF(C62=8,2880,IF(C62=7,3220,IF(C62=1,3740,"MUY BAJO"))))))</f>
         <v>3220</v>
       </c>
       <c r="Q62">
+        <f t="shared" si="0"/>
+        <v>6725</v>
+      </c>
+      <c r="R62">
+        <f t="shared" si="1"/>
+        <v>5000</v>
+      </c>
+      <c r="S62">
         <f t="shared" si="2"/>
-        <v>6725</v>
-      </c>
-      <c r="R62">
+        <v>1000</v>
+      </c>
+      <c r="T62">
         <f t="shared" si="3"/>
-        <v>5000</v>
-      </c>
-      <c r="S62">
+        <v>1000</v>
+      </c>
+      <c r="U62">
         <f t="shared" si="4"/>
         <v>1000</v>
       </c>
-      <c r="T62">
+      <c r="V62">
         <f t="shared" si="5"/>
         <v>1000</v>
       </c>
-      <c r="U62">
+      <c r="W62">
         <f t="shared" si="6"/>
-        <v>1000</v>
-      </c>
-      <c r="V62">
-        <f t="shared" si="7"/>
-        <v>1000</v>
-      </c>
-      <c r="W62">
-        <f t="shared" si="8"/>
         <v>15725</v>
       </c>
     </row>
@@ -6670,39 +6562,39 @@
         <v>89</v>
       </c>
       <c r="I63" s="2">
-        <f t="shared" si="9"/>
+        <f>W63</f>
         <v>15725</v>
       </c>
       <c r="J63" s="2">
-        <f t="shared" si="10"/>
+        <f>IF(C63=11,0,IF(C63=10,1440,IF(C63=9,2330,IF(C63=8,2880,IF(C63=7,3220,IF(C63=1,3740,"MUY BAJO"))))))</f>
         <v>3220</v>
       </c>
       <c r="Q63">
+        <f t="shared" si="0"/>
+        <v>6725</v>
+      </c>
+      <c r="R63">
+        <f t="shared" si="1"/>
+        <v>5000</v>
+      </c>
+      <c r="S63">
         <f t="shared" si="2"/>
-        <v>6725</v>
-      </c>
-      <c r="R63">
+        <v>1000</v>
+      </c>
+      <c r="T63">
         <f t="shared" si="3"/>
-        <v>5000</v>
-      </c>
-      <c r="S63">
+        <v>1000</v>
+      </c>
+      <c r="U63">
         <f t="shared" si="4"/>
         <v>1000</v>
       </c>
-      <c r="T63">
+      <c r="V63">
         <f t="shared" si="5"/>
         <v>1000</v>
       </c>
-      <c r="U63">
+      <c r="W63">
         <f t="shared" si="6"/>
-        <v>1000</v>
-      </c>
-      <c r="V63">
-        <f t="shared" si="7"/>
-        <v>1000</v>
-      </c>
-      <c r="W63">
-        <f t="shared" si="8"/>
         <v>15725</v>
       </c>
     </row>
@@ -6732,39 +6624,39 @@
         <v>89</v>
       </c>
       <c r="I64" s="2">
-        <f t="shared" si="9"/>
+        <f>W64</f>
         <v>15725</v>
       </c>
       <c r="J64" s="2">
-        <f t="shared" si="10"/>
+        <f>IF(C64=11,0,IF(C64=10,1440,IF(C64=9,2330,IF(C64=8,2880,IF(C64=7,3220,IF(C64=1,3740,"MUY BAJO"))))))</f>
         <v>3220</v>
       </c>
       <c r="Q64">
+        <f t="shared" si="0"/>
+        <v>6725</v>
+      </c>
+      <c r="R64">
+        <f t="shared" si="1"/>
+        <v>5000</v>
+      </c>
+      <c r="S64">
         <f t="shared" si="2"/>
-        <v>6725</v>
-      </c>
-      <c r="R64">
+        <v>1000</v>
+      </c>
+      <c r="T64">
         <f t="shared" si="3"/>
-        <v>5000</v>
-      </c>
-      <c r="S64">
+        <v>1000</v>
+      </c>
+      <c r="U64">
         <f t="shared" si="4"/>
         <v>1000</v>
       </c>
-      <c r="T64">
+      <c r="V64">
         <f t="shared" si="5"/>
         <v>1000</v>
       </c>
-      <c r="U64">
+      <c r="W64">
         <f t="shared" si="6"/>
-        <v>1000</v>
-      </c>
-      <c r="V64">
-        <f t="shared" si="7"/>
-        <v>1000</v>
-      </c>
-      <c r="W64">
-        <f t="shared" si="8"/>
         <v>15725</v>
       </c>
     </row>
@@ -6794,39 +6686,39 @@
         <v>89</v>
       </c>
       <c r="I65" s="2">
-        <f t="shared" si="9"/>
+        <f>W65</f>
         <v>15725</v>
       </c>
       <c r="J65" s="2">
-        <f t="shared" si="10"/>
+        <f>IF(C65=11,0,IF(C65=10,1440,IF(C65=9,2330,IF(C65=8,2880,IF(C65=7,3220,IF(C65=1,3740,"MUY BAJO"))))))</f>
         <v>3220</v>
       </c>
       <c r="Q65">
+        <f t="shared" si="0"/>
+        <v>6725</v>
+      </c>
+      <c r="R65">
+        <f t="shared" si="1"/>
+        <v>5000</v>
+      </c>
+      <c r="S65">
         <f t="shared" si="2"/>
-        <v>6725</v>
-      </c>
-      <c r="R65">
+        <v>1000</v>
+      </c>
+      <c r="T65">
         <f t="shared" si="3"/>
-        <v>5000</v>
-      </c>
-      <c r="S65">
+        <v>1000</v>
+      </c>
+      <c r="U65">
         <f t="shared" si="4"/>
         <v>1000</v>
       </c>
-      <c r="T65">
+      <c r="V65">
         <f t="shared" si="5"/>
         <v>1000</v>
       </c>
-      <c r="U65">
+      <c r="W65">
         <f t="shared" si="6"/>
-        <v>1000</v>
-      </c>
-      <c r="V65">
-        <f t="shared" si="7"/>
-        <v>1000</v>
-      </c>
-      <c r="W65">
-        <f t="shared" si="8"/>
         <v>15725</v>
       </c>
     </row>
@@ -6856,39 +6748,39 @@
         <v>89</v>
       </c>
       <c r="I66" s="2">
-        <f t="shared" ref="I66:I81" si="11">W66</f>
+        <f>W66</f>
         <v>15725</v>
       </c>
       <c r="J66" s="2">
-        <f t="shared" ref="J66:J81" si="12">IF(C66=11,0,IF(C66=10,1440,IF(C66=9,2330,IF(C66=8,2880,IF(C66=7,3220,IF(C66=1,3740,"MUY BAJO"))))))</f>
+        <f>IF(C66=11,0,IF(C66=10,1440,IF(C66=9,2330,IF(C66=8,2880,IF(C66=7,3220,IF(C66=1,3740,"MUY BAJO"))))))</f>
         <v>3220</v>
       </c>
       <c r="Q66">
+        <f t="shared" si="0"/>
+        <v>6725</v>
+      </c>
+      <c r="R66">
+        <f t="shared" si="1"/>
+        <v>5000</v>
+      </c>
+      <c r="S66">
         <f t="shared" si="2"/>
-        <v>6725</v>
-      </c>
-      <c r="R66">
+        <v>1000</v>
+      </c>
+      <c r="T66">
         <f t="shared" si="3"/>
-        <v>5000</v>
-      </c>
-      <c r="S66">
+        <v>1000</v>
+      </c>
+      <c r="U66">
         <f t="shared" si="4"/>
         <v>1000</v>
       </c>
-      <c r="T66">
+      <c r="V66">
         <f t="shared" si="5"/>
         <v>1000</v>
       </c>
-      <c r="U66">
+      <c r="W66">
         <f t="shared" si="6"/>
-        <v>1000</v>
-      </c>
-      <c r="V66">
-        <f t="shared" si="7"/>
-        <v>1000</v>
-      </c>
-      <c r="W66">
-        <f t="shared" si="8"/>
         <v>15725</v>
       </c>
     </row>
@@ -6918,39 +6810,39 @@
         <v>89</v>
       </c>
       <c r="I67" s="2">
-        <f t="shared" si="11"/>
+        <f>W67</f>
         <v>15725</v>
       </c>
       <c r="J67" s="2">
-        <f t="shared" si="12"/>
+        <f>IF(C67=11,0,IF(C67=10,1440,IF(C67=9,2330,IF(C67=8,2880,IF(C67=7,3220,IF(C67=1,3740,"MUY BAJO"))))))</f>
         <v>3220</v>
       </c>
       <c r="Q67">
-        <f t="shared" ref="Q67:Q81" si="13">IF(C67=11,0,IF(C67=10,2800,IF(C67=9,4675,IF(C67=8,5925,IF(C67=7,6725,IF(C67=1,7765,"MUY BAJO"))))))</f>
+        <f t="shared" ref="Q67:Q73" si="7">IF(C67=11,0,IF(C67=10,2800,IF(C67=9,4675,IF(C67=8,5925,IF(C67=7,6725,IF(C67=1,7765,"MUY BAJO"))))))</f>
         <v>6725</v>
       </c>
       <c r="R67">
-        <f t="shared" ref="R67:R81" si="14">IF(D67="No Tiene", 0, IF(D67="Si", 0, 5000))</f>
+        <f t="shared" ref="R67:R73" si="8">IF(D67="No Tiene", 0, IF(D67="Si", 0, 5000))</f>
         <v>5000</v>
       </c>
       <c r="S67">
-        <f t="shared" ref="S67:S81" si="15">IF(E67="Si", 0, 1000)</f>
+        <f t="shared" ref="S67:S73" si="9">IF(E67="Si", 0, 1000)</f>
         <v>1000</v>
       </c>
       <c r="T67">
-        <f t="shared" ref="T67:T81" si="16">IF(F67="Si", 0, 1000)</f>
+        <f t="shared" ref="T67:T73" si="10">IF(F67="Si", 0, 1000)</f>
         <v>1000</v>
       </c>
       <c r="U67">
-        <f t="shared" ref="U67:U81" si="17">IF(G67="Si", 0, 1000)</f>
+        <f t="shared" ref="U67:U73" si="11">IF(G67="Si", 0, 1000)</f>
         <v>1000</v>
       </c>
       <c r="V67">
-        <f t="shared" ref="V67:V81" si="18">IF(H67="Si", 0, 1000)</f>
+        <f t="shared" ref="V67:V73" si="12">IF(H67="Si", 0, 1000)</f>
         <v>1000</v>
       </c>
       <c r="W67">
-        <f t="shared" ref="W67:W81" si="19">SUM(Q67:V67)</f>
+        <f t="shared" ref="W67:W73" si="13">SUM(Q67:V67)</f>
         <v>15725</v>
       </c>
     </row>
@@ -6980,39 +6872,39 @@
         <v>89</v>
       </c>
       <c r="I68" s="2">
+        <f>W68</f>
+        <v>15725</v>
+      </c>
+      <c r="J68" s="2">
+        <f>IF(C68=11,0,IF(C68=10,1440,IF(C68=9,2330,IF(C68=8,2880,IF(C68=7,3220,IF(C68=1,3740,"MUY BAJO"))))))</f>
+        <v>3220</v>
+      </c>
+      <c r="Q68">
+        <f t="shared" si="7"/>
+        <v>6725</v>
+      </c>
+      <c r="R68">
+        <f t="shared" si="8"/>
+        <v>5000</v>
+      </c>
+      <c r="S68">
+        <f t="shared" si="9"/>
+        <v>1000</v>
+      </c>
+      <c r="T68">
+        <f t="shared" si="10"/>
+        <v>1000</v>
+      </c>
+      <c r="U68">
         <f t="shared" si="11"/>
-        <v>15725</v>
-      </c>
-      <c r="J68" s="2">
+        <v>1000</v>
+      </c>
+      <c r="V68">
         <f t="shared" si="12"/>
-        <v>3220</v>
-      </c>
-      <c r="Q68">
+        <v>1000</v>
+      </c>
+      <c r="W68">
         <f t="shared" si="13"/>
-        <v>6725</v>
-      </c>
-      <c r="R68">
-        <f t="shared" si="14"/>
-        <v>5000</v>
-      </c>
-      <c r="S68">
-        <f t="shared" si="15"/>
-        <v>1000</v>
-      </c>
-      <c r="T68">
-        <f t="shared" si="16"/>
-        <v>1000</v>
-      </c>
-      <c r="U68">
-        <f t="shared" si="17"/>
-        <v>1000</v>
-      </c>
-      <c r="V68">
-        <f t="shared" si="18"/>
-        <v>1000</v>
-      </c>
-      <c r="W68">
-        <f t="shared" si="19"/>
         <v>15725</v>
       </c>
     </row>
@@ -7042,39 +6934,39 @@
         <v>89</v>
       </c>
       <c r="I69" s="2">
+        <f>W69</f>
+        <v>15725</v>
+      </c>
+      <c r="J69" s="2">
+        <f>IF(C69=11,0,IF(C69=10,1440,IF(C69=9,2330,IF(C69=8,2880,IF(C69=7,3220,IF(C69=1,3740,"MUY BAJO"))))))</f>
+        <v>3220</v>
+      </c>
+      <c r="Q69">
+        <f t="shared" si="7"/>
+        <v>6725</v>
+      </c>
+      <c r="R69">
+        <f t="shared" si="8"/>
+        <v>5000</v>
+      </c>
+      <c r="S69">
+        <f t="shared" si="9"/>
+        <v>1000</v>
+      </c>
+      <c r="T69">
+        <f t="shared" si="10"/>
+        <v>1000</v>
+      </c>
+      <c r="U69">
         <f t="shared" si="11"/>
-        <v>15725</v>
-      </c>
-      <c r="J69" s="2">
+        <v>1000</v>
+      </c>
+      <c r="V69">
         <f t="shared" si="12"/>
-        <v>3220</v>
-      </c>
-      <c r="Q69">
+        <v>1000</v>
+      </c>
+      <c r="W69">
         <f t="shared" si="13"/>
-        <v>6725</v>
-      </c>
-      <c r="R69">
-        <f t="shared" si="14"/>
-        <v>5000</v>
-      </c>
-      <c r="S69">
-        <f t="shared" si="15"/>
-        <v>1000</v>
-      </c>
-      <c r="T69">
-        <f t="shared" si="16"/>
-        <v>1000</v>
-      </c>
-      <c r="U69">
-        <f t="shared" si="17"/>
-        <v>1000</v>
-      </c>
-      <c r="V69">
-        <f t="shared" si="18"/>
-        <v>1000</v>
-      </c>
-      <c r="W69">
-        <f t="shared" si="19"/>
         <v>15725</v>
       </c>
     </row>
@@ -7104,39 +6996,39 @@
         <v>89</v>
       </c>
       <c r="I70" s="2">
+        <f>W70</f>
+        <v>15725</v>
+      </c>
+      <c r="J70" s="2">
+        <f>IF(C70=11,0,IF(C70=10,1440,IF(C70=9,2330,IF(C70=8,2880,IF(C70=7,3220,IF(C70=1,3740,"MUY BAJO"))))))</f>
+        <v>3220</v>
+      </c>
+      <c r="Q70">
+        <f t="shared" si="7"/>
+        <v>6725</v>
+      </c>
+      <c r="R70">
+        <f t="shared" si="8"/>
+        <v>5000</v>
+      </c>
+      <c r="S70">
+        <f t="shared" si="9"/>
+        <v>1000</v>
+      </c>
+      <c r="T70">
+        <f t="shared" si="10"/>
+        <v>1000</v>
+      </c>
+      <c r="U70">
         <f t="shared" si="11"/>
-        <v>15725</v>
-      </c>
-      <c r="J70" s="2">
+        <v>1000</v>
+      </c>
+      <c r="V70">
         <f t="shared" si="12"/>
-        <v>3220</v>
-      </c>
-      <c r="Q70">
+        <v>1000</v>
+      </c>
+      <c r="W70">
         <f t="shared" si="13"/>
-        <v>6725</v>
-      </c>
-      <c r="R70">
-        <f t="shared" si="14"/>
-        <v>5000</v>
-      </c>
-      <c r="S70">
-        <f t="shared" si="15"/>
-        <v>1000</v>
-      </c>
-      <c r="T70">
-        <f t="shared" si="16"/>
-        <v>1000</v>
-      </c>
-      <c r="U70">
-        <f t="shared" si="17"/>
-        <v>1000</v>
-      </c>
-      <c r="V70">
-        <f t="shared" si="18"/>
-        <v>1000</v>
-      </c>
-      <c r="W70">
-        <f t="shared" si="19"/>
         <v>15725</v>
       </c>
     </row>
@@ -7166,39 +7058,39 @@
         <v>89</v>
       </c>
       <c r="I71" s="2">
+        <f>W71</f>
+        <v>15725</v>
+      </c>
+      <c r="J71" s="2">
+        <f>IF(C71=11,0,IF(C71=10,1440,IF(C71=9,2330,IF(C71=8,2880,IF(C71=7,3220,IF(C71=1,3740,"MUY BAJO"))))))</f>
+        <v>3220</v>
+      </c>
+      <c r="Q71">
+        <f t="shared" si="7"/>
+        <v>6725</v>
+      </c>
+      <c r="R71">
+        <f t="shared" si="8"/>
+        <v>5000</v>
+      </c>
+      <c r="S71">
+        <f t="shared" si="9"/>
+        <v>1000</v>
+      </c>
+      <c r="T71">
+        <f t="shared" si="10"/>
+        <v>1000</v>
+      </c>
+      <c r="U71">
         <f t="shared" si="11"/>
-        <v>15725</v>
-      </c>
-      <c r="J71" s="2">
+        <v>1000</v>
+      </c>
+      <c r="V71">
         <f t="shared" si="12"/>
-        <v>3220</v>
-      </c>
-      <c r="Q71">
+        <v>1000</v>
+      </c>
+      <c r="W71">
         <f t="shared" si="13"/>
-        <v>6725</v>
-      </c>
-      <c r="R71">
-        <f t="shared" si="14"/>
-        <v>5000</v>
-      </c>
-      <c r="S71">
-        <f t="shared" si="15"/>
-        <v>1000</v>
-      </c>
-      <c r="T71">
-        <f t="shared" si="16"/>
-        <v>1000</v>
-      </c>
-      <c r="U71">
-        <f t="shared" si="17"/>
-        <v>1000</v>
-      </c>
-      <c r="V71">
-        <f t="shared" si="18"/>
-        <v>1000</v>
-      </c>
-      <c r="W71">
-        <f t="shared" si="19"/>
         <v>15725</v>
       </c>
     </row>
@@ -7228,39 +7120,39 @@
         <v>89</v>
       </c>
       <c r="I72" s="2">
+        <f>W72</f>
+        <v>15725</v>
+      </c>
+      <c r="J72" s="2">
+        <f>IF(C72=11,0,IF(C72=10,1440,IF(C72=9,2330,IF(C72=8,2880,IF(C72=7,3220,IF(C72=1,3740,"MUY BAJO"))))))</f>
+        <v>3220</v>
+      </c>
+      <c r="Q72">
+        <f t="shared" si="7"/>
+        <v>6725</v>
+      </c>
+      <c r="R72">
+        <f t="shared" si="8"/>
+        <v>5000</v>
+      </c>
+      <c r="S72">
+        <f t="shared" si="9"/>
+        <v>1000</v>
+      </c>
+      <c r="T72">
+        <f t="shared" si="10"/>
+        <v>1000</v>
+      </c>
+      <c r="U72">
         <f t="shared" si="11"/>
-        <v>15725</v>
-      </c>
-      <c r="J72" s="2">
+        <v>1000</v>
+      </c>
+      <c r="V72">
         <f t="shared" si="12"/>
-        <v>3220</v>
-      </c>
-      <c r="Q72">
+        <v>1000</v>
+      </c>
+      <c r="W72">
         <f t="shared" si="13"/>
-        <v>6725</v>
-      </c>
-      <c r="R72">
-        <f t="shared" si="14"/>
-        <v>5000</v>
-      </c>
-      <c r="S72">
-        <f t="shared" si="15"/>
-        <v>1000</v>
-      </c>
-      <c r="T72">
-        <f t="shared" si="16"/>
-        <v>1000</v>
-      </c>
-      <c r="U72">
-        <f t="shared" si="17"/>
-        <v>1000</v>
-      </c>
-      <c r="V72">
-        <f t="shared" si="18"/>
-        <v>1000</v>
-      </c>
-      <c r="W72">
-        <f t="shared" si="19"/>
         <v>15725</v>
       </c>
     </row>
@@ -7290,895 +7182,401 @@
         <v>89</v>
       </c>
       <c r="I73" s="2">
+        <f>W73</f>
+        <v>15725</v>
+      </c>
+      <c r="J73" s="2">
+        <f>IF(C73=11,0,IF(C73=10,1440,IF(C73=9,2330,IF(C73=8,2880,IF(C73=7,3220,IF(C73=1,3740,"MUY BAJO"))))))</f>
+        <v>3220</v>
+      </c>
+      <c r="Q73">
+        <f t="shared" si="7"/>
+        <v>6725</v>
+      </c>
+      <c r="R73">
+        <f t="shared" si="8"/>
+        <v>5000</v>
+      </c>
+      <c r="S73">
+        <f t="shared" si="9"/>
+        <v>1000</v>
+      </c>
+      <c r="T73">
+        <f t="shared" si="10"/>
+        <v>1000</v>
+      </c>
+      <c r="U73">
         <f t="shared" si="11"/>
+        <v>1000</v>
+      </c>
+      <c r="V73">
+        <f t="shared" si="12"/>
+        <v>1000</v>
+      </c>
+      <c r="W73">
+        <f t="shared" si="13"/>
         <v>15725</v>
       </c>
-      <c r="J73" s="2">
-        <f t="shared" si="12"/>
-        <v>3220</v>
-      </c>
-      <c r="Q73">
-        <f t="shared" si="13"/>
-        <v>6725</v>
-      </c>
-      <c r="R73">
-        <f t="shared" si="14"/>
-        <v>5000</v>
-      </c>
-      <c r="S73">
-        <f t="shared" si="15"/>
-        <v>1000</v>
-      </c>
-      <c r="T73">
-        <f t="shared" si="16"/>
-        <v>1000</v>
-      </c>
-      <c r="U73">
-        <f t="shared" si="17"/>
-        <v>1000</v>
-      </c>
-      <c r="V73">
-        <f t="shared" si="18"/>
-        <v>1000</v>
-      </c>
-      <c r="W73">
-        <f t="shared" si="19"/>
-        <v>15725</v>
-      </c>
-    </row>
-    <row r="74" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A74" s="13">
-        <v>73</v>
-      </c>
-      <c r="B74" s="18" t="s">
-        <v>175</v>
-      </c>
-      <c r="C74" s="2">
-        <v>1</v>
-      </c>
-      <c r="D74" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="E74" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="F74" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="G74" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="H74" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="I74" s="2">
-        <f t="shared" si="11"/>
-        <v>16765</v>
-      </c>
-      <c r="J74" s="2">
-        <f t="shared" si="12"/>
-        <v>3740</v>
-      </c>
-      <c r="Q74">
-        <f t="shared" si="13"/>
-        <v>7765</v>
-      </c>
-      <c r="R74">
-        <f t="shared" si="14"/>
-        <v>5000</v>
-      </c>
-      <c r="S74">
-        <f t="shared" si="15"/>
-        <v>1000</v>
-      </c>
-      <c r="T74">
-        <f t="shared" si="16"/>
-        <v>1000</v>
-      </c>
-      <c r="U74">
-        <f t="shared" si="17"/>
-        <v>1000</v>
-      </c>
-      <c r="V74">
-        <f t="shared" si="18"/>
-        <v>1000</v>
-      </c>
-      <c r="W74">
-        <f t="shared" si="19"/>
-        <v>16765</v>
-      </c>
-    </row>
-    <row r="75" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A75" s="13">
-        <v>74</v>
-      </c>
-      <c r="B75" s="18" t="s">
-        <v>179</v>
-      </c>
-      <c r="C75" s="2">
-        <v>1</v>
-      </c>
-      <c r="D75" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="E75" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="F75" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="G75" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="H75" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="I75" s="2">
-        <f t="shared" si="11"/>
-        <v>16765</v>
-      </c>
-      <c r="J75" s="2">
-        <f t="shared" si="12"/>
-        <v>3740</v>
-      </c>
-      <c r="Q75">
-        <f t="shared" si="13"/>
-        <v>7765</v>
-      </c>
-      <c r="R75">
-        <f t="shared" si="14"/>
-        <v>5000</v>
-      </c>
-      <c r="S75">
-        <f t="shared" si="15"/>
-        <v>1000</v>
-      </c>
-      <c r="T75">
-        <f t="shared" si="16"/>
-        <v>1000</v>
-      </c>
-      <c r="U75">
-        <f t="shared" si="17"/>
-        <v>1000</v>
-      </c>
-      <c r="V75">
-        <f t="shared" si="18"/>
-        <v>1000</v>
-      </c>
-      <c r="W75">
-        <f t="shared" si="19"/>
-        <v>16765</v>
-      </c>
-    </row>
-    <row r="76" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A76" s="13">
-        <v>75</v>
-      </c>
-      <c r="B76" s="18" t="s">
-        <v>176</v>
-      </c>
-      <c r="C76" s="2">
-        <v>1</v>
-      </c>
-      <c r="D76" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="E76" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="F76" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="G76" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="H76" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="I76" s="2">
-        <f t="shared" si="11"/>
-        <v>16765</v>
-      </c>
-      <c r="J76" s="2">
-        <f t="shared" si="12"/>
-        <v>3740</v>
-      </c>
-      <c r="Q76">
-        <f t="shared" si="13"/>
-        <v>7765</v>
-      </c>
-      <c r="R76">
-        <f t="shared" si="14"/>
-        <v>5000</v>
-      </c>
-      <c r="S76">
-        <f t="shared" si="15"/>
-        <v>1000</v>
-      </c>
-      <c r="T76">
-        <f t="shared" si="16"/>
-        <v>1000</v>
-      </c>
-      <c r="U76">
-        <f t="shared" si="17"/>
-        <v>1000</v>
-      </c>
-      <c r="V76">
-        <f t="shared" si="18"/>
-        <v>1000</v>
-      </c>
-      <c r="W76">
-        <f t="shared" si="19"/>
-        <v>16765</v>
-      </c>
-    </row>
-    <row r="77" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A77" s="13">
-        <v>76</v>
-      </c>
-      <c r="B77" s="18" t="s">
-        <v>181</v>
-      </c>
-      <c r="C77" s="2">
-        <v>1</v>
-      </c>
-      <c r="D77" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="E77" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="F77" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="G77" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="H77" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="I77" s="2">
-        <f t="shared" si="11"/>
-        <v>16765</v>
-      </c>
-      <c r="J77" s="2">
-        <f t="shared" si="12"/>
-        <v>3740</v>
-      </c>
-      <c r="Q77">
-        <f t="shared" si="13"/>
-        <v>7765</v>
-      </c>
-      <c r="R77">
-        <f t="shared" si="14"/>
-        <v>5000</v>
-      </c>
-      <c r="S77">
-        <f t="shared" si="15"/>
-        <v>1000</v>
-      </c>
-      <c r="T77">
-        <f t="shared" si="16"/>
-        <v>1000</v>
-      </c>
-      <c r="U77">
-        <f t="shared" si="17"/>
-        <v>1000</v>
-      </c>
-      <c r="V77">
-        <f t="shared" si="18"/>
-        <v>1000</v>
-      </c>
-      <c r="W77">
-        <f t="shared" si="19"/>
-        <v>16765</v>
-      </c>
-    </row>
-    <row r="78" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A78" s="13">
-        <v>77</v>
-      </c>
-      <c r="B78" s="18" t="s">
-        <v>182</v>
-      </c>
-      <c r="C78" s="2">
-        <v>1</v>
-      </c>
-      <c r="D78" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="E78" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="F78" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="G78" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="H78" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="I78" s="2">
-        <f t="shared" si="11"/>
-        <v>16765</v>
-      </c>
-      <c r="J78" s="2">
-        <f t="shared" si="12"/>
-        <v>3740</v>
-      </c>
-      <c r="Q78">
-        <f t="shared" si="13"/>
-        <v>7765</v>
-      </c>
-      <c r="R78">
-        <f t="shared" si="14"/>
-        <v>5000</v>
-      </c>
-      <c r="S78">
-        <f t="shared" si="15"/>
-        <v>1000</v>
-      </c>
-      <c r="T78">
-        <f t="shared" si="16"/>
-        <v>1000</v>
-      </c>
-      <c r="U78">
-        <f t="shared" si="17"/>
-        <v>1000</v>
-      </c>
-      <c r="V78">
-        <f t="shared" si="18"/>
-        <v>1000</v>
-      </c>
-      <c r="W78">
-        <f t="shared" si="19"/>
-        <v>16765</v>
-      </c>
-    </row>
-    <row r="79" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A79" s="13">
-        <v>78</v>
-      </c>
-      <c r="B79" s="18" t="s">
-        <v>177</v>
-      </c>
-      <c r="C79" s="2">
-        <v>1</v>
-      </c>
-      <c r="D79" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="E79" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="F79" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="G79" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="H79" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="I79" s="2">
-        <f t="shared" si="11"/>
-        <v>11765</v>
-      </c>
-      <c r="J79" s="2">
-        <f t="shared" si="12"/>
-        <v>3740</v>
-      </c>
-      <c r="Q79">
-        <f t="shared" si="13"/>
-        <v>7765</v>
-      </c>
-      <c r="R79">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="S79">
-        <f t="shared" si="15"/>
-        <v>1000</v>
-      </c>
-      <c r="T79">
-        <f t="shared" si="16"/>
-        <v>1000</v>
-      </c>
-      <c r="U79">
-        <f t="shared" si="17"/>
-        <v>1000</v>
-      </c>
-      <c r="V79">
-        <f t="shared" si="18"/>
-        <v>1000</v>
-      </c>
-      <c r="W79">
-        <f t="shared" si="19"/>
-        <v>11765</v>
-      </c>
-    </row>
-    <row r="80" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A80" s="13">
-        <v>79</v>
-      </c>
-      <c r="B80" s="18" t="s">
-        <v>178</v>
-      </c>
-      <c r="C80" s="2">
-        <v>1</v>
-      </c>
-      <c r="D80" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="E80" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="F80" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="G80" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="H80" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="I80" s="2">
-        <f t="shared" si="11"/>
-        <v>11765</v>
-      </c>
-      <c r="J80" s="2">
-        <f t="shared" si="12"/>
-        <v>3740</v>
-      </c>
-      <c r="Q80">
-        <f t="shared" si="13"/>
-        <v>7765</v>
-      </c>
-      <c r="R80">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="S80">
-        <f t="shared" si="15"/>
-        <v>1000</v>
-      </c>
-      <c r="T80">
-        <f t="shared" si="16"/>
-        <v>1000</v>
-      </c>
-      <c r="U80">
-        <f t="shared" si="17"/>
-        <v>1000</v>
-      </c>
-      <c r="V80">
-        <f t="shared" si="18"/>
-        <v>1000</v>
-      </c>
-      <c r="W80">
-        <f t="shared" si="19"/>
-        <v>11765</v>
-      </c>
-    </row>
-    <row r="81" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A81" s="13">
-        <v>80</v>
-      </c>
-      <c r="B81" s="18" t="s">
-        <v>180</v>
-      </c>
-      <c r="C81" s="2">
-        <v>1</v>
-      </c>
-      <c r="D81" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="E81" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="F81" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="G81" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="H81" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="I81" s="2">
-        <f t="shared" si="11"/>
-        <v>11765</v>
-      </c>
-      <c r="J81" s="2">
-        <f t="shared" si="12"/>
-        <v>3740</v>
-      </c>
-      <c r="Q81">
-        <f t="shared" si="13"/>
-        <v>7765</v>
-      </c>
-      <c r="R81">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="S81">
-        <f t="shared" si="15"/>
-        <v>1000</v>
-      </c>
-      <c r="T81">
-        <f t="shared" si="16"/>
-        <v>1000</v>
-      </c>
-      <c r="U81">
-        <f t="shared" si="17"/>
-        <v>1000</v>
-      </c>
-      <c r="V81">
-        <f t="shared" si="18"/>
-        <v>1000</v>
-      </c>
-      <c r="W81">
-        <f t="shared" si="19"/>
-        <v>11765</v>
-      </c>
-    </row>
-    <row r="82" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B82" s="10"/>
-      <c r="C82" s="10"/>
-      <c r="D82" s="10"/>
-      <c r="E82" s="10"/>
-      <c r="F82" s="10"/>
-      <c r="G82" s="10"/>
-      <c r="H82" s="10"/>
-      <c r="I82" s="21">
-        <f>SUM(I2:I81)</f>
-        <v>926970</v>
-      </c>
-      <c r="J82" s="21">
-        <f>SUM(J2:J81)</f>
-        <v>197860</v>
-      </c>
-    </row>
-    <row r="83" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B83" s="10"/>
-      <c r="C83" s="10"/>
-      <c r="D83" s="10"/>
-      <c r="G83" s="10"/>
-      <c r="H83" s="10"/>
-      <c r="I83" s="10"/>
-      <c r="J83" s="10"/>
-    </row>
-    <row r="92" spans="1:23" x14ac:dyDescent="0.25">
+    </row>
+    <row r="74" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B74" s="10"/>
+      <c r="C74" s="10"/>
+      <c r="D74" s="10"/>
+      <c r="E74" s="10"/>
+      <c r="F74" s="10"/>
+      <c r="G74" s="10"/>
+      <c r="H74" s="10"/>
+      <c r="I74" s="21">
+        <f>SUM(I2:I73)</f>
+        <v>807850</v>
+      </c>
+      <c r="J74" s="21">
+        <f>SUM(J2:J73)</f>
+        <v>167940</v>
+      </c>
+    </row>
+    <row r="75" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B75" s="10"/>
+      <c r="C75" s="10"/>
+      <c r="D75" s="10"/>
+      <c r="G75" s="10"/>
+      <c r="H75" s="10"/>
+      <c r="I75" s="10"/>
+      <c r="J75" s="10"/>
+    </row>
+    <row r="84" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B84" s="10"/>
+      <c r="G84" s="10"/>
+      <c r="H84" s="10"/>
+      <c r="I84" s="10"/>
+      <c r="J84" s="10"/>
+    </row>
+    <row r="85" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B85" s="10"/>
+      <c r="G85" s="10"/>
+      <c r="H85" s="10"/>
+      <c r="I85" s="10"/>
+      <c r="J85" s="10"/>
+    </row>
+    <row r="86" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B86" s="10"/>
+      <c r="G86" s="10"/>
+      <c r="H86" s="10"/>
+      <c r="I86" s="10"/>
+      <c r="J86" s="10"/>
+    </row>
+    <row r="87" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B87" s="10"/>
+      <c r="G87" s="10"/>
+      <c r="H87" s="10"/>
+      <c r="I87" s="10"/>
+      <c r="J87" s="10"/>
+    </row>
+    <row r="88" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B88" s="10"/>
+      <c r="G88" s="10"/>
+      <c r="H88" s="10"/>
+      <c r="I88" s="10"/>
+      <c r="J88" s="10"/>
+    </row>
+    <row r="89" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B89" s="10"/>
+      <c r="G89" s="10"/>
+      <c r="H89" s="10"/>
+      <c r="I89" s="10"/>
+      <c r="J89" s="10"/>
+    </row>
+    <row r="90" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B90" s="10"/>
+      <c r="G90" s="10"/>
+      <c r="H90" s="10"/>
+      <c r="I90" s="10"/>
+      <c r="J90" s="10"/>
+    </row>
+    <row r="91" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B91" s="10"/>
+      <c r="G91" s="10"/>
+      <c r="H91" s="10"/>
+      <c r="I91" s="10"/>
+      <c r="J91" s="10"/>
+    </row>
+    <row r="92" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B92" s="10"/>
       <c r="G92" s="10"/>
       <c r="H92" s="10"/>
       <c r="I92" s="10"/>
       <c r="J92" s="10"/>
     </row>
-    <row r="93" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B93" s="10"/>
       <c r="G93" s="10"/>
       <c r="H93" s="10"/>
       <c r="I93" s="10"/>
       <c r="J93" s="10"/>
     </row>
-    <row r="94" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B94" s="10"/>
       <c r="G94" s="10"/>
       <c r="H94" s="10"/>
       <c r="I94" s="10"/>
       <c r="J94" s="10"/>
     </row>
-    <row r="95" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B95" s="10"/>
-      <c r="G95" s="10"/>
-      <c r="H95" s="10"/>
-      <c r="I95" s="10"/>
-      <c r="J95" s="10"/>
-    </row>
-    <row r="96" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B96" s="10"/>
-      <c r="G96" s="10"/>
-      <c r="H96" s="10"/>
-      <c r="I96" s="10"/>
-      <c r="J96" s="10"/>
-    </row>
-    <row r="97" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B97" s="10"/>
-      <c r="G97" s="10"/>
-      <c r="H97" s="10"/>
-      <c r="I97" s="10"/>
-      <c r="J97" s="10"/>
-    </row>
-    <row r="98" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B98" s="10"/>
-      <c r="G98" s="10"/>
-      <c r="H98" s="10"/>
-      <c r="I98" s="10"/>
-      <c r="J98" s="10"/>
-    </row>
-    <row r="99" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B99" s="10"/>
-      <c r="G99" s="10"/>
-      <c r="H99" s="10"/>
-      <c r="I99" s="10"/>
-      <c r="J99" s="10"/>
-    </row>
-    <row r="100" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B100" s="10"/>
-      <c r="G100" s="10"/>
-      <c r="H100" s="10"/>
-      <c r="I100" s="10"/>
-      <c r="J100" s="10"/>
-    </row>
-    <row r="101" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B101" s="10"/>
-      <c r="G101" s="10"/>
-      <c r="H101" s="10"/>
-      <c r="I101" s="10"/>
-      <c r="J101" s="10"/>
-    </row>
-    <row r="102" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B102" s="10"/>
-      <c r="G102" s="10"/>
-      <c r="H102" s="10"/>
-      <c r="I102" s="10"/>
-      <c r="J102" s="10"/>
-    </row>
-    <row r="104" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="L104" s="37" t="s">
+    <row r="96" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="L96" s="32" t="s">
         <v>90</v>
       </c>
-      <c r="M104" s="38"/>
-      <c r="N104" s="38"/>
-      <c r="O104" s="38"/>
-      <c r="P104" s="39"/>
-      <c r="Q104" s="22" t="s">
+      <c r="M96" s="33"/>
+      <c r="N96" s="33"/>
+      <c r="O96" s="33"/>
+      <c r="P96" s="34"/>
+      <c r="Q96" s="41" t="s">
         <v>94</v>
       </c>
-      <c r="R104" s="24" t="s">
+      <c r="R96" s="43" t="s">
         <v>95</v>
       </c>
-      <c r="S104" s="25"/>
-      <c r="T104" s="25"/>
-      <c r="U104" s="25"/>
-      <c r="V104" s="26"/>
-    </row>
-    <row r="105" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="L105" s="40"/>
-      <c r="M105" s="41"/>
-      <c r="N105" s="41"/>
-      <c r="O105" s="41"/>
-      <c r="P105" s="42"/>
-      <c r="Q105" s="23"/>
-      <c r="R105" s="1" t="s">
+      <c r="S96" s="44"/>
+      <c r="T96" s="44"/>
+      <c r="U96" s="44"/>
+      <c r="V96" s="45"/>
+    </row>
+    <row r="97" spans="12:22" x14ac:dyDescent="0.25">
+      <c r="L97" s="35"/>
+      <c r="M97" s="36"/>
+      <c r="N97" s="36"/>
+      <c r="O97" s="36"/>
+      <c r="P97" s="37"/>
+      <c r="Q97" s="42"/>
+      <c r="R97" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="S105" s="1" t="s">
+      <c r="S97" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="T105" s="1" t="s">
+      <c r="T97" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="U105" s="1" t="s">
+      <c r="U97" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="V105" s="1" t="s">
+      <c r="V97" s="1" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="106" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="L106" s="27" t="s">
+    <row r="98" spans="12:22" x14ac:dyDescent="0.25">
+      <c r="L98" s="29" t="s">
         <v>91</v>
       </c>
-      <c r="M106" s="28"/>
-      <c r="N106" s="28"/>
-      <c r="O106" s="28"/>
-      <c r="P106" s="29"/>
-      <c r="Q106" s="2"/>
-      <c r="R106" s="2"/>
-      <c r="S106" s="2"/>
-      <c r="T106" s="2"/>
-      <c r="U106" s="2"/>
-      <c r="V106" s="2"/>
-    </row>
-    <row r="107" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="L107" s="27" t="s">
+      <c r="M98" s="30"/>
+      <c r="N98" s="30"/>
+      <c r="O98" s="30"/>
+      <c r="P98" s="31"/>
+      <c r="Q98" s="2"/>
+      <c r="R98" s="2"/>
+      <c r="S98" s="2"/>
+      <c r="T98" s="2"/>
+      <c r="U98" s="2"/>
+      <c r="V98" s="2"/>
+    </row>
+    <row r="99" spans="12:22" x14ac:dyDescent="0.25">
+      <c r="L99" s="29" t="s">
         <v>92</v>
       </c>
-      <c r="M107" s="28"/>
-      <c r="N107" s="28"/>
-      <c r="O107" s="28"/>
-      <c r="P107" s="29"/>
-      <c r="Q107" s="2"/>
-      <c r="R107" s="2"/>
-      <c r="S107" s="2"/>
-      <c r="T107" s="2"/>
-      <c r="U107" s="2"/>
-      <c r="V107" s="2"/>
-    </row>
-    <row r="108" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="M99" s="30"/>
+      <c r="N99" s="30"/>
+      <c r="O99" s="30"/>
+      <c r="P99" s="31"/>
+      <c r="Q99" s="2"/>
+      <c r="R99" s="2"/>
+      <c r="S99" s="2"/>
+      <c r="T99" s="2"/>
+      <c r="U99" s="2"/>
+      <c r="V99" s="2"/>
+    </row>
+    <row r="100" spans="12:22" x14ac:dyDescent="0.25">
+      <c r="L100" s="29" t="s">
+        <v>93</v>
+      </c>
+      <c r="M100" s="30"/>
+      <c r="N100" s="30"/>
+      <c r="O100" s="30"/>
+      <c r="P100" s="31"/>
+      <c r="Q100" s="2"/>
+      <c r="R100" s="2"/>
+      <c r="S100" s="2"/>
+      <c r="T100" s="2"/>
+      <c r="U100" s="2"/>
+      <c r="V100" s="2"/>
+    </row>
+    <row r="101" spans="12:22" x14ac:dyDescent="0.25">
+      <c r="L101" s="29"/>
+      <c r="M101" s="30"/>
+      <c r="N101" s="30"/>
+      <c r="O101" s="30"/>
+      <c r="P101" s="31"/>
+      <c r="Q101" s="2"/>
+      <c r="R101" s="2"/>
+      <c r="S101" s="2"/>
+      <c r="T101" s="2"/>
+      <c r="U101" s="2"/>
+      <c r="V101" s="2"/>
+    </row>
+    <row r="104" spans="12:22" x14ac:dyDescent="0.25">
+      <c r="O104" s="38" t="s">
+        <v>106</v>
+      </c>
+      <c r="P104" s="38"/>
+      <c r="Q104" s="38"/>
+      <c r="R104" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="S104" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="T104" s="38" t="s">
+        <v>107</v>
+      </c>
+      <c r="U104" s="38"/>
+      <c r="V104" s="38"/>
+    </row>
+    <row r="105" spans="12:22" x14ac:dyDescent="0.25">
+      <c r="O105" s="40" t="s">
+        <v>108</v>
+      </c>
+      <c r="P105" s="40"/>
+      <c r="Q105" s="40"/>
+      <c r="R105" s="14"/>
+      <c r="S105" s="14"/>
+      <c r="T105" s="39"/>
+      <c r="U105" s="39"/>
+      <c r="V105" s="39"/>
+    </row>
+    <row r="106" spans="12:22" x14ac:dyDescent="0.25">
+      <c r="O106" s="40" t="s">
+        <v>109</v>
+      </c>
+      <c r="P106" s="40"/>
+      <c r="Q106" s="40"/>
+      <c r="R106" s="14"/>
+      <c r="S106" s="14"/>
+      <c r="T106" s="39"/>
+      <c r="U106" s="39"/>
+      <c r="V106" s="39"/>
+    </row>
+    <row r="108" spans="12:22" ht="42.75" x14ac:dyDescent="0.25">
       <c r="L108" s="27" t="s">
-        <v>93</v>
-      </c>
-      <c r="M108" s="28"/>
-      <c r="N108" s="28"/>
-      <c r="O108" s="28"/>
-      <c r="P108" s="29"/>
-      <c r="Q108" s="2"/>
-      <c r="R108" s="2"/>
-      <c r="S108" s="2"/>
-      <c r="T108" s="2"/>
-      <c r="U108" s="2"/>
-      <c r="V108" s="2"/>
-    </row>
-    <row r="109" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="L109" s="27"/>
+        <v>110</v>
+      </c>
+      <c r="M108" s="27"/>
+      <c r="N108" s="27"/>
+      <c r="O108" s="27"/>
+      <c r="P108" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q108" s="15" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="109" spans="12:22" x14ac:dyDescent="0.25">
+      <c r="L109" s="28" t="s">
+        <v>113</v>
+      </c>
       <c r="M109" s="28"/>
       <c r="N109" s="28"/>
       <c r="O109" s="28"/>
-      <c r="P109" s="29"/>
-      <c r="Q109" s="2"/>
-      <c r="R109" s="2"/>
-      <c r="S109" s="2"/>
-      <c r="T109" s="2"/>
-      <c r="U109" s="2"/>
-      <c r="V109" s="2"/>
-    </row>
-    <row r="112" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="O112" s="31" t="s">
-        <v>106</v>
-      </c>
-      <c r="P112" s="31"/>
-      <c r="Q112" s="31"/>
-      <c r="R112" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="S112" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="T112" s="31" t="s">
-        <v>107</v>
-      </c>
-      <c r="U112" s="31"/>
-      <c r="V112" s="31"/>
-    </row>
-    <row r="113" spans="12:22" x14ac:dyDescent="0.25">
-      <c r="O113" s="33" t="s">
-        <v>108</v>
-      </c>
-      <c r="P113" s="33"/>
-      <c r="Q113" s="33"/>
-      <c r="R113" s="14"/>
-      <c r="S113" s="14"/>
-      <c r="T113" s="32"/>
-      <c r="U113" s="32"/>
-      <c r="V113" s="32"/>
-    </row>
-    <row r="114" spans="12:22" x14ac:dyDescent="0.25">
-      <c r="O114" s="33" t="s">
-        <v>109</v>
-      </c>
-      <c r="P114" s="33"/>
-      <c r="Q114" s="33"/>
-      <c r="R114" s="14"/>
-      <c r="S114" s="14"/>
-      <c r="T114" s="32"/>
-      <c r="U114" s="32"/>
-      <c r="V114" s="32"/>
-    </row>
-    <row r="116" spans="12:22" ht="42.75" x14ac:dyDescent="0.25">
-      <c r="L116" s="36" t="s">
-        <v>110</v>
-      </c>
-      <c r="M116" s="36"/>
-      <c r="N116" s="36"/>
-      <c r="O116" s="36"/>
-      <c r="P116" s="15" t="s">
-        <v>111</v>
-      </c>
-      <c r="Q116" s="15" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="117" spans="12:22" x14ac:dyDescent="0.25">
-      <c r="L117" s="30" t="s">
-        <v>113</v>
-      </c>
-      <c r="M117" s="30"/>
-      <c r="N117" s="30"/>
-      <c r="O117" s="30"/>
-      <c r="P117" s="16">
+      <c r="P109" s="16">
         <v>39</v>
       </c>
-      <c r="Q117" s="17">
-        <f>P117/P117*100</f>
+      <c r="Q109" s="17">
+        <f>P109/P109*100</f>
         <v>100</v>
       </c>
     </row>
-    <row r="118" spans="12:22" x14ac:dyDescent="0.25">
-      <c r="L118" s="30" t="s">
+    <row r="110" spans="12:22" x14ac:dyDescent="0.25">
+      <c r="L110" s="28" t="s">
         <v>114</v>
       </c>
-      <c r="M118" s="30"/>
-      <c r="N118" s="30"/>
-      <c r="O118" s="30"/>
-      <c r="P118" s="16">
-        <v>0</v>
-      </c>
-      <c r="Q118" s="17">
-        <f>P118/P117*100</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="119" spans="12:22" x14ac:dyDescent="0.25">
-      <c r="L119" s="30" t="s">
+      <c r="M110" s="28"/>
+      <c r="N110" s="28"/>
+      <c r="O110" s="28"/>
+      <c r="P110" s="16">
+        <v>0</v>
+      </c>
+      <c r="Q110" s="17">
+        <f>P110/P109*100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="12:22" x14ac:dyDescent="0.25">
+      <c r="L111" s="28" t="s">
         <v>115</v>
       </c>
-      <c r="M119" s="30"/>
-      <c r="N119" s="30"/>
-      <c r="O119" s="30"/>
-      <c r="P119" s="16">
+      <c r="M111" s="28"/>
+      <c r="N111" s="28"/>
+      <c r="O111" s="28"/>
+      <c r="P111" s="16">
         <v>1</v>
       </c>
-      <c r="Q119" s="17">
-        <f>P119/P117*100</f>
+      <c r="Q111" s="17">
+        <f>P111/P109*100</f>
         <v>2.5641025641025639</v>
       </c>
     </row>
-    <row r="120" spans="12:22" x14ac:dyDescent="0.25">
-      <c r="L120" s="30" t="s">
+    <row r="112" spans="12:22" x14ac:dyDescent="0.25">
+      <c r="L112" s="28" t="s">
         <v>116</v>
       </c>
-      <c r="M120" s="30"/>
-      <c r="N120" s="30"/>
-      <c r="O120" s="30"/>
-      <c r="P120" s="16">
+      <c r="M112" s="28"/>
+      <c r="N112" s="28"/>
+      <c r="O112" s="28"/>
+      <c r="P112" s="16">
         <v>36</v>
       </c>
-      <c r="Q120" s="17">
-        <f>P120/P117*100</f>
+      <c r="Q112" s="17">
+        <f>P112/P109*100</f>
         <v>92.307692307692307</v>
       </c>
     </row>
-    <row r="121" spans="12:22" x14ac:dyDescent="0.25">
-      <c r="L121" s="30" t="s">
+    <row r="113" spans="12:17" x14ac:dyDescent="0.25">
+      <c r="L113" s="28" t="s">
         <v>117</v>
       </c>
-      <c r="M121" s="30"/>
-      <c r="N121" s="30"/>
-      <c r="O121" s="30"/>
-      <c r="P121" s="16">
+      <c r="M113" s="28"/>
+      <c r="N113" s="28"/>
+      <c r="O113" s="28"/>
+      <c r="P113" s="16">
         <v>2</v>
       </c>
-      <c r="Q121" s="17">
-        <f>P121/P117*100</f>
+      <c r="Q113" s="17">
+        <f>P113/P109*100</f>
         <v>5.1282051282051277</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J82">
-    <sortCondition ref="A2:A82"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J74">
+    <sortCondition ref="A2:A74"/>
   </sortState>
   <mergeCells count="40">
-    <mergeCell ref="L26:M26"/>
-    <mergeCell ref="L15:M15"/>
-    <mergeCell ref="L16:M16"/>
-    <mergeCell ref="L17:M17"/>
-    <mergeCell ref="L18:M18"/>
-    <mergeCell ref="L22:M22"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="L4:M4"/>
-    <mergeCell ref="L5:M5"/>
+    <mergeCell ref="Q96:Q97"/>
+    <mergeCell ref="R96:V96"/>
+    <mergeCell ref="L98:P98"/>
+    <mergeCell ref="L99:P99"/>
+    <mergeCell ref="L100:P100"/>
+    <mergeCell ref="L112:O112"/>
+    <mergeCell ref="L113:O113"/>
+    <mergeCell ref="T104:V104"/>
+    <mergeCell ref="T105:V105"/>
+    <mergeCell ref="T106:V106"/>
+    <mergeCell ref="O104:Q104"/>
+    <mergeCell ref="O105:Q105"/>
+    <mergeCell ref="O106:Q106"/>
     <mergeCell ref="L6:M6"/>
-    <mergeCell ref="L116:O116"/>
-    <mergeCell ref="L117:O117"/>
-    <mergeCell ref="L118:O118"/>
-    <mergeCell ref="L119:O119"/>
-    <mergeCell ref="L109:P109"/>
-    <mergeCell ref="L104:P105"/>
+    <mergeCell ref="L108:O108"/>
+    <mergeCell ref="L109:O109"/>
+    <mergeCell ref="L110:O110"/>
+    <mergeCell ref="L111:O111"/>
+    <mergeCell ref="L101:P101"/>
+    <mergeCell ref="L96:P97"/>
     <mergeCell ref="L7:M7"/>
     <mergeCell ref="L8:M8"/>
     <mergeCell ref="L9:M9"/>
@@ -8188,19 +7586,17 @@
     <mergeCell ref="L24:M24"/>
     <mergeCell ref="L25:M25"/>
     <mergeCell ref="L12:M12"/>
-    <mergeCell ref="L120:O120"/>
-    <mergeCell ref="L121:O121"/>
-    <mergeCell ref="T112:V112"/>
-    <mergeCell ref="T113:V113"/>
-    <mergeCell ref="T114:V114"/>
-    <mergeCell ref="O112:Q112"/>
-    <mergeCell ref="O113:Q113"/>
-    <mergeCell ref="O114:Q114"/>
-    <mergeCell ref="Q104:Q105"/>
-    <mergeCell ref="R104:V104"/>
-    <mergeCell ref="L106:P106"/>
-    <mergeCell ref="L107:P107"/>
-    <mergeCell ref="L108:P108"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="L5:M5"/>
+    <mergeCell ref="L26:M26"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="L22:M22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/builds_brawlers.xlsx
+++ b/builds_brawlers.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Desktop\Proyecto\documentos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70A91F00-BA39-4ECE-9B76-20EDE0BEE714}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{772ECBAA-6DF8-46FB-88F6-8CC4550E3D66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11475" yWindow="45" windowWidth="15780" windowHeight="15435" activeTab="1" xr2:uid="{976858EE-14E3-4E09-96BE-2F95736D0462}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{976858EE-14E3-4E09-96BE-2F95736D0462}"/>
   </bookViews>
   <sheets>
     <sheet name="BUILDS" sheetId="5" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="686" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="698" uniqueCount="200">
   <si>
     <t>Brawler</t>
   </si>
@@ -619,6 +619,24 @@
   </si>
   <si>
     <t>Cabezón</t>
+  </si>
+  <si>
+    <t>Sin Cobertura</t>
+  </si>
+  <si>
+    <t>Grabación</t>
+  </si>
+  <si>
+    <t>Subidón Neumático</t>
+  </si>
+  <si>
+    <t>No Hay de Que</t>
+  </si>
+  <si>
+    <t>Subidón de Azúcar</t>
+  </si>
+  <si>
+    <t>Pólvora</t>
   </si>
 </sst>
 </file>
@@ -868,7 +886,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -925,30 +943,26 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -958,6 +972,27 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -977,32 +1012,14 @@
     <xf numFmtId="0" fontId="2" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1348,8 +1365,8 @@
   </sheetPr>
   <dimension ref="A1:F73"/>
   <sheetViews>
-    <sheetView topLeftCell="A20" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A74" sqref="A74:XFD81"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1929,10 +1946,18 @@
       <c r="B29" s="18" t="s">
         <v>129</v>
       </c>
-      <c r="C29" s="20"/>
-      <c r="D29" s="20"/>
-      <c r="E29" s="20"/>
-      <c r="F29" s="20"/>
+      <c r="C29" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="30" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="13">
@@ -1941,10 +1966,10 @@
       <c r="B30" s="18" t="s">
         <v>139</v>
       </c>
-      <c r="C30" s="20"/>
-      <c r="D30" s="20"/>
-      <c r="E30" s="20"/>
-      <c r="F30" s="20"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
     </row>
     <row r="31" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="13">
@@ -1953,10 +1978,18 @@
       <c r="B31" s="18" t="s">
         <v>142</v>
       </c>
-      <c r="C31" s="20"/>
-      <c r="D31" s="20"/>
-      <c r="E31" s="20"/>
-      <c r="F31" s="20"/>
+      <c r="C31" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="32" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="13">
@@ -1965,10 +1998,10 @@
       <c r="B32" s="18" t="s">
         <v>150</v>
       </c>
-      <c r="C32" s="20"/>
-      <c r="D32" s="20"/>
-      <c r="E32" s="20"/>
-      <c r="F32" s="20"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
     </row>
     <row r="33" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" s="13">
@@ -1977,10 +2010,10 @@
       <c r="B33" s="18" t="s">
         <v>153</v>
       </c>
-      <c r="C33" s="20"/>
-      <c r="D33" s="20"/>
-      <c r="E33" s="20"/>
-      <c r="F33" s="20"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
     </row>
     <row r="34" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" s="13">
@@ -1989,10 +2022,10 @@
       <c r="B34" s="18" t="s">
         <v>154</v>
       </c>
-      <c r="C34" s="20"/>
-      <c r="D34" s="20"/>
-      <c r="E34" s="20"/>
-      <c r="F34" s="20"/>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
     </row>
     <row r="35" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35" s="13">
@@ -2001,10 +2034,10 @@
       <c r="B35" s="18" t="s">
         <v>164</v>
       </c>
-      <c r="C35" s="20"/>
-      <c r="D35" s="20"/>
-      <c r="E35" s="20"/>
-      <c r="F35" s="20"/>
+      <c r="C35" s="2"/>
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
+      <c r="F35" s="2"/>
     </row>
     <row r="36" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36" s="13">
@@ -2013,10 +2046,10 @@
       <c r="B36" s="18" t="s">
         <v>175</v>
       </c>
-      <c r="C36" s="20"/>
-      <c r="D36" s="20"/>
-      <c r="E36" s="20"/>
-      <c r="F36" s="20"/>
+      <c r="C36" s="2"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2"/>
+      <c r="F36" s="2"/>
     </row>
     <row r="37" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A37" s="13">
@@ -2025,10 +2058,10 @@
       <c r="B37" s="18" t="s">
         <v>176</v>
       </c>
-      <c r="C37" s="20"/>
-      <c r="D37" s="20"/>
-      <c r="E37" s="20"/>
-      <c r="F37" s="20"/>
+      <c r="C37" s="2"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2"/>
+      <c r="F37" s="2"/>
     </row>
     <row r="38" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A38" s="13">
@@ -2037,10 +2070,10 @@
       <c r="B38" s="18" t="s">
         <v>177</v>
       </c>
-      <c r="C38" s="20"/>
-      <c r="D38" s="20"/>
-      <c r="E38" s="20"/>
-      <c r="F38" s="20"/>
+      <c r="C38" s="2"/>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2"/>
+      <c r="F38" s="2"/>
     </row>
     <row r="39" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A39" s="13">
@@ -2049,10 +2082,10 @@
       <c r="B39" s="18" t="s">
         <v>118</v>
       </c>
-      <c r="C39" s="20"/>
-      <c r="D39" s="20"/>
-      <c r="E39" s="20"/>
-      <c r="F39" s="20"/>
+      <c r="C39" s="2"/>
+      <c r="D39" s="2"/>
+      <c r="E39" s="2"/>
+      <c r="F39" s="2"/>
     </row>
     <row r="40" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A40" s="13">
@@ -2061,10 +2094,10 @@
       <c r="B40" s="18" t="s">
         <v>119</v>
       </c>
-      <c r="C40" s="20"/>
-      <c r="D40" s="20"/>
-      <c r="E40" s="20"/>
-      <c r="F40" s="20"/>
+      <c r="C40" s="2"/>
+      <c r="D40" s="2"/>
+      <c r="E40" s="2"/>
+      <c r="F40" s="2"/>
     </row>
     <row r="41" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A41" s="13">
@@ -2073,10 +2106,10 @@
       <c r="B41" s="18" t="s">
         <v>121</v>
       </c>
-      <c r="C41" s="20"/>
-      <c r="D41" s="20"/>
-      <c r="E41" s="20"/>
-      <c r="F41" s="20"/>
+      <c r="C41" s="2"/>
+      <c r="D41" s="2"/>
+      <c r="E41" s="2"/>
+      <c r="F41" s="2"/>
     </row>
     <row r="42" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A42" s="13">
@@ -2085,10 +2118,10 @@
       <c r="B42" s="18" t="s">
         <v>122</v>
       </c>
-      <c r="C42" s="20"/>
-      <c r="D42" s="20"/>
-      <c r="E42" s="20"/>
-      <c r="F42" s="20"/>
+      <c r="C42" s="2"/>
+      <c r="D42" s="2"/>
+      <c r="E42" s="2"/>
+      <c r="F42" s="2"/>
     </row>
     <row r="43" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A43" s="13">
@@ -2097,10 +2130,10 @@
       <c r="B43" s="18" t="s">
         <v>123</v>
       </c>
-      <c r="C43" s="20"/>
-      <c r="D43" s="20"/>
-      <c r="E43" s="20"/>
-      <c r="F43" s="20"/>
+      <c r="C43" s="2"/>
+      <c r="D43" s="2"/>
+      <c r="E43" s="2"/>
+      <c r="F43" s="2"/>
     </row>
     <row r="44" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A44" s="13">
@@ -2109,10 +2142,10 @@
       <c r="B44" s="18" t="s">
         <v>125</v>
       </c>
-      <c r="C44" s="20"/>
-      <c r="D44" s="20"/>
-      <c r="E44" s="20"/>
-      <c r="F44" s="20"/>
+      <c r="C44" s="2"/>
+      <c r="D44" s="2"/>
+      <c r="E44" s="2"/>
+      <c r="F44" s="2"/>
     </row>
     <row r="45" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A45" s="13">
@@ -2121,10 +2154,10 @@
       <c r="B45" s="18" t="s">
         <v>126</v>
       </c>
-      <c r="C45" s="20"/>
-      <c r="D45" s="20"/>
-      <c r="E45" s="20"/>
-      <c r="F45" s="20"/>
+      <c r="C45" s="2"/>
+      <c r="D45" s="2"/>
+      <c r="E45" s="2"/>
+      <c r="F45" s="2"/>
     </row>
     <row r="46" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A46" s="13">
@@ -2133,10 +2166,10 @@
       <c r="B46" s="18" t="s">
         <v>127</v>
       </c>
-      <c r="C46" s="20"/>
-      <c r="D46" s="20"/>
-      <c r="E46" s="20"/>
-      <c r="F46" s="20"/>
+      <c r="C46" s="2"/>
+      <c r="D46" s="2"/>
+      <c r="E46" s="2"/>
+      <c r="F46" s="2"/>
     </row>
     <row r="47" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A47" s="13">
@@ -2145,10 +2178,10 @@
       <c r="B47" s="18" t="s">
         <v>128</v>
       </c>
-      <c r="C47" s="20"/>
-      <c r="D47" s="20"/>
-      <c r="E47" s="20"/>
-      <c r="F47" s="20"/>
+      <c r="C47" s="2"/>
+      <c r="D47" s="2"/>
+      <c r="E47" s="2"/>
+      <c r="F47" s="2"/>
     </row>
     <row r="48" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A48" s="13">
@@ -2157,10 +2190,10 @@
       <c r="B48" s="18" t="s">
         <v>130</v>
       </c>
-      <c r="C48" s="20"/>
-      <c r="D48" s="20"/>
-      <c r="E48" s="20"/>
-      <c r="F48" s="20"/>
+      <c r="C48" s="2"/>
+      <c r="D48" s="2"/>
+      <c r="E48" s="2"/>
+      <c r="F48" s="2"/>
     </row>
     <row r="49" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A49" s="13">
@@ -2169,10 +2202,10 @@
       <c r="B49" s="18" t="s">
         <v>132</v>
       </c>
-      <c r="C49" s="20"/>
-      <c r="D49" s="20"/>
-      <c r="E49" s="20"/>
-      <c r="F49" s="20"/>
+      <c r="C49" s="2"/>
+      <c r="D49" s="2"/>
+      <c r="E49" s="2"/>
+      <c r="F49" s="2"/>
     </row>
     <row r="50" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A50" s="13">
@@ -2181,10 +2214,10 @@
       <c r="B50" s="18" t="s">
         <v>133</v>
       </c>
-      <c r="C50" s="20"/>
-      <c r="D50" s="20"/>
-      <c r="E50" s="20"/>
-      <c r="F50" s="20"/>
+      <c r="C50" s="2"/>
+      <c r="D50" s="2"/>
+      <c r="E50" s="2"/>
+      <c r="F50" s="2"/>
     </row>
     <row r="51" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A51" s="13">
@@ -2193,10 +2226,10 @@
       <c r="B51" s="18" t="s">
         <v>134</v>
       </c>
-      <c r="C51" s="20"/>
-      <c r="D51" s="20"/>
-      <c r="E51" s="20"/>
-      <c r="F51" s="20"/>
+      <c r="C51" s="2"/>
+      <c r="D51" s="2"/>
+      <c r="E51" s="2"/>
+      <c r="F51" s="2"/>
     </row>
     <row r="52" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A52" s="13">
@@ -2205,22 +2238,30 @@
       <c r="B52" s="18" t="s">
         <v>135</v>
       </c>
-      <c r="C52" s="20"/>
-      <c r="D52" s="20"/>
-      <c r="E52" s="20"/>
-      <c r="F52" s="20"/>
+      <c r="C52" s="2"/>
+      <c r="D52" s="2"/>
+      <c r="E52" s="2"/>
+      <c r="F52" s="2"/>
     </row>
     <row r="53" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A53" s="13">
         <v>52</v>
       </c>
-      <c r="B53" s="18" t="s">
+      <c r="B53" s="21" t="s">
         <v>136</v>
       </c>
-      <c r="C53" s="20"/>
-      <c r="D53" s="20"/>
-      <c r="E53" s="20"/>
-      <c r="F53" s="20"/>
+      <c r="C53" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F53" s="2" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="54" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A54" s="13">
@@ -2229,10 +2270,10 @@
       <c r="B54" s="18" t="s">
         <v>140</v>
       </c>
-      <c r="C54" s="20"/>
-      <c r="D54" s="20"/>
-      <c r="E54" s="20"/>
-      <c r="F54" s="20"/>
+      <c r="C54" s="2"/>
+      <c r="D54" s="2"/>
+      <c r="E54" s="2"/>
+      <c r="F54" s="2"/>
     </row>
     <row r="55" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A55" s="13">
@@ -2241,10 +2282,10 @@
       <c r="B55" s="18" t="s">
         <v>141</v>
       </c>
-      <c r="C55" s="20"/>
-      <c r="D55" s="20"/>
-      <c r="E55" s="20"/>
-      <c r="F55" s="20"/>
+      <c r="C55" s="2"/>
+      <c r="D55" s="2"/>
+      <c r="E55" s="2"/>
+      <c r="F55" s="2"/>
     </row>
     <row r="56" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A56" s="13">
@@ -2253,10 +2294,10 @@
       <c r="B56" s="18" t="s">
         <v>143</v>
       </c>
-      <c r="C56" s="20"/>
-      <c r="D56" s="20"/>
-      <c r="E56" s="20"/>
-      <c r="F56" s="20"/>
+      <c r="C56" s="2"/>
+      <c r="D56" s="2"/>
+      <c r="E56" s="2"/>
+      <c r="F56" s="2"/>
     </row>
     <row r="57" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A57" s="13">
@@ -2265,10 +2306,10 @@
       <c r="B57" s="18" t="s">
         <v>144</v>
       </c>
-      <c r="C57" s="20"/>
-      <c r="D57" s="20"/>
-      <c r="E57" s="20"/>
-      <c r="F57" s="20"/>
+      <c r="C57" s="2"/>
+      <c r="D57" s="2"/>
+      <c r="E57" s="2"/>
+      <c r="F57" s="2"/>
     </row>
     <row r="58" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A58" s="13">
@@ -2277,10 +2318,10 @@
       <c r="B58" s="18" t="s">
         <v>145</v>
       </c>
-      <c r="C58" s="20"/>
-      <c r="D58" s="20"/>
-      <c r="E58" s="20"/>
-      <c r="F58" s="20"/>
+      <c r="C58" s="2"/>
+      <c r="D58" s="2"/>
+      <c r="E58" s="2"/>
+      <c r="F58" s="2"/>
     </row>
     <row r="59" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A59" s="13">
@@ -2289,10 +2330,10 @@
       <c r="B59" s="18" t="s">
         <v>146</v>
       </c>
-      <c r="C59" s="20"/>
-      <c r="D59" s="20"/>
-      <c r="E59" s="20"/>
-      <c r="F59" s="20"/>
+      <c r="C59" s="2"/>
+      <c r="D59" s="2"/>
+      <c r="E59" s="2"/>
+      <c r="F59" s="2"/>
     </row>
     <row r="60" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A60" s="13">
@@ -2301,10 +2342,10 @@
       <c r="B60" s="18" t="s">
         <v>147</v>
       </c>
-      <c r="C60" s="20"/>
-      <c r="D60" s="20"/>
-      <c r="E60" s="20"/>
-      <c r="F60" s="20"/>
+      <c r="C60" s="2"/>
+      <c r="D60" s="2"/>
+      <c r="E60" s="2"/>
+      <c r="F60" s="2"/>
     </row>
     <row r="61" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A61" s="13">
@@ -2313,10 +2354,10 @@
       <c r="B61" s="18" t="s">
         <v>149</v>
       </c>
-      <c r="C61" s="20"/>
-      <c r="D61" s="20"/>
-      <c r="E61" s="20"/>
-      <c r="F61" s="20"/>
+      <c r="C61" s="2"/>
+      <c r="D61" s="2"/>
+      <c r="E61" s="2"/>
+      <c r="F61" s="2"/>
     </row>
     <row r="62" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A62" s="13">
@@ -2325,10 +2366,10 @@
       <c r="B62" s="18" t="s">
         <v>148</v>
       </c>
-      <c r="C62" s="20"/>
-      <c r="D62" s="20"/>
-      <c r="E62" s="20"/>
-      <c r="F62" s="20"/>
+      <c r="C62" s="2"/>
+      <c r="D62" s="2"/>
+      <c r="E62" s="2"/>
+      <c r="F62" s="2"/>
     </row>
     <row r="63" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A63" s="13">
@@ -2337,10 +2378,10 @@
       <c r="B63" s="18" t="s">
         <v>155</v>
       </c>
-      <c r="C63" s="20"/>
-      <c r="D63" s="20"/>
-      <c r="E63" s="20"/>
-      <c r="F63" s="20"/>
+      <c r="C63" s="2"/>
+      <c r="D63" s="2"/>
+      <c r="E63" s="2"/>
+      <c r="F63" s="2"/>
     </row>
     <row r="64" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A64" s="13">
@@ -2349,10 +2390,10 @@
       <c r="B64" s="18" t="s">
         <v>156</v>
       </c>
-      <c r="C64" s="20"/>
-      <c r="D64" s="20"/>
-      <c r="E64" s="20"/>
-      <c r="F64" s="20"/>
+      <c r="C64" s="2"/>
+      <c r="D64" s="2"/>
+      <c r="E64" s="2"/>
+      <c r="F64" s="2"/>
     </row>
     <row r="65" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A65" s="13">
@@ -2361,10 +2402,10 @@
       <c r="B65" s="18" t="s">
         <v>157</v>
       </c>
-      <c r="C65" s="20"/>
-      <c r="D65" s="20"/>
-      <c r="E65" s="20"/>
-      <c r="F65" s="20"/>
+      <c r="C65" s="2"/>
+      <c r="D65" s="2"/>
+      <c r="E65" s="2"/>
+      <c r="F65" s="2"/>
     </row>
     <row r="66" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A66" s="13">
@@ -2373,10 +2414,10 @@
       <c r="B66" s="18" t="s">
         <v>158</v>
       </c>
-      <c r="C66" s="20"/>
-      <c r="D66" s="20"/>
-      <c r="E66" s="20"/>
-      <c r="F66" s="20"/>
+      <c r="C66" s="2"/>
+      <c r="D66" s="2"/>
+      <c r="E66" s="2"/>
+      <c r="F66" s="2"/>
     </row>
     <row r="67" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A67" s="13">
@@ -2385,10 +2426,10 @@
       <c r="B67" s="18" t="s">
         <v>159</v>
       </c>
-      <c r="C67" s="20"/>
-      <c r="D67" s="20"/>
-      <c r="E67" s="20"/>
-      <c r="F67" s="20"/>
+      <c r="C67" s="2"/>
+      <c r="D67" s="2"/>
+      <c r="E67" s="2"/>
+      <c r="F67" s="2"/>
     </row>
     <row r="68" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A68" s="13">
@@ -2397,10 +2438,10 @@
       <c r="B68" s="18" t="s">
         <v>160</v>
       </c>
-      <c r="C68" s="20"/>
-      <c r="D68" s="20"/>
-      <c r="E68" s="20"/>
-      <c r="F68" s="20"/>
+      <c r="C68" s="2"/>
+      <c r="D68" s="2"/>
+      <c r="E68" s="2"/>
+      <c r="F68" s="2"/>
     </row>
     <row r="69" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A69" s="13">
@@ -2409,10 +2450,10 @@
       <c r="B69" s="18" t="s">
         <v>161</v>
       </c>
-      <c r="C69" s="20"/>
-      <c r="D69" s="20"/>
-      <c r="E69" s="20"/>
-      <c r="F69" s="20"/>
+      <c r="C69" s="2"/>
+      <c r="D69" s="2"/>
+      <c r="E69" s="2"/>
+      <c r="F69" s="2"/>
     </row>
     <row r="70" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A70" s="13">
@@ -2421,10 +2462,10 @@
       <c r="B70" s="18" t="s">
         <v>162</v>
       </c>
-      <c r="C70" s="20"/>
-      <c r="D70" s="20"/>
-      <c r="E70" s="20"/>
-      <c r="F70" s="20"/>
+      <c r="C70" s="2"/>
+      <c r="D70" s="2"/>
+      <c r="E70" s="2"/>
+      <c r="F70" s="2"/>
     </row>
     <row r="71" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A71" s="13">
@@ -2433,10 +2474,10 @@
       <c r="B71" s="18" t="s">
         <v>163</v>
       </c>
-      <c r="C71" s="20"/>
-      <c r="D71" s="20"/>
-      <c r="E71" s="20"/>
-      <c r="F71" s="20"/>
+      <c r="C71" s="2"/>
+      <c r="D71" s="2"/>
+      <c r="E71" s="2"/>
+      <c r="F71" s="2"/>
     </row>
     <row r="72" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A72" s="13">
@@ -2445,10 +2486,10 @@
       <c r="B72" s="18" t="s">
         <v>165</v>
       </c>
-      <c r="C72" s="20"/>
-      <c r="D72" s="20"/>
-      <c r="E72" s="20"/>
-      <c r="F72" s="20"/>
+      <c r="C72" s="2"/>
+      <c r="D72" s="2"/>
+      <c r="E72" s="2"/>
+      <c r="F72" s="2"/>
     </row>
     <row r="73" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A73" s="13">
@@ -2457,10 +2498,10 @@
       <c r="B73" s="18" t="s">
         <v>166</v>
       </c>
-      <c r="C73" s="20"/>
-      <c r="D73" s="20"/>
-      <c r="E73" s="20"/>
-      <c r="F73" s="20"/>
+      <c r="C73" s="2"/>
+      <c r="D73" s="2"/>
+      <c r="E73" s="2"/>
+      <c r="F73" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2474,8 +2515,8 @@
   </sheetPr>
   <dimension ref="A1:X113"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="D41" sqref="D41"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="H37" sqref="H37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2529,10 +2570,10 @@
       <c r="J1" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="L1" s="25" t="s">
+      <c r="L1" s="43" t="s">
         <v>52</v>
       </c>
-      <c r="M1" s="26"/>
+      <c r="M1" s="44"/>
       <c r="N1" s="11" t="s">
         <v>53</v>
       </c>
@@ -2590,17 +2631,17 @@
         <v>88</v>
       </c>
       <c r="I2" s="2">
-        <f>W2</f>
+        <f t="shared" ref="I2:I33" si="0">W2</f>
         <v>0</v>
       </c>
       <c r="J2" s="2">
-        <f>IF(C2=11,0,IF(C2=10,1440,IF(C2=9,2330,IF(C2=8,2880,IF(C2=7,3220,IF(C2=1,3740,"MUY BAJO"))))))</f>
-        <v>0</v>
-      </c>
-      <c r="L2" s="22" t="s">
+        <f t="shared" ref="J2:J33" si="1">IF(C2=11,0,IF(C2=10,1440,IF(C2=9,2330,IF(C2=8,2880,IF(C2=7,3220,IF(C2=1,3740,"MUY BAJO"))))))</f>
+        <v>0</v>
+      </c>
+      <c r="L2" s="34" t="s">
         <v>55</v>
       </c>
-      <c r="M2" s="23"/>
+      <c r="M2" s="35"/>
       <c r="N2" s="2">
         <v>20</v>
       </c>
@@ -2662,17 +2703,17 @@
         <v>88</v>
       </c>
       <c r="I3" s="2">
-        <f>W3</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J3" s="2">
-        <f>IF(C3=11,0,IF(C3=10,1440,IF(C3=9,2330,IF(C3=8,2880,IF(C3=7,3220,IF(C3=1,3740,"MUY BAJO"))))))</f>
-        <v>0</v>
-      </c>
-      <c r="L3" s="22" t="s">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L3" s="34" t="s">
         <v>56</v>
       </c>
-      <c r="M3" s="23"/>
+      <c r="M3" s="35"/>
       <c r="N3" s="2">
         <v>30</v>
       </c>
@@ -2680,31 +2721,31 @@
         <v>35</v>
       </c>
       <c r="Q3">
-        <f t="shared" ref="Q3:Q66" si="0">IF(C3=11,0,IF(C3=10,2800,IF(C3=9,4675,IF(C3=8,5925,IF(C3=7,6725,IF(C3=1,7765,"MUY BAJO"))))))</f>
+        <f t="shared" ref="Q3:Q66" si="2">IF(C3=11,0,IF(C3=10,2800,IF(C3=9,4675,IF(C3=8,5925,IF(C3=7,6725,IF(C3=1,7765,"MUY BAJO"))))))</f>
         <v>0</v>
       </c>
       <c r="R3">
-        <f t="shared" ref="R3:R66" si="1">IF(D3="No Tiene", 0, IF(D3="Si", 0, 5000))</f>
+        <f t="shared" ref="R3:R66" si="3">IF(D3="No Tiene", 0, IF(D3="Si", 0, 5000))</f>
         <v>0</v>
       </c>
       <c r="S3">
-        <f t="shared" ref="S3:S66" si="2">IF(E3="Si", 0, 1000)</f>
+        <f t="shared" ref="S3:S66" si="4">IF(E3="Si", 0, 1000)</f>
         <v>0</v>
       </c>
       <c r="T3">
-        <f t="shared" ref="T3:T66" si="3">IF(F3="Si", 0, 1000)</f>
+        <f t="shared" ref="T3:T66" si="5">IF(F3="Si", 0, 1000)</f>
         <v>0</v>
       </c>
       <c r="U3">
-        <f t="shared" ref="U3:U66" si="4">IF(G3="Si", 0, 1000)</f>
+        <f t="shared" ref="U3:U66" si="6">IF(G3="Si", 0, 1000)</f>
         <v>0</v>
       </c>
       <c r="V3">
-        <f t="shared" ref="V3:V66" si="5">IF(H3="Si", 0, 1000)</f>
+        <f t="shared" ref="V3:V66" si="7">IF(H3="Si", 0, 1000)</f>
         <v>0</v>
       </c>
       <c r="W3">
-        <f t="shared" ref="W3:W66" si="6">SUM(Q3:V3)</f>
+        <f t="shared" ref="W3:W66" si="8">SUM(Q3:V3)</f>
         <v>0</v>
       </c>
     </row>
@@ -2734,17 +2775,17 @@
         <v>88</v>
       </c>
       <c r="I4" s="2">
-        <f>W4</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J4" s="2">
-        <f>IF(C4=11,0,IF(C4=10,1440,IF(C4=9,2330,IF(C4=8,2880,IF(C4=7,3220,IF(C4=1,3740,"MUY BAJO"))))))</f>
-        <v>0</v>
-      </c>
-      <c r="L4" s="22" t="s">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L4" s="34" t="s">
         <v>57</v>
       </c>
-      <c r="M4" s="23"/>
+      <c r="M4" s="35"/>
       <c r="N4" s="2">
         <v>50</v>
       </c>
@@ -2752,31 +2793,31 @@
         <v>75</v>
       </c>
       <c r="Q4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="R4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="S4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="T4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="U4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="V4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="W4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -2806,17 +2847,17 @@
         <v>88</v>
       </c>
       <c r="I5" s="2">
-        <f>W5</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J5" s="2">
-        <f>IF(C5=11,0,IF(C5=10,1440,IF(C5=9,2330,IF(C5=8,2880,IF(C5=7,3220,IF(C5=1,3740,"MUY BAJO"))))))</f>
-        <v>0</v>
-      </c>
-      <c r="L5" s="22" t="s">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L5" s="34" t="s">
         <v>58</v>
       </c>
-      <c r="M5" s="23"/>
+      <c r="M5" s="35"/>
       <c r="N5" s="2">
         <v>80</v>
       </c>
@@ -2824,31 +2865,31 @@
         <v>140</v>
       </c>
       <c r="Q5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="R5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="S5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="T5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="U5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="V5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="W5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -2878,17 +2919,17 @@
         <v>88</v>
       </c>
       <c r="I6" s="2">
-        <f>W6</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J6" s="2">
-        <f>IF(C6=11,0,IF(C6=10,1440,IF(C6=9,2330,IF(C6=8,2880,IF(C6=7,3220,IF(C6=1,3740,"MUY BAJO"))))))</f>
-        <v>0</v>
-      </c>
-      <c r="L6" s="22" t="s">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L6" s="34" t="s">
         <v>59</v>
       </c>
-      <c r="M6" s="23"/>
+      <c r="M6" s="35"/>
       <c r="N6" s="2">
         <v>130</v>
       </c>
@@ -2896,31 +2937,31 @@
         <v>290</v>
       </c>
       <c r="Q6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="R6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="S6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="T6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="U6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="V6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="W6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -2950,17 +2991,17 @@
         <v>88</v>
       </c>
       <c r="I7" s="2">
-        <f>W7</f>
+        <f t="shared" si="0"/>
         <v>5000</v>
       </c>
       <c r="J7" s="2">
-        <f>IF(C7=11,0,IF(C7=10,1440,IF(C7=9,2330,IF(C7=8,2880,IF(C7=7,3220,IF(C7=1,3740,"MUY BAJO"))))))</f>
-        <v>0</v>
-      </c>
-      <c r="L7" s="22" t="s">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L7" s="34" t="s">
         <v>60</v>
       </c>
-      <c r="M7" s="23"/>
+      <c r="M7" s="35"/>
       <c r="N7" s="2">
         <v>210</v>
       </c>
@@ -2968,31 +3009,31 @@
         <v>480</v>
       </c>
       <c r="Q7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="R7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>5000</v>
       </c>
       <c r="S7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="T7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="U7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="V7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="W7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>5000</v>
       </c>
     </row>
@@ -3022,17 +3063,17 @@
         <v>89</v>
       </c>
       <c r="I8" s="2">
-        <f>W8</f>
+        <f t="shared" si="0"/>
         <v>15725</v>
       </c>
       <c r="J8" s="2">
-        <f>IF(C8=11,0,IF(C8=10,1440,IF(C8=9,2330,IF(C8=8,2880,IF(C8=7,3220,IF(C8=1,3740,"MUY BAJO"))))))</f>
+        <f t="shared" si="1"/>
         <v>3220</v>
       </c>
-      <c r="L8" s="22" t="s">
+      <c r="L8" s="34" t="s">
         <v>61</v>
       </c>
-      <c r="M8" s="23"/>
+      <c r="M8" s="35"/>
       <c r="N8" s="2">
         <v>340</v>
       </c>
@@ -3040,31 +3081,31 @@
         <v>800</v>
       </c>
       <c r="Q8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>6725</v>
       </c>
       <c r="R8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>5000</v>
       </c>
       <c r="S8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1000</v>
       </c>
       <c r="T8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1000</v>
       </c>
       <c r="U8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1000</v>
       </c>
       <c r="V8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1000</v>
       </c>
       <c r="W8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>15725</v>
       </c>
     </row>
@@ -3094,17 +3135,17 @@
         <v>88</v>
       </c>
       <c r="I9" s="2">
-        <f>W9</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J9" s="2">
-        <f>IF(C9=11,0,IF(C9=10,1440,IF(C9=9,2330,IF(C9=8,2880,IF(C9=7,3220,IF(C9=1,3740,"MUY BAJO"))))))</f>
-        <v>0</v>
-      </c>
-      <c r="L9" s="22" t="s">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L9" s="34" t="s">
         <v>62</v>
       </c>
-      <c r="M9" s="23"/>
+      <c r="M9" s="35"/>
       <c r="N9" s="2">
         <v>550</v>
       </c>
@@ -3112,31 +3153,31 @@
         <v>1250</v>
       </c>
       <c r="Q9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="R9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="S9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="T9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="U9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="V9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="W9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -3166,17 +3207,17 @@
         <v>89</v>
       </c>
       <c r="I10" s="2">
-        <f>W10</f>
+        <f t="shared" si="0"/>
         <v>7675</v>
       </c>
       <c r="J10" s="2">
-        <f>IF(C10=11,0,IF(C10=10,1440,IF(C10=9,2330,IF(C10=8,2880,IF(C10=7,3220,IF(C10=1,3740,"MUY BAJO"))))))</f>
+        <f t="shared" si="1"/>
         <v>2330</v>
       </c>
-      <c r="L10" s="22" t="s">
+      <c r="L10" s="34" t="s">
         <v>63</v>
       </c>
-      <c r="M10" s="23"/>
+      <c r="M10" s="35"/>
       <c r="N10" s="2">
         <v>890</v>
       </c>
@@ -3184,31 +3225,31 @@
         <v>1875</v>
       </c>
       <c r="Q10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>4675</v>
       </c>
       <c r="R10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="S10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1000</v>
       </c>
       <c r="T10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="U10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1000</v>
       </c>
       <c r="V10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1000</v>
       </c>
       <c r="W10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>7675</v>
       </c>
     </row>
@@ -3238,17 +3279,17 @@
         <v>89</v>
       </c>
       <c r="I11" s="2">
-        <f>W11</f>
+        <f t="shared" si="0"/>
         <v>8800</v>
       </c>
       <c r="J11" s="2">
-        <f>IF(C11=11,0,IF(C11=10,1440,IF(C11=9,2330,IF(C11=8,2880,IF(C11=7,3220,IF(C11=1,3740,"MUY BAJO"))))))</f>
+        <f t="shared" si="1"/>
         <v>1440</v>
       </c>
-      <c r="L11" s="22" t="s">
+      <c r="L11" s="34" t="s">
         <v>64</v>
       </c>
-      <c r="M11" s="23"/>
+      <c r="M11" s="35"/>
       <c r="N11" s="2">
         <v>1440</v>
       </c>
@@ -3256,31 +3297,31 @@
         <v>2800</v>
       </c>
       <c r="Q11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2800</v>
       </c>
       <c r="R11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>5000</v>
       </c>
       <c r="S11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="T11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="U11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="V11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1000</v>
       </c>
       <c r="W11">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>8800</v>
       </c>
     </row>
@@ -3295,7 +3336,7 @@
         <v>7</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>152</v>
+        <v>89</v>
       </c>
       <c r="E12" s="4" t="s">
         <v>88</v>
@@ -3310,17 +3351,17 @@
         <v>89</v>
       </c>
       <c r="I12" s="2">
-        <f>W12</f>
-        <v>9725</v>
+        <f t="shared" si="0"/>
+        <v>14725</v>
       </c>
       <c r="J12" s="2">
-        <f>IF(C12=11,0,IF(C12=10,1440,IF(C12=9,2330,IF(C12=8,2880,IF(C12=7,3220,IF(C12=1,3740,"MUY BAJO"))))))</f>
+        <f t="shared" si="1"/>
         <v>3220</v>
       </c>
-      <c r="L12" s="22" t="s">
+      <c r="L12" s="34" t="s">
         <v>173</v>
       </c>
-      <c r="M12" s="23"/>
+      <c r="M12" s="35"/>
       <c r="N12" s="2">
         <f>SUM(N2:N11)</f>
         <v>3740</v>
@@ -3330,32 +3371,32 @@
         <v>7765</v>
       </c>
       <c r="Q12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>6725</v>
       </c>
       <c r="R12">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>5000</v>
       </c>
       <c r="S12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="T12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1000</v>
       </c>
       <c r="U12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1000</v>
       </c>
       <c r="V12">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1000</v>
       </c>
       <c r="W12">
-        <f t="shared" si="6"/>
-        <v>9725</v>
+        <f t="shared" si="8"/>
+        <v>14725</v>
       </c>
     </row>
     <row r="13" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
@@ -3384,39 +3425,39 @@
         <v>89</v>
       </c>
       <c r="I13" s="2">
-        <f>W13</f>
+        <f t="shared" si="0"/>
         <v>9925</v>
       </c>
       <c r="J13" s="2">
-        <f>IF(C13=11,0,IF(C13=10,1440,IF(C13=9,2330,IF(C13=8,2880,IF(C13=7,3220,IF(C13=1,3740,"MUY BAJO"))))))</f>
+        <f t="shared" si="1"/>
         <v>2880</v>
       </c>
       <c r="Q13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>5925</v>
       </c>
       <c r="R13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="S13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1000</v>
       </c>
       <c r="T13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1000</v>
       </c>
       <c r="U13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1000</v>
       </c>
       <c r="V13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1000</v>
       </c>
       <c r="W13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>9925</v>
       </c>
     </row>
@@ -3446,39 +3487,39 @@
         <v>89</v>
       </c>
       <c r="I14" s="2">
-        <f>W14</f>
+        <f t="shared" si="0"/>
         <v>10725</v>
       </c>
       <c r="J14" s="2">
-        <f>IF(C14=11,0,IF(C14=10,1440,IF(C14=9,2330,IF(C14=8,2880,IF(C14=7,3220,IF(C14=1,3740,"MUY BAJO"))))))</f>
+        <f t="shared" si="1"/>
         <v>3220</v>
       </c>
       <c r="Q14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>6725</v>
       </c>
       <c r="R14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="S14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1000</v>
       </c>
       <c r="T14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1000</v>
       </c>
       <c r="U14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1000</v>
       </c>
       <c r="V14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1000</v>
       </c>
       <c r="W14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>10725</v>
       </c>
     </row>
@@ -3508,46 +3549,46 @@
         <v>89</v>
       </c>
       <c r="I15" s="2">
-        <f>W15</f>
+        <f t="shared" si="0"/>
         <v>10725</v>
       </c>
       <c r="J15" s="2">
-        <f>IF(C15=11,0,IF(C15=10,1440,IF(C15=9,2330,IF(C15=8,2880,IF(C15=7,3220,IF(C15=1,3740,"MUY BAJO"))))))</f>
+        <f t="shared" si="1"/>
         <v>3220</v>
       </c>
-      <c r="L15" s="24" t="s">
+      <c r="L15" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="M15" s="24"/>
+      <c r="M15" s="45"/>
       <c r="N15" s="2">
         <v>1000</v>
       </c>
       <c r="Q15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>6725</v>
       </c>
       <c r="R15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="S15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1000</v>
       </c>
       <c r="T15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1000</v>
       </c>
       <c r="U15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1000</v>
       </c>
       <c r="V15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1000</v>
       </c>
       <c r="W15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>10725</v>
       </c>
     </row>
@@ -3577,46 +3618,46 @@
         <v>89</v>
       </c>
       <c r="I16" s="2">
-        <f>W16</f>
+        <f t="shared" si="0"/>
         <v>10725</v>
       </c>
       <c r="J16" s="2">
-        <f>IF(C16=11,0,IF(C16=10,1440,IF(C16=9,2330,IF(C16=8,2880,IF(C16=7,3220,IF(C16=1,3740,"MUY BAJO"))))))</f>
+        <f t="shared" si="1"/>
         <v>3220</v>
       </c>
-      <c r="L16" s="24" t="s">
+      <c r="L16" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="M16" s="24"/>
+      <c r="M16" s="45"/>
       <c r="N16" s="2">
         <v>2000</v>
       </c>
       <c r="Q16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>6725</v>
       </c>
       <c r="R16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="S16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1000</v>
       </c>
       <c r="T16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1000</v>
       </c>
       <c r="U16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1000</v>
       </c>
       <c r="V16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1000</v>
       </c>
       <c r="W16">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>10725</v>
       </c>
     </row>
@@ -3646,46 +3687,46 @@
         <v>89</v>
       </c>
       <c r="I17" s="2">
-        <f>W17</f>
+        <f t="shared" si="0"/>
         <v>10725</v>
       </c>
       <c r="J17" s="2">
-        <f>IF(C17=11,0,IF(C17=10,1440,IF(C17=9,2330,IF(C17=8,2880,IF(C17=7,3220,IF(C17=1,3740,"MUY BAJO"))))))</f>
+        <f t="shared" si="1"/>
         <v>3220</v>
       </c>
-      <c r="L17" s="24" t="s">
+      <c r="L17" s="45" t="s">
         <v>65</v>
       </c>
-      <c r="M17" s="24"/>
+      <c r="M17" s="45"/>
       <c r="N17" s="2">
         <v>1000</v>
       </c>
       <c r="Q17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>6725</v>
       </c>
       <c r="R17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="S17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1000</v>
       </c>
       <c r="T17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1000</v>
       </c>
       <c r="U17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1000</v>
       </c>
       <c r="V17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1000</v>
       </c>
       <c r="W17">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>10725</v>
       </c>
     </row>
@@ -3715,46 +3756,46 @@
         <v>89</v>
       </c>
       <c r="I18" s="2">
-        <f>W18</f>
+        <f t="shared" si="0"/>
         <v>4000</v>
       </c>
       <c r="J18" s="2">
-        <f>IF(C18=11,0,IF(C18=10,1440,IF(C18=9,2330,IF(C18=8,2880,IF(C18=7,3220,IF(C18=1,3740,"MUY BAJO"))))))</f>
-        <v>0</v>
-      </c>
-      <c r="L18" s="24" t="s">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L18" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="M18" s="24"/>
+      <c r="M18" s="45"/>
       <c r="N18" s="2">
         <v>1000</v>
       </c>
       <c r="Q18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="R18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="S18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1000</v>
       </c>
       <c r="T18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1000</v>
       </c>
       <c r="U18">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1000</v>
       </c>
       <c r="V18">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1000</v>
       </c>
       <c r="W18">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>4000</v>
       </c>
     </row>
@@ -3784,39 +3825,39 @@
         <v>89</v>
       </c>
       <c r="I19" s="2">
-        <f>W19</f>
+        <f t="shared" si="0"/>
         <v>10725</v>
       </c>
       <c r="J19" s="2">
-        <f>IF(C19=11,0,IF(C19=10,1440,IF(C19=9,2330,IF(C19=8,2880,IF(C19=7,3220,IF(C19=1,3740,"MUY BAJO"))))))</f>
+        <f t="shared" si="1"/>
         <v>3220</v>
       </c>
       <c r="Q19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>6725</v>
       </c>
       <c r="R19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="S19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1000</v>
       </c>
       <c r="T19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1000</v>
       </c>
       <c r="U19">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1000</v>
       </c>
       <c r="V19">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1000</v>
       </c>
       <c r="W19">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>10725</v>
       </c>
     </row>
@@ -3846,39 +3887,39 @@
         <v>89</v>
       </c>
       <c r="I20" s="2">
-        <f>W20</f>
+        <f t="shared" si="0"/>
         <v>2000</v>
       </c>
       <c r="J20" s="2">
-        <f>IF(C20=11,0,IF(C20=10,1440,IF(C20=9,2330,IF(C20=8,2880,IF(C20=7,3220,IF(C20=1,3740,"MUY BAJO"))))))</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Q20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="R20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="S20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="T20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="U20">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1000</v>
       </c>
       <c r="V20">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1000</v>
       </c>
       <c r="W20">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>2000</v>
       </c>
     </row>
@@ -3908,39 +3949,39 @@
         <v>89</v>
       </c>
       <c r="I21" s="2">
-        <f>W21</f>
+        <f t="shared" si="0"/>
         <v>4000</v>
       </c>
       <c r="J21" s="2">
-        <f>IF(C21=11,0,IF(C21=10,1440,IF(C21=9,2330,IF(C21=8,2880,IF(C21=7,3220,IF(C21=1,3740,"MUY BAJO"))))))</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Q21">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="R21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="S21">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1000</v>
       </c>
       <c r="T21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1000</v>
       </c>
       <c r="U21">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1000</v>
       </c>
       <c r="V21">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1000</v>
       </c>
       <c r="W21">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>4000</v>
       </c>
     </row>
@@ -3970,17 +4011,17 @@
         <v>89</v>
       </c>
       <c r="I22" s="2">
-        <f>W22</f>
+        <f t="shared" si="0"/>
         <v>4000</v>
       </c>
       <c r="J22" s="2">
-        <f>IF(C22=11,0,IF(C22=10,1440,IF(C22=9,2330,IF(C22=8,2880,IF(C22=7,3220,IF(C22=1,3740,"MUY BAJO"))))))</f>
-        <v>0</v>
-      </c>
-      <c r="L22" s="25" t="s">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L22" s="43" t="s">
         <v>52</v>
       </c>
-      <c r="M22" s="26"/>
+      <c r="M22" s="44"/>
       <c r="N22" s="11" t="s">
         <v>53</v>
       </c>
@@ -3988,31 +4029,31 @@
         <v>54</v>
       </c>
       <c r="Q22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="R22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="S22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1000</v>
       </c>
       <c r="T22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1000</v>
       </c>
       <c r="U22">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1000</v>
       </c>
       <c r="V22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1000</v>
       </c>
       <c r="W22">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>4000</v>
       </c>
     </row>
@@ -4042,17 +4083,17 @@
         <v>89</v>
       </c>
       <c r="I23" s="2">
-        <f>W23</f>
+        <f t="shared" si="0"/>
         <v>3000</v>
       </c>
       <c r="J23" s="2">
-        <f>IF(C23=11,0,IF(C23=10,1440,IF(C23=9,2330,IF(C23=8,2880,IF(C23=7,3220,IF(C23=1,3740,"MUY BAJO"))))))</f>
-        <v>0</v>
-      </c>
-      <c r="L23" s="22" t="s">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L23" s="34" t="s">
         <v>170</v>
       </c>
-      <c r="M23" s="23"/>
+      <c r="M23" s="35"/>
       <c r="N23" s="2">
         <v>3220</v>
       </c>
@@ -4060,31 +4101,31 @@
         <v>6725</v>
       </c>
       <c r="Q23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="R23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="S23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1000</v>
       </c>
       <c r="T23">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="U23">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1000</v>
       </c>
       <c r="V23">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1000</v>
       </c>
       <c r="W23">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>3000</v>
       </c>
     </row>
@@ -4114,17 +4155,17 @@
         <v>89</v>
       </c>
       <c r="I24" s="2">
-        <f>W24</f>
+        <f t="shared" si="0"/>
         <v>9000</v>
       </c>
       <c r="J24" s="2">
-        <f>IF(C24=11,0,IF(C24=10,1440,IF(C24=9,2330,IF(C24=8,2880,IF(C24=7,3220,IF(C24=1,3740,"MUY BAJO"))))))</f>
-        <v>0</v>
-      </c>
-      <c r="L24" s="22" t="s">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L24" s="34" t="s">
         <v>171</v>
       </c>
-      <c r="M24" s="23"/>
+      <c r="M24" s="35"/>
       <c r="N24" s="2">
         <v>2880</v>
       </c>
@@ -4132,31 +4173,31 @@
         <v>5925</v>
       </c>
       <c r="Q24">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="R24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>5000</v>
       </c>
       <c r="S24">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1000</v>
       </c>
       <c r="T24">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1000</v>
       </c>
       <c r="U24">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1000</v>
       </c>
       <c r="V24">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1000</v>
       </c>
       <c r="W24">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>9000</v>
       </c>
     </row>
@@ -4164,7 +4205,7 @@
       <c r="A25" s="13">
         <v>24</v>
       </c>
-      <c r="B25" s="46" t="s">
+      <c r="B25" s="21" t="s">
         <v>136</v>
       </c>
       <c r="C25" s="2">
@@ -4186,17 +4227,17 @@
         <v>89</v>
       </c>
       <c r="I25" s="2">
-        <f>W25</f>
+        <f t="shared" si="0"/>
         <v>10725</v>
       </c>
       <c r="J25" s="2">
-        <f>IF(C25=11,0,IF(C25=10,1440,IF(C25=9,2330,IF(C25=8,2880,IF(C25=7,3220,IF(C25=1,3740,"MUY BAJO"))))))</f>
+        <f t="shared" si="1"/>
         <v>3220</v>
       </c>
-      <c r="L25" s="22" t="s">
+      <c r="L25" s="34" t="s">
         <v>172</v>
       </c>
-      <c r="M25" s="23"/>
+      <c r="M25" s="35"/>
       <c r="N25" s="2">
         <v>2330</v>
       </c>
@@ -4204,31 +4245,31 @@
         <v>4675</v>
       </c>
       <c r="Q25">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>6725</v>
       </c>
       <c r="R25">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="S25">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1000</v>
       </c>
       <c r="T25">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1000</v>
       </c>
       <c r="U25">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1000</v>
       </c>
       <c r="V25">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1000</v>
       </c>
       <c r="W25">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>10725</v>
       </c>
     </row>
@@ -4258,17 +4299,17 @@
         <v>89</v>
       </c>
       <c r="I26" s="2">
-        <f>W26</f>
+        <f t="shared" si="0"/>
         <v>3000</v>
       </c>
       <c r="J26" s="2">
-        <f>IF(C26=11,0,IF(C26=10,1440,IF(C26=9,2330,IF(C26=8,2880,IF(C26=7,3220,IF(C26=1,3740,"MUY BAJO"))))))</f>
-        <v>0</v>
-      </c>
-      <c r="L26" s="22" t="s">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L26" s="34" t="s">
         <v>64</v>
       </c>
-      <c r="M26" s="23"/>
+      <c r="M26" s="35"/>
       <c r="N26" s="2">
         <v>1440</v>
       </c>
@@ -4276,31 +4317,31 @@
         <v>2800</v>
       </c>
       <c r="Q26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="R26">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="S26">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1000</v>
       </c>
       <c r="T26">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="U26">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1000</v>
       </c>
       <c r="V26">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1000</v>
       </c>
       <c r="W26">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>3000</v>
       </c>
     </row>
@@ -4330,39 +4371,39 @@
         <v>89</v>
       </c>
       <c r="I27" s="2">
-        <f>W27</f>
+        <f t="shared" si="0"/>
         <v>4000</v>
       </c>
       <c r="J27" s="2">
-        <f>IF(C27=11,0,IF(C27=10,1440,IF(C27=9,2330,IF(C27=8,2880,IF(C27=7,3220,IF(C27=1,3740,"MUY BAJO"))))))</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Q27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="R27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="S27">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1000</v>
       </c>
       <c r="T27">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1000</v>
       </c>
       <c r="U27">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1000</v>
       </c>
       <c r="V27">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1000</v>
       </c>
       <c r="W27">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>4000</v>
       </c>
     </row>
@@ -4392,39 +4433,39 @@
         <v>89</v>
       </c>
       <c r="I28" s="2">
-        <f>W28</f>
+        <f t="shared" si="0"/>
         <v>2000</v>
       </c>
       <c r="J28" s="2">
-        <f>IF(C28=11,0,IF(C28=10,1440,IF(C28=9,2330,IF(C28=8,2880,IF(C28=7,3220,IF(C28=1,3740,"MUY BAJO"))))))</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Q28">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="R28">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="S28">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="T28">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="U28">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1000</v>
       </c>
       <c r="V28">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1000</v>
       </c>
       <c r="W28">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>2000</v>
       </c>
     </row>
@@ -4454,39 +4495,39 @@
         <v>89</v>
       </c>
       <c r="I29" s="2">
-        <f>W29</f>
+        <f t="shared" si="0"/>
         <v>4000</v>
       </c>
       <c r="J29" s="2">
-        <f>IF(C29=11,0,IF(C29=10,1440,IF(C29=9,2330,IF(C29=8,2880,IF(C29=7,3220,IF(C29=1,3740,"MUY BAJO"))))))</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Q29">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="R29">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="S29">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1000</v>
       </c>
       <c r="T29">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1000</v>
       </c>
       <c r="U29">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1000</v>
       </c>
       <c r="V29">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1000</v>
       </c>
       <c r="W29">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>4000</v>
       </c>
     </row>
@@ -4516,39 +4557,39 @@
         <v>89</v>
       </c>
       <c r="I30" s="2">
-        <f>W30</f>
+        <f t="shared" si="0"/>
         <v>9925</v>
       </c>
       <c r="J30" s="2">
-        <f>IF(C30=11,0,IF(C30=10,1440,IF(C30=9,2330,IF(C30=8,2880,IF(C30=7,3220,IF(C30=1,3740,"MUY BAJO"))))))</f>
+        <f t="shared" si="1"/>
         <v>2880</v>
       </c>
       <c r="Q30">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>5925</v>
       </c>
       <c r="R30">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="S30">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1000</v>
       </c>
       <c r="T30">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1000</v>
       </c>
       <c r="U30">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1000</v>
       </c>
       <c r="V30">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1000</v>
       </c>
       <c r="W30">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>9925</v>
       </c>
     </row>
@@ -4578,39 +4619,39 @@
         <v>89</v>
       </c>
       <c r="I31" s="2">
-        <f>W31</f>
+        <f t="shared" si="0"/>
         <v>13675</v>
       </c>
       <c r="J31" s="2">
-        <f>IF(C31=11,0,IF(C31=10,1440,IF(C31=9,2330,IF(C31=8,2880,IF(C31=7,3220,IF(C31=1,3740,"MUY BAJO"))))))</f>
+        <f t="shared" si="1"/>
         <v>2330</v>
       </c>
       <c r="Q31">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>4675</v>
       </c>
       <c r="R31">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>5000</v>
       </c>
       <c r="S31">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1000</v>
       </c>
       <c r="T31">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1000</v>
       </c>
       <c r="U31">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1000</v>
       </c>
       <c r="V31">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1000</v>
       </c>
       <c r="W31">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>13675</v>
       </c>
     </row>
@@ -4640,39 +4681,39 @@
         <v>89</v>
       </c>
       <c r="I32" s="2">
-        <f>W32</f>
+        <f t="shared" si="0"/>
         <v>13675</v>
       </c>
       <c r="J32" s="2">
-        <f>IF(C32=11,0,IF(C32=10,1440,IF(C32=9,2330,IF(C32=8,2880,IF(C32=7,3220,IF(C32=1,3740,"MUY BAJO"))))))</f>
+        <f t="shared" si="1"/>
         <v>2330</v>
       </c>
       <c r="Q32">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>4675</v>
       </c>
       <c r="R32">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>5000</v>
       </c>
       <c r="S32">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1000</v>
       </c>
       <c r="T32">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1000</v>
       </c>
       <c r="U32">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1000</v>
       </c>
       <c r="V32">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1000</v>
       </c>
       <c r="W32">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>13675</v>
       </c>
     </row>
@@ -4702,39 +4743,39 @@
         <v>89</v>
       </c>
       <c r="I33" s="2">
-        <f>W33</f>
+        <f t="shared" si="0"/>
         <v>13675</v>
       </c>
       <c r="J33" s="2">
-        <f>IF(C33=11,0,IF(C33=10,1440,IF(C33=9,2330,IF(C33=8,2880,IF(C33=7,3220,IF(C33=1,3740,"MUY BAJO"))))))</f>
+        <f t="shared" si="1"/>
         <v>2330</v>
       </c>
       <c r="Q33">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>4675</v>
       </c>
       <c r="R33">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>5000</v>
       </c>
       <c r="S33">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1000</v>
       </c>
       <c r="T33">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1000</v>
       </c>
       <c r="U33">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1000</v>
       </c>
       <c r="V33">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1000</v>
       </c>
       <c r="W33">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>13675</v>
       </c>
     </row>
@@ -4764,39 +4805,39 @@
         <v>89</v>
       </c>
       <c r="I34" s="2">
-        <f>W34</f>
+        <f t="shared" ref="I34:I65" si="9">W34</f>
         <v>13675</v>
       </c>
       <c r="J34" s="2">
-        <f>IF(C34=11,0,IF(C34=10,1440,IF(C34=9,2330,IF(C34=8,2880,IF(C34=7,3220,IF(C34=1,3740,"MUY BAJO"))))))</f>
+        <f t="shared" ref="J34:J65" si="10">IF(C34=11,0,IF(C34=10,1440,IF(C34=9,2330,IF(C34=8,2880,IF(C34=7,3220,IF(C34=1,3740,"MUY BAJO"))))))</f>
         <v>2330</v>
       </c>
       <c r="Q34">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>4675</v>
       </c>
       <c r="R34">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>5000</v>
       </c>
       <c r="S34">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1000</v>
       </c>
       <c r="T34">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1000</v>
       </c>
       <c r="U34">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1000</v>
       </c>
       <c r="V34">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1000</v>
       </c>
       <c r="W34">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>13675</v>
       </c>
     </row>
@@ -4826,39 +4867,39 @@
         <v>89</v>
       </c>
       <c r="I35" s="2">
-        <f>W35</f>
+        <f t="shared" si="9"/>
         <v>13675</v>
       </c>
       <c r="J35" s="2">
-        <f>IF(C35=11,0,IF(C35=10,1440,IF(C35=9,2330,IF(C35=8,2880,IF(C35=7,3220,IF(C35=1,3740,"MUY BAJO"))))))</f>
+        <f t="shared" si="10"/>
         <v>2330</v>
       </c>
       <c r="Q35">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>4675</v>
       </c>
       <c r="R35">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>5000</v>
       </c>
       <c r="S35">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1000</v>
       </c>
       <c r="T35">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1000</v>
       </c>
       <c r="U35">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1000</v>
       </c>
       <c r="V35">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1000</v>
       </c>
       <c r="W35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>13675</v>
       </c>
     </row>
@@ -4888,39 +4929,39 @@
         <v>89</v>
       </c>
       <c r="I36" s="2">
-        <f>W36</f>
+        <f t="shared" si="9"/>
         <v>14925</v>
       </c>
       <c r="J36" s="2">
-        <f>IF(C36=11,0,IF(C36=10,1440,IF(C36=9,2330,IF(C36=8,2880,IF(C36=7,3220,IF(C36=1,3740,"MUY BAJO"))))))</f>
+        <f t="shared" si="10"/>
         <v>2880</v>
       </c>
       <c r="Q36">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>5925</v>
       </c>
       <c r="R36">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>5000</v>
       </c>
       <c r="S36">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1000</v>
       </c>
       <c r="T36">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1000</v>
       </c>
       <c r="U36">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1000</v>
       </c>
       <c r="V36">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1000</v>
       </c>
       <c r="W36">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>14925</v>
       </c>
     </row>
@@ -4950,39 +4991,39 @@
         <v>89</v>
       </c>
       <c r="I37" s="2">
-        <f>W37</f>
+        <f t="shared" si="9"/>
         <v>14925</v>
       </c>
       <c r="J37" s="2">
-        <f>IF(C37=11,0,IF(C37=10,1440,IF(C37=9,2330,IF(C37=8,2880,IF(C37=7,3220,IF(C37=1,3740,"MUY BAJO"))))))</f>
+        <f t="shared" si="10"/>
         <v>2880</v>
       </c>
       <c r="Q37">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>5925</v>
       </c>
       <c r="R37">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>5000</v>
       </c>
       <c r="S37">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1000</v>
       </c>
       <c r="T37">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1000</v>
       </c>
       <c r="U37">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1000</v>
       </c>
       <c r="V37">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1000</v>
       </c>
       <c r="W37">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>14925</v>
       </c>
     </row>
@@ -5012,39 +5053,39 @@
         <v>89</v>
       </c>
       <c r="I38" s="2">
-        <f>W38</f>
+        <f t="shared" si="9"/>
         <v>14925</v>
       </c>
       <c r="J38" s="2">
-        <f>IF(C38=11,0,IF(C38=10,1440,IF(C38=9,2330,IF(C38=8,2880,IF(C38=7,3220,IF(C38=1,3740,"MUY BAJO"))))))</f>
+        <f t="shared" si="10"/>
         <v>2880</v>
       </c>
       <c r="Q38">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>5925</v>
       </c>
       <c r="R38">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>5000</v>
       </c>
       <c r="S38">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1000</v>
       </c>
       <c r="T38">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1000</v>
       </c>
       <c r="U38">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1000</v>
       </c>
       <c r="V38">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1000</v>
       </c>
       <c r="W38">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>14925</v>
       </c>
     </row>
@@ -5074,39 +5115,39 @@
         <v>89</v>
       </c>
       <c r="I39" s="2">
-        <f>W39</f>
+        <f t="shared" si="9"/>
         <v>14925</v>
       </c>
       <c r="J39" s="2">
-        <f>IF(C39=11,0,IF(C39=10,1440,IF(C39=9,2330,IF(C39=8,2880,IF(C39=7,3220,IF(C39=1,3740,"MUY BAJO"))))))</f>
+        <f t="shared" si="10"/>
         <v>2880</v>
       </c>
       <c r="Q39">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>5925</v>
       </c>
       <c r="R39">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>5000</v>
       </c>
       <c r="S39">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1000</v>
       </c>
       <c r="T39">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1000</v>
       </c>
       <c r="U39">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1000</v>
       </c>
       <c r="V39">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1000</v>
       </c>
       <c r="W39">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>14925</v>
       </c>
     </row>
@@ -5136,39 +5177,39 @@
         <v>89</v>
       </c>
       <c r="I40" s="2">
-        <f>W40</f>
+        <f t="shared" si="9"/>
         <v>10725</v>
       </c>
       <c r="J40" s="2">
-        <f>IF(C40=11,0,IF(C40=10,1440,IF(C40=9,2330,IF(C40=8,2880,IF(C40=7,3220,IF(C40=1,3740,"MUY BAJO"))))))</f>
+        <f t="shared" si="10"/>
         <v>3220</v>
       </c>
       <c r="Q40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>6725</v>
       </c>
       <c r="R40">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="S40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1000</v>
       </c>
       <c r="T40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1000</v>
       </c>
       <c r="U40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1000</v>
       </c>
       <c r="V40">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1000</v>
       </c>
       <c r="W40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>10725</v>
       </c>
     </row>
@@ -5185,8 +5226,8 @@
       <c r="D41" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="E41" s="2" t="s">
-        <v>89</v>
+      <c r="E41" s="4" t="s">
+        <v>88</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>89</v>
@@ -5198,40 +5239,40 @@
         <v>89</v>
       </c>
       <c r="I41" s="2">
-        <f>W41</f>
-        <v>15725</v>
+        <f t="shared" si="9"/>
+        <v>14725</v>
       </c>
       <c r="J41" s="2">
-        <f>IF(C41=11,0,IF(C41=10,1440,IF(C41=9,2330,IF(C41=8,2880,IF(C41=7,3220,IF(C41=1,3740,"MUY BAJO"))))))</f>
+        <f t="shared" si="10"/>
         <v>3220</v>
       </c>
       <c r="Q41">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>6725</v>
       </c>
       <c r="R41">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>5000</v>
       </c>
       <c r="S41">
-        <f t="shared" si="2"/>
-        <v>1000</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="T41">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1000</v>
       </c>
       <c r="U41">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1000</v>
       </c>
       <c r="V41">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1000</v>
       </c>
       <c r="W41">
-        <f t="shared" si="6"/>
-        <v>15725</v>
+        <f t="shared" si="8"/>
+        <v>14725</v>
       </c>
     </row>
     <row r="42" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
@@ -5260,39 +5301,39 @@
         <v>89</v>
       </c>
       <c r="I42" s="2">
-        <f>W42</f>
+        <f t="shared" si="9"/>
         <v>10725</v>
       </c>
       <c r="J42" s="2">
-        <f>IF(C42=11,0,IF(C42=10,1440,IF(C42=9,2330,IF(C42=8,2880,IF(C42=7,3220,IF(C42=1,3740,"MUY BAJO"))))))</f>
+        <f t="shared" si="10"/>
         <v>3220</v>
       </c>
       <c r="Q42">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>6725</v>
       </c>
       <c r="R42">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="S42">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1000</v>
       </c>
       <c r="T42">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1000</v>
       </c>
       <c r="U42">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1000</v>
       </c>
       <c r="V42">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1000</v>
       </c>
       <c r="W42">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>10725</v>
       </c>
     </row>
@@ -5322,39 +5363,39 @@
         <v>89</v>
       </c>
       <c r="I43" s="2">
-        <f>W43</f>
+        <f t="shared" si="9"/>
         <v>10725</v>
       </c>
       <c r="J43" s="2">
-        <f>IF(C43=11,0,IF(C43=10,1440,IF(C43=9,2330,IF(C43=8,2880,IF(C43=7,3220,IF(C43=1,3740,"MUY BAJO"))))))</f>
+        <f t="shared" si="10"/>
         <v>3220</v>
       </c>
       <c r="Q43">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>6725</v>
       </c>
       <c r="R43">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="S43">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1000</v>
       </c>
       <c r="T43">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1000</v>
       </c>
       <c r="U43">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1000</v>
       </c>
       <c r="V43">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1000</v>
       </c>
       <c r="W43">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>10725</v>
       </c>
     </row>
@@ -5384,39 +5425,39 @@
         <v>89</v>
       </c>
       <c r="I44" s="2">
-        <f>W44</f>
+        <f t="shared" si="9"/>
         <v>10725</v>
       </c>
       <c r="J44" s="2">
-        <f>IF(C44=11,0,IF(C44=10,1440,IF(C44=9,2330,IF(C44=8,2880,IF(C44=7,3220,IF(C44=1,3740,"MUY BAJO"))))))</f>
+        <f t="shared" si="10"/>
         <v>3220</v>
       </c>
       <c r="Q44">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>6725</v>
       </c>
       <c r="R44">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="S44">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1000</v>
       </c>
       <c r="T44">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1000</v>
       </c>
       <c r="U44">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1000</v>
       </c>
       <c r="V44">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1000</v>
       </c>
       <c r="W44">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>10725</v>
       </c>
     </row>
@@ -5446,39 +5487,39 @@
         <v>89</v>
       </c>
       <c r="I45" s="2">
-        <f>W45</f>
+        <f t="shared" si="9"/>
         <v>10725</v>
       </c>
       <c r="J45" s="2">
-        <f>IF(C45=11,0,IF(C45=10,1440,IF(C45=9,2330,IF(C45=8,2880,IF(C45=7,3220,IF(C45=1,3740,"MUY BAJO"))))))</f>
+        <f t="shared" si="10"/>
         <v>3220</v>
       </c>
       <c r="Q45">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>6725</v>
       </c>
       <c r="R45">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="S45">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1000</v>
       </c>
       <c r="T45">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1000</v>
       </c>
       <c r="U45">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1000</v>
       </c>
       <c r="V45">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1000</v>
       </c>
       <c r="W45">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>10725</v>
       </c>
     </row>
@@ -5508,39 +5549,39 @@
         <v>89</v>
       </c>
       <c r="I46" s="2">
-        <f>W46</f>
+        <f t="shared" si="9"/>
         <v>15725</v>
       </c>
       <c r="J46" s="2">
-        <f>IF(C46=11,0,IF(C46=10,1440,IF(C46=9,2330,IF(C46=8,2880,IF(C46=7,3220,IF(C46=1,3740,"MUY BAJO"))))))</f>
+        <f t="shared" si="10"/>
         <v>3220</v>
       </c>
       <c r="Q46">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>6725</v>
       </c>
       <c r="R46">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>5000</v>
       </c>
       <c r="S46">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1000</v>
       </c>
       <c r="T46">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1000</v>
       </c>
       <c r="U46">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1000</v>
       </c>
       <c r="V46">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1000</v>
       </c>
       <c r="W46">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>15725</v>
       </c>
     </row>
@@ -5570,39 +5611,39 @@
         <v>89</v>
       </c>
       <c r="I47" s="2">
-        <f>W47</f>
+        <f t="shared" si="9"/>
         <v>15725</v>
       </c>
       <c r="J47" s="2">
-        <f>IF(C47=11,0,IF(C47=10,1440,IF(C47=9,2330,IF(C47=8,2880,IF(C47=7,3220,IF(C47=1,3740,"MUY BAJO"))))))</f>
+        <f t="shared" si="10"/>
         <v>3220</v>
       </c>
       <c r="Q47">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>6725</v>
       </c>
       <c r="R47">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>5000</v>
       </c>
       <c r="S47">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1000</v>
       </c>
       <c r="T47">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1000</v>
       </c>
       <c r="U47">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1000</v>
       </c>
       <c r="V47">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1000</v>
       </c>
       <c r="W47">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>15725</v>
       </c>
     </row>
@@ -5632,39 +5673,39 @@
         <v>89</v>
       </c>
       <c r="I48" s="2">
-        <f>W48</f>
+        <f t="shared" si="9"/>
         <v>15725</v>
       </c>
       <c r="J48" s="2">
-        <f>IF(C48=11,0,IF(C48=10,1440,IF(C48=9,2330,IF(C48=8,2880,IF(C48=7,3220,IF(C48=1,3740,"MUY BAJO"))))))</f>
+        <f t="shared" si="10"/>
         <v>3220</v>
       </c>
       <c r="Q48">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>6725</v>
       </c>
       <c r="R48">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>5000</v>
       </c>
       <c r="S48">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1000</v>
       </c>
       <c r="T48">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1000</v>
       </c>
       <c r="U48">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1000</v>
       </c>
       <c r="V48">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1000</v>
       </c>
       <c r="W48">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>15725</v>
       </c>
     </row>
@@ -5694,39 +5735,39 @@
         <v>89</v>
       </c>
       <c r="I49" s="2">
-        <f>W49</f>
+        <f t="shared" si="9"/>
         <v>15725</v>
       </c>
       <c r="J49" s="2">
-        <f>IF(C49=11,0,IF(C49=10,1440,IF(C49=9,2330,IF(C49=8,2880,IF(C49=7,3220,IF(C49=1,3740,"MUY BAJO"))))))</f>
+        <f t="shared" si="10"/>
         <v>3220</v>
       </c>
       <c r="Q49">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>6725</v>
       </c>
       <c r="R49">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>5000</v>
       </c>
       <c r="S49">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1000</v>
       </c>
       <c r="T49">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1000</v>
       </c>
       <c r="U49">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1000</v>
       </c>
       <c r="V49">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1000</v>
       </c>
       <c r="W49">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>15725</v>
       </c>
     </row>
@@ -5756,39 +5797,39 @@
         <v>89</v>
       </c>
       <c r="I50" s="2">
-        <f>W50</f>
+        <f t="shared" si="9"/>
         <v>15725</v>
       </c>
       <c r="J50" s="2">
-        <f>IF(C50=11,0,IF(C50=10,1440,IF(C50=9,2330,IF(C50=8,2880,IF(C50=7,3220,IF(C50=1,3740,"MUY BAJO"))))))</f>
+        <f t="shared" si="10"/>
         <v>3220</v>
       </c>
       <c r="Q50">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>6725</v>
       </c>
       <c r="R50">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>5000</v>
       </c>
       <c r="S50">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1000</v>
       </c>
       <c r="T50">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1000</v>
       </c>
       <c r="U50">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1000</v>
       </c>
       <c r="V50">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1000</v>
       </c>
       <c r="W50">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>15725</v>
       </c>
     </row>
@@ -5818,39 +5859,39 @@
         <v>89</v>
       </c>
       <c r="I51" s="2">
-        <f>W51</f>
+        <f t="shared" si="9"/>
         <v>15725</v>
       </c>
       <c r="J51" s="2">
-        <f>IF(C51=11,0,IF(C51=10,1440,IF(C51=9,2330,IF(C51=8,2880,IF(C51=7,3220,IF(C51=1,3740,"MUY BAJO"))))))</f>
+        <f t="shared" si="10"/>
         <v>3220</v>
       </c>
       <c r="Q51">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>6725</v>
       </c>
       <c r="R51">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>5000</v>
       </c>
       <c r="S51">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1000</v>
       </c>
       <c r="T51">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1000</v>
       </c>
       <c r="U51">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1000</v>
       </c>
       <c r="V51">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1000</v>
       </c>
       <c r="W51">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>15725</v>
       </c>
     </row>
@@ -5880,39 +5921,39 @@
         <v>89</v>
       </c>
       <c r="I52" s="2">
-        <f>W52</f>
+        <f t="shared" si="9"/>
         <v>15725</v>
       </c>
       <c r="J52" s="2">
-        <f>IF(C52=11,0,IF(C52=10,1440,IF(C52=9,2330,IF(C52=8,2880,IF(C52=7,3220,IF(C52=1,3740,"MUY BAJO"))))))</f>
+        <f t="shared" si="10"/>
         <v>3220</v>
       </c>
       <c r="Q52">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>6725</v>
       </c>
       <c r="R52">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>5000</v>
       </c>
       <c r="S52">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1000</v>
       </c>
       <c r="T52">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1000</v>
       </c>
       <c r="U52">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1000</v>
       </c>
       <c r="V52">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1000</v>
       </c>
       <c r="W52">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>15725</v>
       </c>
     </row>
@@ -5942,39 +5983,39 @@
         <v>89</v>
       </c>
       <c r="I53" s="2">
-        <f>W53</f>
+        <f t="shared" si="9"/>
         <v>15725</v>
       </c>
       <c r="J53" s="2">
-        <f>IF(C53=11,0,IF(C53=10,1440,IF(C53=9,2330,IF(C53=8,2880,IF(C53=7,3220,IF(C53=1,3740,"MUY BAJO"))))))</f>
+        <f t="shared" si="10"/>
         <v>3220</v>
       </c>
       <c r="Q53">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>6725</v>
       </c>
       <c r="R53">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>5000</v>
       </c>
       <c r="S53">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1000</v>
       </c>
       <c r="T53">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1000</v>
       </c>
       <c r="U53">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1000</v>
       </c>
       <c r="V53">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1000</v>
       </c>
       <c r="W53">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>15725</v>
       </c>
     </row>
@@ -6004,39 +6045,39 @@
         <v>89</v>
       </c>
       <c r="I54" s="2">
-        <f>W54</f>
+        <f t="shared" si="9"/>
         <v>15725</v>
       </c>
       <c r="J54" s="2">
-        <f>IF(C54=11,0,IF(C54=10,1440,IF(C54=9,2330,IF(C54=8,2880,IF(C54=7,3220,IF(C54=1,3740,"MUY BAJO"))))))</f>
+        <f t="shared" si="10"/>
         <v>3220</v>
       </c>
       <c r="Q54">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>6725</v>
       </c>
       <c r="R54">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>5000</v>
       </c>
       <c r="S54">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1000</v>
       </c>
       <c r="T54">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1000</v>
       </c>
       <c r="U54">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1000</v>
       </c>
       <c r="V54">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1000</v>
       </c>
       <c r="W54">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>15725</v>
       </c>
     </row>
@@ -6066,39 +6107,39 @@
         <v>89</v>
       </c>
       <c r="I55" s="2">
-        <f>W55</f>
+        <f t="shared" si="9"/>
         <v>15725</v>
       </c>
       <c r="J55" s="2">
-        <f>IF(C55=11,0,IF(C55=10,1440,IF(C55=9,2330,IF(C55=8,2880,IF(C55=7,3220,IF(C55=1,3740,"MUY BAJO"))))))</f>
+        <f t="shared" si="10"/>
         <v>3220</v>
       </c>
       <c r="Q55">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>6725</v>
       </c>
       <c r="R55">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>5000</v>
       </c>
       <c r="S55">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1000</v>
       </c>
       <c r="T55">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1000</v>
       </c>
       <c r="U55">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1000</v>
       </c>
       <c r="V55">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1000</v>
       </c>
       <c r="W55">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>15725</v>
       </c>
     </row>
@@ -6128,39 +6169,39 @@
         <v>89</v>
       </c>
       <c r="I56" s="2">
-        <f>W56</f>
+        <f t="shared" si="9"/>
         <v>15725</v>
       </c>
       <c r="J56" s="2">
-        <f>IF(C56=11,0,IF(C56=10,1440,IF(C56=9,2330,IF(C56=8,2880,IF(C56=7,3220,IF(C56=1,3740,"MUY BAJO"))))))</f>
+        <f t="shared" si="10"/>
         <v>3220</v>
       </c>
       <c r="Q56">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>6725</v>
       </c>
       <c r="R56">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>5000</v>
       </c>
       <c r="S56">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1000</v>
       </c>
       <c r="T56">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1000</v>
       </c>
       <c r="U56">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1000</v>
       </c>
       <c r="V56">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1000</v>
       </c>
       <c r="W56">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>15725</v>
       </c>
     </row>
@@ -6190,39 +6231,39 @@
         <v>89</v>
       </c>
       <c r="I57" s="2">
-        <f>W57</f>
+        <f t="shared" si="9"/>
         <v>15725</v>
       </c>
       <c r="J57" s="2">
-        <f>IF(C57=11,0,IF(C57=10,1440,IF(C57=9,2330,IF(C57=8,2880,IF(C57=7,3220,IF(C57=1,3740,"MUY BAJO"))))))</f>
+        <f t="shared" si="10"/>
         <v>3220</v>
       </c>
       <c r="Q57">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>6725</v>
       </c>
       <c r="R57">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>5000</v>
       </c>
       <c r="S57">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1000</v>
       </c>
       <c r="T57">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1000</v>
       </c>
       <c r="U57">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1000</v>
       </c>
       <c r="V57">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1000</v>
       </c>
       <c r="W57">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>15725</v>
       </c>
     </row>
@@ -6252,39 +6293,39 @@
         <v>89</v>
       </c>
       <c r="I58" s="2">
-        <f>W58</f>
+        <f t="shared" si="9"/>
         <v>15725</v>
       </c>
       <c r="J58" s="2">
-        <f>IF(C58=11,0,IF(C58=10,1440,IF(C58=9,2330,IF(C58=8,2880,IF(C58=7,3220,IF(C58=1,3740,"MUY BAJO"))))))</f>
+        <f t="shared" si="10"/>
         <v>3220</v>
       </c>
       <c r="Q58">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>6725</v>
       </c>
       <c r="R58">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>5000</v>
       </c>
       <c r="S58">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1000</v>
       </c>
       <c r="T58">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1000</v>
       </c>
       <c r="U58">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1000</v>
       </c>
       <c r="V58">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1000</v>
       </c>
       <c r="W58">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>15725</v>
       </c>
     </row>
@@ -6314,39 +6355,39 @@
         <v>89</v>
       </c>
       <c r="I59" s="2">
-        <f>W59</f>
+        <f t="shared" si="9"/>
         <v>15725</v>
       </c>
       <c r="J59" s="2">
-        <f>IF(C59=11,0,IF(C59=10,1440,IF(C59=9,2330,IF(C59=8,2880,IF(C59=7,3220,IF(C59=1,3740,"MUY BAJO"))))))</f>
+        <f t="shared" si="10"/>
         <v>3220</v>
       </c>
       <c r="Q59">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>6725</v>
       </c>
       <c r="R59">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>5000</v>
       </c>
       <c r="S59">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1000</v>
       </c>
       <c r="T59">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1000</v>
       </c>
       <c r="U59">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1000</v>
       </c>
       <c r="V59">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1000</v>
       </c>
       <c r="W59">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>15725</v>
       </c>
     </row>
@@ -6376,39 +6417,39 @@
         <v>89</v>
       </c>
       <c r="I60" s="2">
-        <f>W60</f>
+        <f t="shared" si="9"/>
         <v>15725</v>
       </c>
       <c r="J60" s="2">
-        <f>IF(C60=11,0,IF(C60=10,1440,IF(C60=9,2330,IF(C60=8,2880,IF(C60=7,3220,IF(C60=1,3740,"MUY BAJO"))))))</f>
+        <f t="shared" si="10"/>
         <v>3220</v>
       </c>
       <c r="Q60">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>6725</v>
       </c>
       <c r="R60">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>5000</v>
       </c>
       <c r="S60">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1000</v>
       </c>
       <c r="T60">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1000</v>
       </c>
       <c r="U60">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1000</v>
       </c>
       <c r="V60">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1000</v>
       </c>
       <c r="W60">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>15725</v>
       </c>
     </row>
@@ -6438,39 +6479,39 @@
         <v>89</v>
       </c>
       <c r="I61" s="2">
-        <f>W61</f>
+        <f t="shared" si="9"/>
         <v>15725</v>
       </c>
       <c r="J61" s="2">
-        <f>IF(C61=11,0,IF(C61=10,1440,IF(C61=9,2330,IF(C61=8,2880,IF(C61=7,3220,IF(C61=1,3740,"MUY BAJO"))))))</f>
+        <f t="shared" si="10"/>
         <v>3220</v>
       </c>
       <c r="Q61">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>6725</v>
       </c>
       <c r="R61">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>5000</v>
       </c>
       <c r="S61">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1000</v>
       </c>
       <c r="T61">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1000</v>
       </c>
       <c r="U61">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1000</v>
       </c>
       <c r="V61">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1000</v>
       </c>
       <c r="W61">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>15725</v>
       </c>
     </row>
@@ -6500,39 +6541,39 @@
         <v>89</v>
       </c>
       <c r="I62" s="2">
-        <f>W62</f>
+        <f t="shared" si="9"/>
         <v>15725</v>
       </c>
       <c r="J62" s="2">
-        <f>IF(C62=11,0,IF(C62=10,1440,IF(C62=9,2330,IF(C62=8,2880,IF(C62=7,3220,IF(C62=1,3740,"MUY BAJO"))))))</f>
+        <f t="shared" si="10"/>
         <v>3220</v>
       </c>
       <c r="Q62">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>6725</v>
       </c>
       <c r="R62">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>5000</v>
       </c>
       <c r="S62">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1000</v>
       </c>
       <c r="T62">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1000</v>
       </c>
       <c r="U62">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1000</v>
       </c>
       <c r="V62">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1000</v>
       </c>
       <c r="W62">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>15725</v>
       </c>
     </row>
@@ -6562,39 +6603,39 @@
         <v>89</v>
       </c>
       <c r="I63" s="2">
-        <f>W63</f>
+        <f t="shared" si="9"/>
         <v>15725</v>
       </c>
       <c r="J63" s="2">
-        <f>IF(C63=11,0,IF(C63=10,1440,IF(C63=9,2330,IF(C63=8,2880,IF(C63=7,3220,IF(C63=1,3740,"MUY BAJO"))))))</f>
+        <f t="shared" si="10"/>
         <v>3220</v>
       </c>
       <c r="Q63">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>6725</v>
       </c>
       <c r="R63">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>5000</v>
       </c>
       <c r="S63">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1000</v>
       </c>
       <c r="T63">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1000</v>
       </c>
       <c r="U63">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1000</v>
       </c>
       <c r="V63">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1000</v>
       </c>
       <c r="W63">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>15725</v>
       </c>
     </row>
@@ -6624,39 +6665,39 @@
         <v>89</v>
       </c>
       <c r="I64" s="2">
-        <f>W64</f>
+        <f t="shared" si="9"/>
         <v>15725</v>
       </c>
       <c r="J64" s="2">
-        <f>IF(C64=11,0,IF(C64=10,1440,IF(C64=9,2330,IF(C64=8,2880,IF(C64=7,3220,IF(C64=1,3740,"MUY BAJO"))))))</f>
+        <f t="shared" si="10"/>
         <v>3220</v>
       </c>
       <c r="Q64">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>6725</v>
       </c>
       <c r="R64">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>5000</v>
       </c>
       <c r="S64">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1000</v>
       </c>
       <c r="T64">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1000</v>
       </c>
       <c r="U64">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1000</v>
       </c>
       <c r="V64">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1000</v>
       </c>
       <c r="W64">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>15725</v>
       </c>
     </row>
@@ -6686,39 +6727,39 @@
         <v>89</v>
       </c>
       <c r="I65" s="2">
-        <f>W65</f>
+        <f t="shared" si="9"/>
         <v>15725</v>
       </c>
       <c r="J65" s="2">
-        <f>IF(C65=11,0,IF(C65=10,1440,IF(C65=9,2330,IF(C65=8,2880,IF(C65=7,3220,IF(C65=1,3740,"MUY BAJO"))))))</f>
+        <f t="shared" si="10"/>
         <v>3220</v>
       </c>
       <c r="Q65">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>6725</v>
       </c>
       <c r="R65">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>5000</v>
       </c>
       <c r="S65">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1000</v>
       </c>
       <c r="T65">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1000</v>
       </c>
       <c r="U65">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1000</v>
       </c>
       <c r="V65">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1000</v>
       </c>
       <c r="W65">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>15725</v>
       </c>
     </row>
@@ -6748,39 +6789,39 @@
         <v>89</v>
       </c>
       <c r="I66" s="2">
-        <f>W66</f>
+        <f t="shared" ref="I66:I73" si="11">W66</f>
         <v>15725</v>
       </c>
       <c r="J66" s="2">
-        <f>IF(C66=11,0,IF(C66=10,1440,IF(C66=9,2330,IF(C66=8,2880,IF(C66=7,3220,IF(C66=1,3740,"MUY BAJO"))))))</f>
+        <f t="shared" ref="J66:J73" si="12">IF(C66=11,0,IF(C66=10,1440,IF(C66=9,2330,IF(C66=8,2880,IF(C66=7,3220,IF(C66=1,3740,"MUY BAJO"))))))</f>
         <v>3220</v>
       </c>
       <c r="Q66">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>6725</v>
       </c>
       <c r="R66">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>5000</v>
       </c>
       <c r="S66">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1000</v>
       </c>
       <c r="T66">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1000</v>
       </c>
       <c r="U66">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1000</v>
       </c>
       <c r="V66">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1000</v>
       </c>
       <c r="W66">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>15725</v>
       </c>
     </row>
@@ -6810,39 +6851,39 @@
         <v>89</v>
       </c>
       <c r="I67" s="2">
-        <f>W67</f>
+        <f t="shared" si="11"/>
         <v>15725</v>
       </c>
       <c r="J67" s="2">
-        <f>IF(C67=11,0,IF(C67=10,1440,IF(C67=9,2330,IF(C67=8,2880,IF(C67=7,3220,IF(C67=1,3740,"MUY BAJO"))))))</f>
+        <f t="shared" si="12"/>
         <v>3220</v>
       </c>
       <c r="Q67">
-        <f t="shared" ref="Q67:Q73" si="7">IF(C67=11,0,IF(C67=10,2800,IF(C67=9,4675,IF(C67=8,5925,IF(C67=7,6725,IF(C67=1,7765,"MUY BAJO"))))))</f>
+        <f t="shared" ref="Q67:Q73" si="13">IF(C67=11,0,IF(C67=10,2800,IF(C67=9,4675,IF(C67=8,5925,IF(C67=7,6725,IF(C67=1,7765,"MUY BAJO"))))))</f>
         <v>6725</v>
       </c>
       <c r="R67">
-        <f t="shared" ref="R67:R73" si="8">IF(D67="No Tiene", 0, IF(D67="Si", 0, 5000))</f>
+        <f t="shared" ref="R67:R73" si="14">IF(D67="No Tiene", 0, IF(D67="Si", 0, 5000))</f>
         <v>5000</v>
       </c>
       <c r="S67">
-        <f t="shared" ref="S67:S73" si="9">IF(E67="Si", 0, 1000)</f>
+        <f t="shared" ref="S67:S73" si="15">IF(E67="Si", 0, 1000)</f>
         <v>1000</v>
       </c>
       <c r="T67">
-        <f t="shared" ref="T67:T73" si="10">IF(F67="Si", 0, 1000)</f>
+        <f t="shared" ref="T67:T73" si="16">IF(F67="Si", 0, 1000)</f>
         <v>1000</v>
       </c>
       <c r="U67">
-        <f t="shared" ref="U67:U73" si="11">IF(G67="Si", 0, 1000)</f>
+        <f t="shared" ref="U67:U73" si="17">IF(G67="Si", 0, 1000)</f>
         <v>1000</v>
       </c>
       <c r="V67">
-        <f t="shared" ref="V67:V73" si="12">IF(H67="Si", 0, 1000)</f>
+        <f t="shared" ref="V67:V73" si="18">IF(H67="Si", 0, 1000)</f>
         <v>1000</v>
       </c>
       <c r="W67">
-        <f t="shared" ref="W67:W73" si="13">SUM(Q67:V67)</f>
+        <f t="shared" ref="W67:W73" si="19">SUM(Q67:V67)</f>
         <v>15725</v>
       </c>
     </row>
@@ -6872,39 +6913,39 @@
         <v>89</v>
       </c>
       <c r="I68" s="2">
-        <f>W68</f>
+        <f t="shared" si="11"/>
         <v>15725</v>
       </c>
       <c r="J68" s="2">
-        <f>IF(C68=11,0,IF(C68=10,1440,IF(C68=9,2330,IF(C68=8,2880,IF(C68=7,3220,IF(C68=1,3740,"MUY BAJO"))))))</f>
+        <f t="shared" si="12"/>
         <v>3220</v>
       </c>
       <c r="Q68">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>6725</v>
       </c>
       <c r="R68">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>5000</v>
       </c>
       <c r="S68">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>1000</v>
       </c>
       <c r="T68">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>1000</v>
       </c>
       <c r="U68">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>1000</v>
       </c>
       <c r="V68">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>1000</v>
       </c>
       <c r="W68">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>15725</v>
       </c>
     </row>
@@ -6934,39 +6975,39 @@
         <v>89</v>
       </c>
       <c r="I69" s="2">
-        <f>W69</f>
+        <f t="shared" si="11"/>
         <v>15725</v>
       </c>
       <c r="J69" s="2">
-        <f>IF(C69=11,0,IF(C69=10,1440,IF(C69=9,2330,IF(C69=8,2880,IF(C69=7,3220,IF(C69=1,3740,"MUY BAJO"))))))</f>
+        <f t="shared" si="12"/>
         <v>3220</v>
       </c>
       <c r="Q69">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>6725</v>
       </c>
       <c r="R69">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>5000</v>
       </c>
       <c r="S69">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>1000</v>
       </c>
       <c r="T69">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>1000</v>
       </c>
       <c r="U69">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>1000</v>
       </c>
       <c r="V69">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>1000</v>
       </c>
       <c r="W69">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>15725</v>
       </c>
     </row>
@@ -6996,39 +7037,39 @@
         <v>89</v>
       </c>
       <c r="I70" s="2">
-        <f>W70</f>
+        <f t="shared" si="11"/>
         <v>15725</v>
       </c>
       <c r="J70" s="2">
-        <f>IF(C70=11,0,IF(C70=10,1440,IF(C70=9,2330,IF(C70=8,2880,IF(C70=7,3220,IF(C70=1,3740,"MUY BAJO"))))))</f>
+        <f t="shared" si="12"/>
         <v>3220</v>
       </c>
       <c r="Q70">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>6725</v>
       </c>
       <c r="R70">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>5000</v>
       </c>
       <c r="S70">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>1000</v>
       </c>
       <c r="T70">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>1000</v>
       </c>
       <c r="U70">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>1000</v>
       </c>
       <c r="V70">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>1000</v>
       </c>
       <c r="W70">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>15725</v>
       </c>
     </row>
@@ -7058,39 +7099,39 @@
         <v>89</v>
       </c>
       <c r="I71" s="2">
-        <f>W71</f>
+        <f t="shared" si="11"/>
         <v>15725</v>
       </c>
       <c r="J71" s="2">
-        <f>IF(C71=11,0,IF(C71=10,1440,IF(C71=9,2330,IF(C71=8,2880,IF(C71=7,3220,IF(C71=1,3740,"MUY BAJO"))))))</f>
+        <f t="shared" si="12"/>
         <v>3220</v>
       </c>
       <c r="Q71">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>6725</v>
       </c>
       <c r="R71">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>5000</v>
       </c>
       <c r="S71">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>1000</v>
       </c>
       <c r="T71">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>1000</v>
       </c>
       <c r="U71">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>1000</v>
       </c>
       <c r="V71">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>1000</v>
       </c>
       <c r="W71">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>15725</v>
       </c>
     </row>
@@ -7120,39 +7161,39 @@
         <v>89</v>
       </c>
       <c r="I72" s="2">
-        <f>W72</f>
+        <f t="shared" si="11"/>
         <v>15725</v>
       </c>
       <c r="J72" s="2">
-        <f>IF(C72=11,0,IF(C72=10,1440,IF(C72=9,2330,IF(C72=8,2880,IF(C72=7,3220,IF(C72=1,3740,"MUY BAJO"))))))</f>
+        <f t="shared" si="12"/>
         <v>3220</v>
       </c>
       <c r="Q72">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>6725</v>
       </c>
       <c r="R72">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>5000</v>
       </c>
       <c r="S72">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>1000</v>
       </c>
       <c r="T72">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>1000</v>
       </c>
       <c r="U72">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>1000</v>
       </c>
       <c r="V72">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>1000</v>
       </c>
       <c r="W72">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>15725</v>
       </c>
     </row>
@@ -7182,39 +7223,39 @@
         <v>89</v>
       </c>
       <c r="I73" s="2">
-        <f>W73</f>
+        <f t="shared" si="11"/>
         <v>15725</v>
       </c>
       <c r="J73" s="2">
-        <f>IF(C73=11,0,IF(C73=10,1440,IF(C73=9,2330,IF(C73=8,2880,IF(C73=7,3220,IF(C73=1,3740,"MUY BAJO"))))))</f>
+        <f t="shared" si="12"/>
         <v>3220</v>
       </c>
       <c r="Q73">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>6725</v>
       </c>
       <c r="R73">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>5000</v>
       </c>
       <c r="S73">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>1000</v>
       </c>
       <c r="T73">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>1000</v>
       </c>
       <c r="U73">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>1000</v>
       </c>
       <c r="V73">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>1000</v>
       </c>
       <c r="W73">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>15725</v>
       </c>
     </row>
@@ -7226,11 +7267,11 @@
       <c r="F74" s="10"/>
       <c r="G74" s="10"/>
       <c r="H74" s="10"/>
-      <c r="I74" s="21">
+      <c r="I74" s="20">
         <f>SUM(I2:I73)</f>
-        <v>807850</v>
-      </c>
-      <c r="J74" s="21">
+        <v>811850</v>
+      </c>
+      <c r="J74" s="20">
         <f>SUM(J2:J73)</f>
         <v>167940</v>
       </c>
@@ -7322,31 +7363,31 @@
       <c r="J94" s="10"/>
     </row>
     <row r="96" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="L96" s="32" t="s">
+      <c r="L96" s="37" t="s">
         <v>90</v>
       </c>
-      <c r="M96" s="33"/>
-      <c r="N96" s="33"/>
-      <c r="O96" s="33"/>
-      <c r="P96" s="34"/>
-      <c r="Q96" s="41" t="s">
+      <c r="M96" s="38"/>
+      <c r="N96" s="38"/>
+      <c r="O96" s="38"/>
+      <c r="P96" s="39"/>
+      <c r="Q96" s="22" t="s">
         <v>94</v>
       </c>
-      <c r="R96" s="43" t="s">
+      <c r="R96" s="24" t="s">
         <v>95</v>
       </c>
-      <c r="S96" s="44"/>
-      <c r="T96" s="44"/>
-      <c r="U96" s="44"/>
-      <c r="V96" s="45"/>
+      <c r="S96" s="25"/>
+      <c r="T96" s="25"/>
+      <c r="U96" s="25"/>
+      <c r="V96" s="26"/>
     </row>
     <row r="97" spans="12:22" x14ac:dyDescent="0.25">
-      <c r="L97" s="35"/>
-      <c r="M97" s="36"/>
-      <c r="N97" s="36"/>
-      <c r="O97" s="36"/>
-      <c r="P97" s="37"/>
-      <c r="Q97" s="42"/>
+      <c r="L97" s="40"/>
+      <c r="M97" s="41"/>
+      <c r="N97" s="41"/>
+      <c r="O97" s="41"/>
+      <c r="P97" s="42"/>
+      <c r="Q97" s="23"/>
       <c r="R97" s="1" t="s">
         <v>96</v>
       </c>
@@ -7364,13 +7405,13 @@
       </c>
     </row>
     <row r="98" spans="12:22" x14ac:dyDescent="0.25">
-      <c r="L98" s="29" t="s">
+      <c r="L98" s="27" t="s">
         <v>91</v>
       </c>
-      <c r="M98" s="30"/>
-      <c r="N98" s="30"/>
-      <c r="O98" s="30"/>
-      <c r="P98" s="31"/>
+      <c r="M98" s="28"/>
+      <c r="N98" s="28"/>
+      <c r="O98" s="28"/>
+      <c r="P98" s="29"/>
       <c r="Q98" s="2"/>
       <c r="R98" s="2"/>
       <c r="S98" s="2"/>
@@ -7379,13 +7420,13 @@
       <c r="V98" s="2"/>
     </row>
     <row r="99" spans="12:22" x14ac:dyDescent="0.25">
-      <c r="L99" s="29" t="s">
+      <c r="L99" s="27" t="s">
         <v>92</v>
       </c>
-      <c r="M99" s="30"/>
-      <c r="N99" s="30"/>
-      <c r="O99" s="30"/>
-      <c r="P99" s="31"/>
+      <c r="M99" s="28"/>
+      <c r="N99" s="28"/>
+      <c r="O99" s="28"/>
+      <c r="P99" s="29"/>
       <c r="Q99" s="2"/>
       <c r="R99" s="2"/>
       <c r="S99" s="2"/>
@@ -7394,13 +7435,13 @@
       <c r="V99" s="2"/>
     </row>
     <row r="100" spans="12:22" x14ac:dyDescent="0.25">
-      <c r="L100" s="29" t="s">
+      <c r="L100" s="27" t="s">
         <v>93</v>
       </c>
-      <c r="M100" s="30"/>
-      <c r="N100" s="30"/>
-      <c r="O100" s="30"/>
-      <c r="P100" s="31"/>
+      <c r="M100" s="28"/>
+      <c r="N100" s="28"/>
+      <c r="O100" s="28"/>
+      <c r="P100" s="29"/>
       <c r="Q100" s="2"/>
       <c r="R100" s="2"/>
       <c r="S100" s="2"/>
@@ -7409,11 +7450,11 @@
       <c r="V100" s="2"/>
     </row>
     <row r="101" spans="12:22" x14ac:dyDescent="0.25">
-      <c r="L101" s="29"/>
-      <c r="M101" s="30"/>
-      <c r="N101" s="30"/>
-      <c r="O101" s="30"/>
-      <c r="P101" s="31"/>
+      <c r="L101" s="27"/>
+      <c r="M101" s="28"/>
+      <c r="N101" s="28"/>
+      <c r="O101" s="28"/>
+      <c r="P101" s="29"/>
       <c r="Q101" s="2"/>
       <c r="R101" s="2"/>
       <c r="S101" s="2"/>
@@ -7422,54 +7463,54 @@
       <c r="V101" s="2"/>
     </row>
     <row r="104" spans="12:22" x14ac:dyDescent="0.25">
-      <c r="O104" s="38" t="s">
+      <c r="O104" s="31" t="s">
         <v>106</v>
       </c>
-      <c r="P104" s="38"/>
-      <c r="Q104" s="38"/>
+      <c r="P104" s="31"/>
+      <c r="Q104" s="31"/>
       <c r="R104" s="1" t="s">
         <v>105</v>
       </c>
       <c r="S104" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="T104" s="38" t="s">
+      <c r="T104" s="31" t="s">
         <v>107</v>
       </c>
-      <c r="U104" s="38"/>
-      <c r="V104" s="38"/>
+      <c r="U104" s="31"/>
+      <c r="V104" s="31"/>
     </row>
     <row r="105" spans="12:22" x14ac:dyDescent="0.25">
-      <c r="O105" s="40" t="s">
+      <c r="O105" s="33" t="s">
         <v>108</v>
       </c>
-      <c r="P105" s="40"/>
-      <c r="Q105" s="40"/>
+      <c r="P105" s="33"/>
+      <c r="Q105" s="33"/>
       <c r="R105" s="14"/>
       <c r="S105" s="14"/>
-      <c r="T105" s="39"/>
-      <c r="U105" s="39"/>
-      <c r="V105" s="39"/>
+      <c r="T105" s="32"/>
+      <c r="U105" s="32"/>
+      <c r="V105" s="32"/>
     </row>
     <row r="106" spans="12:22" x14ac:dyDescent="0.25">
-      <c r="O106" s="40" t="s">
+      <c r="O106" s="33" t="s">
         <v>109</v>
       </c>
-      <c r="P106" s="40"/>
-      <c r="Q106" s="40"/>
+      <c r="P106" s="33"/>
+      <c r="Q106" s="33"/>
       <c r="R106" s="14"/>
       <c r="S106" s="14"/>
-      <c r="T106" s="39"/>
-      <c r="U106" s="39"/>
-      <c r="V106" s="39"/>
+      <c r="T106" s="32"/>
+      <c r="U106" s="32"/>
+      <c r="V106" s="32"/>
     </row>
     <row r="108" spans="12:22" ht="42.75" x14ac:dyDescent="0.25">
-      <c r="L108" s="27" t="s">
+      <c r="L108" s="36" t="s">
         <v>110</v>
       </c>
-      <c r="M108" s="27"/>
-      <c r="N108" s="27"/>
-      <c r="O108" s="27"/>
+      <c r="M108" s="36"/>
+      <c r="N108" s="36"/>
+      <c r="O108" s="36"/>
       <c r="P108" s="15" t="s">
         <v>111</v>
       </c>
@@ -7478,12 +7519,12 @@
       </c>
     </row>
     <row r="109" spans="12:22" x14ac:dyDescent="0.25">
-      <c r="L109" s="28" t="s">
+      <c r="L109" s="30" t="s">
         <v>113</v>
       </c>
-      <c r="M109" s="28"/>
-      <c r="N109" s="28"/>
-      <c r="O109" s="28"/>
+      <c r="M109" s="30"/>
+      <c r="N109" s="30"/>
+      <c r="O109" s="30"/>
       <c r="P109" s="16">
         <v>39</v>
       </c>
@@ -7493,12 +7534,12 @@
       </c>
     </row>
     <row r="110" spans="12:22" x14ac:dyDescent="0.25">
-      <c r="L110" s="28" t="s">
+      <c r="L110" s="30" t="s">
         <v>114</v>
       </c>
-      <c r="M110" s="28"/>
-      <c r="N110" s="28"/>
-      <c r="O110" s="28"/>
+      <c r="M110" s="30"/>
+      <c r="N110" s="30"/>
+      <c r="O110" s="30"/>
       <c r="P110" s="16">
         <v>0</v>
       </c>
@@ -7508,12 +7549,12 @@
       </c>
     </row>
     <row r="111" spans="12:22" x14ac:dyDescent="0.25">
-      <c r="L111" s="28" t="s">
+      <c r="L111" s="30" t="s">
         <v>115</v>
       </c>
-      <c r="M111" s="28"/>
-      <c r="N111" s="28"/>
-      <c r="O111" s="28"/>
+      <c r="M111" s="30"/>
+      <c r="N111" s="30"/>
+      <c r="O111" s="30"/>
       <c r="P111" s="16">
         <v>1</v>
       </c>
@@ -7523,12 +7564,12 @@
       </c>
     </row>
     <row r="112" spans="12:22" x14ac:dyDescent="0.25">
-      <c r="L112" s="28" t="s">
+      <c r="L112" s="30" t="s">
         <v>116</v>
       </c>
-      <c r="M112" s="28"/>
-      <c r="N112" s="28"/>
-      <c r="O112" s="28"/>
+      <c r="M112" s="30"/>
+      <c r="N112" s="30"/>
+      <c r="O112" s="30"/>
       <c r="P112" s="16">
         <v>36</v>
       </c>
@@ -7538,12 +7579,12 @@
       </c>
     </row>
     <row r="113" spans="12:17" x14ac:dyDescent="0.25">
-      <c r="L113" s="28" t="s">
+      <c r="L113" s="30" t="s">
         <v>117</v>
       </c>
-      <c r="M113" s="28"/>
-      <c r="N113" s="28"/>
-      <c r="O113" s="28"/>
+      <c r="M113" s="30"/>
+      <c r="N113" s="30"/>
+      <c r="O113" s="30"/>
       <c r="P113" s="16">
         <v>2</v>
       </c>
@@ -7557,19 +7598,17 @@
     <sortCondition ref="A2:A74"/>
   </sortState>
   <mergeCells count="40">
-    <mergeCell ref="Q96:Q97"/>
-    <mergeCell ref="R96:V96"/>
-    <mergeCell ref="L98:P98"/>
-    <mergeCell ref="L99:P99"/>
-    <mergeCell ref="L100:P100"/>
-    <mergeCell ref="L112:O112"/>
-    <mergeCell ref="L113:O113"/>
-    <mergeCell ref="T104:V104"/>
-    <mergeCell ref="T105:V105"/>
-    <mergeCell ref="T106:V106"/>
-    <mergeCell ref="O104:Q104"/>
-    <mergeCell ref="O105:Q105"/>
-    <mergeCell ref="O106:Q106"/>
+    <mergeCell ref="L26:M26"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="L22:M22"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="L5:M5"/>
     <mergeCell ref="L6:M6"/>
     <mergeCell ref="L108:O108"/>
     <mergeCell ref="L109:O109"/>
@@ -7586,17 +7625,19 @@
     <mergeCell ref="L24:M24"/>
     <mergeCell ref="L25:M25"/>
     <mergeCell ref="L12:M12"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="L4:M4"/>
-    <mergeCell ref="L5:M5"/>
-    <mergeCell ref="L26:M26"/>
-    <mergeCell ref="L15:M15"/>
-    <mergeCell ref="L16:M16"/>
-    <mergeCell ref="L17:M17"/>
-    <mergeCell ref="L18:M18"/>
-    <mergeCell ref="L22:M22"/>
+    <mergeCell ref="L112:O112"/>
+    <mergeCell ref="L113:O113"/>
+    <mergeCell ref="T104:V104"/>
+    <mergeCell ref="T105:V105"/>
+    <mergeCell ref="T106:V106"/>
+    <mergeCell ref="O104:Q104"/>
+    <mergeCell ref="O105:Q105"/>
+    <mergeCell ref="O106:Q106"/>
+    <mergeCell ref="Q96:Q97"/>
+    <mergeCell ref="R96:V96"/>
+    <mergeCell ref="L98:P98"/>
+    <mergeCell ref="L99:P99"/>
+    <mergeCell ref="L100:P100"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
